--- a/data/oegres_SC/oegres_SC.xlsx
+++ b/data/oegres_SC/oegres_SC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiacollins/Documents/git/oegres/data/oegres_SC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96554E2E-9479-B94F-9B12-28604E6A62DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE202B7-659B-A044-A5D1-5450328BBFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="2060" windowWidth="25820" windowHeight="14100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7100" yWindow="460" windowWidth="25820" windowHeight="14100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="1697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="1701">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5106,6 +5106,9 @@
     <t>Europe</t>
   </si>
   <si>
+    <t>stratification</t>
+  </si>
+  <si>
     <t>GA3</t>
   </si>
   <si>
@@ -5131,6 +5134,15 @@
   </si>
   <si>
     <t>dif</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>20/4</t>
+  </si>
+  <si>
+    <t>30/30</t>
   </si>
 </sst>
 </file>
@@ -5211,7 +5223,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5230,6 +5242,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -15840,16 +15853,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AP109"/>
+  <dimension ref="A1:AP145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AK98" sqref="AK98:AK109"/>
+      <selection pane="bottomLeft" activeCell="AJ156" sqref="AJ156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="21" max="21" width="10.83203125" style="10"/>
     <col min="23" max="23" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
@@ -15914,7 +15928,7 @@
       <c r="T1" t="s">
         <v>84</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="V1" t="s">
@@ -16030,6 +16044,9 @@
       <c r="AB2">
         <v>10</v>
       </c>
+      <c r="AE2" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH2" t="s">
         <v>1676</v>
       </c>
@@ -16098,6 +16115,9 @@
       <c r="AB3">
         <v>20</v>
       </c>
+      <c r="AE3" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH3" t="s">
         <v>1676</v>
       </c>
@@ -16166,6 +16186,9 @@
       <c r="AB4">
         <v>30</v>
       </c>
+      <c r="AE4" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH4" t="s">
         <v>1676</v>
       </c>
@@ -16234,6 +16257,9 @@
       <c r="AB5">
         <v>10</v>
       </c>
+      <c r="AE5" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH5" t="s">
         <v>1676</v>
       </c>
@@ -16302,6 +16328,9 @@
       <c r="AB6">
         <v>20</v>
       </c>
+      <c r="AE6" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH6" t="s">
         <v>1676</v>
       </c>
@@ -16370,6 +16399,9 @@
       <c r="AB7">
         <v>30</v>
       </c>
+      <c r="AE7" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH7" t="s">
         <v>1676</v>
       </c>
@@ -16438,6 +16470,9 @@
       <c r="AB8">
         <v>10</v>
       </c>
+      <c r="AE8" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH8" t="s">
         <v>1676</v>
       </c>
@@ -16506,6 +16541,9 @@
       <c r="AB9">
         <v>20</v>
       </c>
+      <c r="AE9" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH9" t="s">
         <v>1676</v>
       </c>
@@ -16574,6 +16612,9 @@
       <c r="AB10">
         <v>30</v>
       </c>
+      <c r="AE10" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH10" t="s">
         <v>1676</v>
       </c>
@@ -16642,6 +16683,9 @@
       <c r="AB11">
         <v>10</v>
       </c>
+      <c r="AE11" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH11" t="s">
         <v>1676</v>
       </c>
@@ -16710,6 +16754,9 @@
       <c r="AB12">
         <v>20</v>
       </c>
+      <c r="AE12" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH12" t="s">
         <v>1676</v>
       </c>
@@ -16778,6 +16825,9 @@
       <c r="AB13">
         <v>30</v>
       </c>
+      <c r="AE13" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH13" t="s">
         <v>1676</v>
       </c>
@@ -16846,6 +16896,9 @@
       <c r="AB14">
         <v>10</v>
       </c>
+      <c r="AE14" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH14" t="s">
         <v>1676</v>
       </c>
@@ -16914,6 +16967,9 @@
       <c r="AB15">
         <v>20</v>
       </c>
+      <c r="AE15" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH15" t="s">
         <v>1676</v>
       </c>
@@ -16982,6 +17038,9 @@
       <c r="AB16">
         <v>30</v>
       </c>
+      <c r="AE16" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH16" t="s">
         <v>1676</v>
       </c>
@@ -17050,6 +17109,9 @@
       <c r="AB17">
         <v>10</v>
       </c>
+      <c r="AE17" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH17" t="s">
         <v>1676</v>
       </c>
@@ -17118,6 +17180,9 @@
       <c r="AB18">
         <v>20</v>
       </c>
+      <c r="AE18" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH18" t="s">
         <v>1676</v>
       </c>
@@ -17186,6 +17251,9 @@
       <c r="AB19">
         <v>30</v>
       </c>
+      <c r="AE19" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH19" t="s">
         <v>1676</v>
       </c>
@@ -17254,6 +17322,9 @@
       <c r="AB20">
         <v>10</v>
       </c>
+      <c r="AE20" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH20" t="s">
         <v>1676</v>
       </c>
@@ -17322,6 +17393,9 @@
       <c r="AB21">
         <v>20</v>
       </c>
+      <c r="AE21" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH21" t="s">
         <v>1676</v>
       </c>
@@ -17390,6 +17464,9 @@
       <c r="AB22">
         <v>30</v>
       </c>
+      <c r="AE22" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH22" t="s">
         <v>1676</v>
       </c>
@@ -17458,6 +17535,9 @@
       <c r="AB23">
         <v>10</v>
       </c>
+      <c r="AE23" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH23" t="s">
         <v>1676</v>
       </c>
@@ -17526,6 +17606,9 @@
       <c r="AB24">
         <v>20</v>
       </c>
+      <c r="AE24" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH24" t="s">
         <v>1676</v>
       </c>
@@ -17594,6 +17677,9 @@
       <c r="AB25">
         <v>30</v>
       </c>
+      <c r="AE25" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH25" t="s">
         <v>1676</v>
       </c>
@@ -17662,6 +17748,9 @@
       <c r="AB26">
         <v>10</v>
       </c>
+      <c r="AE26" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH26" t="s">
         <v>1676</v>
       </c>
@@ -17730,6 +17819,9 @@
       <c r="AB27">
         <v>20</v>
       </c>
+      <c r="AE27" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH27" t="s">
         <v>1676</v>
       </c>
@@ -17798,6 +17890,9 @@
       <c r="AB28">
         <v>30</v>
       </c>
+      <c r="AE28" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH28" t="s">
         <v>1676</v>
       </c>
@@ -17866,6 +17961,9 @@
       <c r="AB29">
         <v>10</v>
       </c>
+      <c r="AE29" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH29" t="s">
         <v>1676</v>
       </c>
@@ -17934,6 +18032,9 @@
       <c r="AB30">
         <v>20</v>
       </c>
+      <c r="AE30" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH30" t="s">
         <v>1676</v>
       </c>
@@ -18002,6 +18103,9 @@
       <c r="AB31">
         <v>30</v>
       </c>
+      <c r="AE31" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH31" t="s">
         <v>1676</v>
       </c>
@@ -18070,6 +18174,9 @@
       <c r="AB32">
         <v>10</v>
       </c>
+      <c r="AE32" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH32" t="s">
         <v>1676</v>
       </c>
@@ -18138,6 +18245,9 @@
       <c r="AB33">
         <v>20</v>
       </c>
+      <c r="AE33" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH33" t="s">
         <v>1676</v>
       </c>
@@ -18206,6 +18316,9 @@
       <c r="AB34">
         <v>30</v>
       </c>
+      <c r="AE34" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH34" t="s">
         <v>1676</v>
       </c>
@@ -18272,6 +18385,9 @@
       <c r="AB35">
         <v>10</v>
       </c>
+      <c r="AE35" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH35" t="s">
         <v>1676</v>
       </c>
@@ -18341,6 +18457,9 @@
       <c r="AB36">
         <v>20</v>
       </c>
+      <c r="AE36" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH36" t="s">
         <v>1676</v>
       </c>
@@ -18410,6 +18529,9 @@
       <c r="AB37">
         <v>30</v>
       </c>
+      <c r="AE37" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH37" t="s">
         <v>1676</v>
       </c>
@@ -18481,6 +18603,9 @@
       <c r="AB38">
         <v>7</v>
       </c>
+      <c r="AE38" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH38" t="s">
         <v>1676</v>
       </c>
@@ -18552,6 +18677,9 @@
       <c r="AB39">
         <v>7</v>
       </c>
+      <c r="AE39" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH39" t="s">
         <v>1676</v>
       </c>
@@ -18620,6 +18748,9 @@
       <c r="AB40">
         <v>7</v>
       </c>
+      <c r="AE40" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH40" t="s">
         <v>1676</v>
       </c>
@@ -18688,6 +18819,9 @@
       <c r="AB41">
         <v>7</v>
       </c>
+      <c r="AE41" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH41" t="s">
         <v>1676</v>
       </c>
@@ -18756,6 +18890,9 @@
       <c r="AB42">
         <v>7</v>
       </c>
+      <c r="AE42" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH42" t="s">
         <v>1676</v>
       </c>
@@ -18824,6 +18961,9 @@
       <c r="AB43">
         <v>7</v>
       </c>
+      <c r="AE43" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH43" t="s">
         <v>1676</v>
       </c>
@@ -18892,6 +19032,9 @@
       <c r="AB44">
         <v>7</v>
       </c>
+      <c r="AE44" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH44" t="s">
         <v>1676</v>
       </c>
@@ -18960,6 +19103,9 @@
       <c r="AB45">
         <v>7</v>
       </c>
+      <c r="AE45" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH45" t="s">
         <v>1676</v>
       </c>
@@ -19028,6 +19174,9 @@
       <c r="AB46">
         <v>7</v>
       </c>
+      <c r="AE46" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH46" t="s">
         <v>1676</v>
       </c>
@@ -19096,6 +19245,9 @@
       <c r="AB47">
         <v>7</v>
       </c>
+      <c r="AE47" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH47" t="s">
         <v>1676</v>
       </c>
@@ -19164,6 +19316,9 @@
       <c r="AB48">
         <v>7</v>
       </c>
+      <c r="AE48" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH48" t="s">
         <v>1676</v>
       </c>
@@ -19230,6 +19385,9 @@
       <c r="AB49">
         <v>7</v>
       </c>
+      <c r="AE49" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH49" t="s">
         <v>1676</v>
       </c>
@@ -19298,6 +19456,9 @@
       <c r="AB50">
         <v>14</v>
       </c>
+      <c r="AE50" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH50" t="s">
         <v>1676</v>
       </c>
@@ -19366,6 +19527,9 @@
       <c r="AB51">
         <v>14</v>
       </c>
+      <c r="AE51" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH51" t="s">
         <v>1676</v>
       </c>
@@ -19434,6 +19598,9 @@
       <c r="AB52">
         <v>14</v>
       </c>
+      <c r="AE52" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH52" t="s">
         <v>1676</v>
       </c>
@@ -19502,6 +19669,9 @@
       <c r="AB53">
         <v>14</v>
       </c>
+      <c r="AE53" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH53" t="s">
         <v>1676</v>
       </c>
@@ -19570,6 +19740,9 @@
       <c r="AB54">
         <v>14</v>
       </c>
+      <c r="AE54" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH54" t="s">
         <v>1676</v>
       </c>
@@ -19638,6 +19811,9 @@
       <c r="AB55">
         <v>14</v>
       </c>
+      <c r="AE55" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH55" t="s">
         <v>1676</v>
       </c>
@@ -19706,6 +19882,9 @@
       <c r="AB56">
         <v>14</v>
       </c>
+      <c r="AE56" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH56" t="s">
         <v>1676</v>
       </c>
@@ -19774,6 +19953,9 @@
       <c r="AB57">
         <v>14</v>
       </c>
+      <c r="AE57" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH57" t="s">
         <v>1676</v>
       </c>
@@ -19842,6 +20024,9 @@
       <c r="AB58">
         <v>14</v>
       </c>
+      <c r="AE58" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH58" t="s">
         <v>1676</v>
       </c>
@@ -19910,6 +20095,9 @@
       <c r="AB59">
         <v>14</v>
       </c>
+      <c r="AE59" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH59" t="s">
         <v>1676</v>
       </c>
@@ -19978,6 +20166,9 @@
       <c r="AB60">
         <v>14</v>
       </c>
+      <c r="AE60" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH60" t="s">
         <v>1676</v>
       </c>
@@ -20044,6 +20235,9 @@
       <c r="AB61">
         <v>14</v>
       </c>
+      <c r="AE61" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH61" t="s">
         <v>1676</v>
       </c>
@@ -20112,6 +20306,9 @@
       <c r="AB62">
         <v>21</v>
       </c>
+      <c r="AE62" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH62" t="s">
         <v>1676</v>
       </c>
@@ -20180,6 +20377,9 @@
       <c r="AB63">
         <v>21</v>
       </c>
+      <c r="AE63" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH63" t="s">
         <v>1676</v>
       </c>
@@ -20248,6 +20448,9 @@
       <c r="AB64">
         <v>21</v>
       </c>
+      <c r="AE64" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH64" t="s">
         <v>1676</v>
       </c>
@@ -20316,6 +20519,9 @@
       <c r="AB65">
         <v>21</v>
       </c>
+      <c r="AE65" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH65" t="s">
         <v>1676</v>
       </c>
@@ -20384,6 +20590,9 @@
       <c r="AB66">
         <v>21</v>
       </c>
+      <c r="AE66" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH66" t="s">
         <v>1676</v>
       </c>
@@ -20452,6 +20661,9 @@
       <c r="AB67">
         <v>21</v>
       </c>
+      <c r="AE67" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH67" t="s">
         <v>1676</v>
       </c>
@@ -20520,6 +20732,9 @@
       <c r="AB68">
         <v>21</v>
       </c>
+      <c r="AE68" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH68" t="s">
         <v>1676</v>
       </c>
@@ -20588,6 +20803,9 @@
       <c r="AB69">
         <v>21</v>
       </c>
+      <c r="AE69" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH69" t="s">
         <v>1676</v>
       </c>
@@ -20656,6 +20874,9 @@
       <c r="AB70">
         <v>21</v>
       </c>
+      <c r="AE70" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH70" t="s">
         <v>1676</v>
       </c>
@@ -20724,6 +20945,9 @@
       <c r="AB71">
         <v>21</v>
       </c>
+      <c r="AE71" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH71" t="s">
         <v>1676</v>
       </c>
@@ -20792,6 +21016,9 @@
       <c r="AB72">
         <v>21</v>
       </c>
+      <c r="AE72" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH72" t="s">
         <v>1676</v>
       </c>
@@ -20858,6 +21085,9 @@
       <c r="AB73">
         <v>21</v>
       </c>
+      <c r="AE73" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH73" t="s">
         <v>1676</v>
       </c>
@@ -20926,6 +21156,9 @@
       <c r="AB74">
         <v>28</v>
       </c>
+      <c r="AE74" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH74" t="s">
         <v>1676</v>
       </c>
@@ -20994,6 +21227,9 @@
       <c r="AB75">
         <v>28</v>
       </c>
+      <c r="AE75" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH75" t="s">
         <v>1676</v>
       </c>
@@ -21062,6 +21298,9 @@
       <c r="AB76">
         <v>28</v>
       </c>
+      <c r="AE76" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH76" t="s">
         <v>1676</v>
       </c>
@@ -21130,6 +21369,9 @@
       <c r="AB77">
         <v>28</v>
       </c>
+      <c r="AE77" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH77" t="s">
         <v>1676</v>
       </c>
@@ -21198,6 +21440,9 @@
       <c r="AB78">
         <v>28</v>
       </c>
+      <c r="AE78" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH78" t="s">
         <v>1676</v>
       </c>
@@ -21266,6 +21511,9 @@
       <c r="AB79">
         <v>28</v>
       </c>
+      <c r="AE79" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH79" t="s">
         <v>1676</v>
       </c>
@@ -21334,6 +21582,9 @@
       <c r="AB80">
         <v>28</v>
       </c>
+      <c r="AE80" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH80" t="s">
         <v>1676</v>
       </c>
@@ -21402,6 +21653,9 @@
       <c r="AB81">
         <v>28</v>
       </c>
+      <c r="AE81" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH81" t="s">
         <v>1676</v>
       </c>
@@ -21470,6 +21724,9 @@
       <c r="AB82">
         <v>28</v>
       </c>
+      <c r="AE82" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH82" t="s">
         <v>1676</v>
       </c>
@@ -21538,6 +21795,9 @@
       <c r="AB83">
         <v>28</v>
       </c>
+      <c r="AE83" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH83" t="s">
         <v>1676</v>
       </c>
@@ -21606,6 +21866,9 @@
       <c r="AB84">
         <v>28</v>
       </c>
+      <c r="AE84" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH84" t="s">
         <v>1676</v>
       </c>
@@ -21672,6 +21935,9 @@
       <c r="AB85">
         <v>28</v>
       </c>
+      <c r="AE85" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH85" t="s">
         <v>1676</v>
       </c>
@@ -21740,6 +22006,9 @@
       <c r="AB86">
         <v>35</v>
       </c>
+      <c r="AE86" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH86" t="s">
         <v>1676</v>
       </c>
@@ -21808,6 +22077,9 @@
       <c r="AB87">
         <v>35</v>
       </c>
+      <c r="AE87" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH87" t="s">
         <v>1676</v>
       </c>
@@ -21876,6 +22148,9 @@
       <c r="AB88">
         <v>35</v>
       </c>
+      <c r="AE88" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH88" t="s">
         <v>1676</v>
       </c>
@@ -21944,6 +22219,9 @@
       <c r="AB89">
         <v>35</v>
       </c>
+      <c r="AE89" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH89" t="s">
         <v>1676</v>
       </c>
@@ -22012,6 +22290,9 @@
       <c r="AB90">
         <v>35</v>
       </c>
+      <c r="AE90" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH90" t="s">
         <v>1676</v>
       </c>
@@ -22080,6 +22361,9 @@
       <c r="AB91">
         <v>35</v>
       </c>
+      <c r="AE91" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH91" t="s">
         <v>1676</v>
       </c>
@@ -22148,6 +22432,9 @@
       <c r="AB92">
         <v>35</v>
       </c>
+      <c r="AE92" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH92" t="s">
         <v>1676</v>
       </c>
@@ -22216,6 +22503,9 @@
       <c r="AB93">
         <v>35</v>
       </c>
+      <c r="AE93" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH93" t="s">
         <v>1676</v>
       </c>
@@ -22284,6 +22574,9 @@
       <c r="AB94">
         <v>35</v>
       </c>
+      <c r="AE94" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH94" t="s">
         <v>1676</v>
       </c>
@@ -22352,6 +22645,9 @@
       <c r="AB95">
         <v>35</v>
       </c>
+      <c r="AE95" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH95" t="s">
         <v>1676</v>
       </c>
@@ -22420,6 +22716,9 @@
       <c r="AB96">
         <v>35</v>
       </c>
+      <c r="AE96" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH96" t="s">
         <v>1676</v>
       </c>
@@ -22486,6 +22785,9 @@
       <c r="AB97">
         <v>35</v>
       </c>
+      <c r="AE97" t="s">
+        <v>1698</v>
+      </c>
       <c r="AH97" t="s">
         <v>1676</v>
       </c>
@@ -22534,7 +22836,7 @@
         <v>1675</v>
       </c>
       <c r="W98" s="10" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="AB98">
         <v>1</v>
@@ -22543,7 +22845,7 @@
         <v>160</v>
       </c>
       <c r="AF98" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="AG98">
         <v>1440</v>
@@ -22596,13 +22898,13 @@
         <v>1687</v>
       </c>
       <c r="T99" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="W99" s="10" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="Z99" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AA99">
         <v>250</v>
@@ -22614,7 +22916,7 @@
         <v>160</v>
       </c>
       <c r="AF99" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AG99">
         <v>1440</v>
@@ -22667,13 +22969,13 @@
         <v>1687</v>
       </c>
       <c r="T100" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="W100" s="10" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="Z100" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AA100">
         <v>500</v>
@@ -22685,7 +22987,7 @@
         <v>160</v>
       </c>
       <c r="AF100" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AG100">
         <v>1440</v>
@@ -22741,7 +23043,7 @@
         <v>1675</v>
       </c>
       <c r="W101" s="10" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="AB101">
         <v>1</v>
@@ -22750,7 +23052,7 @@
         <v>160</v>
       </c>
       <c r="AF101" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="AG101">
         <v>1440</v>
@@ -22803,13 +23105,13 @@
         <v>1687</v>
       </c>
       <c r="T102" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="W102" s="10" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="Z102" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AA102">
         <v>250</v>
@@ -22821,7 +23123,7 @@
         <v>160</v>
       </c>
       <c r="AF102" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AG102">
         <v>1440</v>
@@ -22874,13 +23176,13 @@
         <v>1687</v>
       </c>
       <c r="T103" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="W103" s="10" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="Z103" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AA103">
         <v>500</v>
@@ -22892,7 +23194,7 @@
         <v>160</v>
       </c>
       <c r="AF103" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AG103">
         <v>1440</v>
@@ -22948,7 +23250,7 @@
         <v>1675</v>
       </c>
       <c r="W104" s="10" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="AB104">
         <v>1</v>
@@ -22957,7 +23259,7 @@
         <v>160</v>
       </c>
       <c r="AF104" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="AG104">
         <v>1440</v>
@@ -23010,13 +23312,13 @@
         <v>1687</v>
       </c>
       <c r="T105" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="W105" s="10" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="Z105" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AA105">
         <v>250</v>
@@ -23028,7 +23330,7 @@
         <v>160</v>
       </c>
       <c r="AF105" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AG105">
         <v>1440</v>
@@ -23081,13 +23383,13 @@
         <v>1687</v>
       </c>
       <c r="T106" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="W106" s="10" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="Z106" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AA106">
         <v>500</v>
@@ -23099,7 +23401,7 @@
         <v>160</v>
       </c>
       <c r="AF106" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AG106">
         <v>1440</v>
@@ -23155,7 +23457,7 @@
         <v>1675</v>
       </c>
       <c r="W107" s="10" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="AB107">
         <v>1</v>
@@ -23164,7 +23466,7 @@
         <v>160</v>
       </c>
       <c r="AF107" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="AG107">
         <v>1440</v>
@@ -23217,13 +23519,13 @@
         <v>1687</v>
       </c>
       <c r="T108" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="W108" s="10" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="Z108" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AA108">
         <v>250</v>
@@ -23235,7 +23537,7 @@
         <v>160</v>
       </c>
       <c r="AF108" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AG108">
         <v>1440</v>
@@ -23288,13 +23590,13 @@
         <v>1687</v>
       </c>
       <c r="T109" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="W109" s="10" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="Z109" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AA109">
         <v>500</v>
@@ -23306,7 +23608,7 @@
         <v>160</v>
       </c>
       <c r="AF109" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AG109">
         <v>1440</v>
@@ -23330,6 +23632,3166 @@
         <v>168</v>
       </c>
       <c r="AO109" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>476</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D110" t="s">
+        <v>263</v>
+      </c>
+      <c r="E110" t="s">
+        <v>472</v>
+      </c>
+      <c r="G110" t="s">
+        <v>160</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1687</v>
+      </c>
+      <c r="T110" t="s">
+        <v>1675</v>
+      </c>
+      <c r="U110" s="10">
+        <v>4</v>
+      </c>
+      <c r="V110">
+        <v>30</v>
+      </c>
+      <c r="W110" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="X110" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AB110">
+        <v>1</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AG110">
+        <v>1440</v>
+      </c>
+      <c r="AH110" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI110">
+        <v>69.956000000000003</v>
+      </c>
+      <c r="AK110">
+        <v>3.5090000000000003</v>
+      </c>
+      <c r="AL110">
+        <v>3</v>
+      </c>
+      <c r="AM110">
+        <v>25</v>
+      </c>
+      <c r="AN110">
+        <v>168</v>
+      </c>
+      <c r="AO110" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>476</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D111" t="s">
+        <v>263</v>
+      </c>
+      <c r="E111" t="s">
+        <v>472</v>
+      </c>
+      <c r="G111" t="s">
+        <v>160</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L111" t="s">
+        <v>1687</v>
+      </c>
+      <c r="T111" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U111" s="10">
+        <v>4</v>
+      </c>
+      <c r="V111">
+        <v>30</v>
+      </c>
+      <c r="W111" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="X111" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA111">
+        <v>250</v>
+      </c>
+      <c r="AB111">
+        <v>1</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG111">
+        <v>1440</v>
+      </c>
+      <c r="AH111" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI111">
+        <v>68.64</v>
+      </c>
+      <c r="AK111">
+        <v>4.8250000000000028</v>
+      </c>
+      <c r="AL111">
+        <v>3</v>
+      </c>
+      <c r="AM111">
+        <v>25</v>
+      </c>
+      <c r="AN111">
+        <v>168</v>
+      </c>
+      <c r="AO111" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>476</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D112" t="s">
+        <v>263</v>
+      </c>
+      <c r="E112" t="s">
+        <v>472</v>
+      </c>
+      <c r="G112" t="s">
+        <v>160</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1687</v>
+      </c>
+      <c r="T112" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U112" s="10">
+        <v>4</v>
+      </c>
+      <c r="V112">
+        <v>30</v>
+      </c>
+      <c r="W112" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="X112" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA112">
+        <v>500</v>
+      </c>
+      <c r="AB112">
+        <v>1</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG112">
+        <v>1440</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI112">
+        <v>70.394999999999996</v>
+      </c>
+      <c r="AK112">
+        <v>8.3329999999999984</v>
+      </c>
+      <c r="AL112">
+        <v>3</v>
+      </c>
+      <c r="AM112">
+        <v>25</v>
+      </c>
+      <c r="AN112">
+        <v>168</v>
+      </c>
+      <c r="AO112" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="113" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>476</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D113" t="s">
+        <v>263</v>
+      </c>
+      <c r="E113" t="s">
+        <v>472</v>
+      </c>
+      <c r="G113" t="s">
+        <v>160</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L113" t="s">
+        <v>1687</v>
+      </c>
+      <c r="T113" t="s">
+        <v>1675</v>
+      </c>
+      <c r="U113" s="10">
+        <v>4</v>
+      </c>
+      <c r="V113">
+        <v>30</v>
+      </c>
+      <c r="W113" s="10" t="s">
+        <v>1692</v>
+      </c>
+      <c r="X113" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AB113">
+        <v>1</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AG113">
+        <v>1440</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI113">
+        <v>51.534999999999997</v>
+      </c>
+      <c r="AK113">
+        <v>9.2110000000000056</v>
+      </c>
+      <c r="AL113">
+        <v>3</v>
+      </c>
+      <c r="AM113">
+        <v>25</v>
+      </c>
+      <c r="AN113">
+        <v>168</v>
+      </c>
+      <c r="AO113" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="114" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>476</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D114" t="s">
+        <v>263</v>
+      </c>
+      <c r="E114" t="s">
+        <v>472</v>
+      </c>
+      <c r="G114" t="s">
+        <v>160</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L114" t="s">
+        <v>1687</v>
+      </c>
+      <c r="T114" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U114" s="10">
+        <v>4</v>
+      </c>
+      <c r="V114">
+        <v>30</v>
+      </c>
+      <c r="W114" s="10" t="s">
+        <v>1692</v>
+      </c>
+      <c r="X114" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA114">
+        <v>250</v>
+      </c>
+      <c r="AB114">
+        <v>1</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF114" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG114">
+        <v>1440</v>
+      </c>
+      <c r="AH114" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI114">
+        <v>48.465000000000003</v>
+      </c>
+      <c r="AK114">
+        <v>17.981999999999999</v>
+      </c>
+      <c r="AL114">
+        <v>3</v>
+      </c>
+      <c r="AM114">
+        <v>25</v>
+      </c>
+      <c r="AN114">
+        <v>168</v>
+      </c>
+      <c r="AO114" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="115" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>476</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D115" t="s">
+        <v>263</v>
+      </c>
+      <c r="E115" t="s">
+        <v>472</v>
+      </c>
+      <c r="G115" t="s">
+        <v>160</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1686</v>
+      </c>
+      <c r="L115" t="s">
+        <v>1687</v>
+      </c>
+      <c r="T115" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U115" s="10">
+        <v>4</v>
+      </c>
+      <c r="V115">
+        <v>30</v>
+      </c>
+      <c r="W115" s="10" t="s">
+        <v>1692</v>
+      </c>
+      <c r="X115" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA115">
+        <v>500</v>
+      </c>
+      <c r="AB115">
+        <v>1</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF115" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG115">
+        <v>1440</v>
+      </c>
+      <c r="AH115" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI115">
+        <v>54.167000000000002</v>
+      </c>
+      <c r="AK115">
+        <v>9.6490000000000009</v>
+      </c>
+      <c r="AL115">
+        <v>3</v>
+      </c>
+      <c r="AM115">
+        <v>25</v>
+      </c>
+      <c r="AN115">
+        <v>168</v>
+      </c>
+      <c r="AO115" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="116" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="U116" s="12">
+        <v>4</v>
+      </c>
+      <c r="V116" s="4">
+        <v>30</v>
+      </c>
+      <c r="W116" s="12" t="s">
+        <v>1693</v>
+      </c>
+      <c r="X116" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4"/>
+      <c r="AA116" s="4"/>
+      <c r="AB116" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC116" s="4"/>
+      <c r="AD116" s="4"/>
+      <c r="AE116" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF116" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AG116" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH116" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI116" s="4">
+        <v>14.693</v>
+      </c>
+      <c r="AJ116" s="4"/>
+      <c r="AK116" s="4">
+        <v>10.087999999999999</v>
+      </c>
+      <c r="AL116" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM116" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN116" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO116" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AP116" s="4"/>
+    </row>
+    <row r="117" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U117" s="12">
+        <v>4</v>
+      </c>
+      <c r="V117" s="4">
+        <v>30</v>
+      </c>
+      <c r="W117" s="12" t="s">
+        <v>1693</v>
+      </c>
+      <c r="X117" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA117" s="4">
+        <v>250</v>
+      </c>
+      <c r="AB117" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC117" s="4"/>
+      <c r="AD117" s="4"/>
+      <c r="AE117" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF117" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG117" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH117" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI117" s="4">
+        <v>16.009</v>
+      </c>
+      <c r="AJ117" s="4"/>
+      <c r="AK117" s="4">
+        <v>14.419</v>
+      </c>
+      <c r="AL117" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM117" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN117" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO117" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AP117" s="4"/>
+    </row>
+    <row r="118" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U118" s="12">
+        <v>4</v>
+      </c>
+      <c r="V118" s="4">
+        <v>30</v>
+      </c>
+      <c r="W118" s="12" t="s">
+        <v>1693</v>
+      </c>
+      <c r="X118" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA118" s="4">
+        <v>500</v>
+      </c>
+      <c r="AB118" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC118" s="4"/>
+      <c r="AD118" s="4"/>
+      <c r="AE118" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF118" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG118" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH118" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI118" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ118" s="4"/>
+      <c r="AK118" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL118" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM118" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN118" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO118" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AP118" s="4"/>
+    </row>
+    <row r="119" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="U119" s="12">
+        <v>4</v>
+      </c>
+      <c r="V119" s="4">
+        <v>30</v>
+      </c>
+      <c r="W119" s="12" t="s">
+        <v>1694</v>
+      </c>
+      <c r="X119" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="4"/>
+      <c r="AA119" s="4"/>
+      <c r="AB119" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC119" s="4"/>
+      <c r="AD119" s="4"/>
+      <c r="AE119" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF119" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AG119" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH119" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI119" s="4">
+        <v>3.7280000000000002</v>
+      </c>
+      <c r="AJ119" s="4"/>
+      <c r="AK119" s="4">
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="AL119" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM119" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN119" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO119" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AP119" s="4"/>
+    </row>
+    <row r="120" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U120" s="12">
+        <v>4</v>
+      </c>
+      <c r="V120" s="4">
+        <v>30</v>
+      </c>
+      <c r="W120" s="12" t="s">
+        <v>1694</v>
+      </c>
+      <c r="X120" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA120" s="4">
+        <v>250</v>
+      </c>
+      <c r="AB120" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC120" s="4"/>
+      <c r="AD120" s="4"/>
+      <c r="AE120" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF120" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG120" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH120" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI120" s="4">
+        <v>5.0439999999999996</v>
+      </c>
+      <c r="AJ120" s="4"/>
+      <c r="AK120" s="4">
+        <v>5.7020000000000008</v>
+      </c>
+      <c r="AL120" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM120" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN120" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO120" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AP120" s="4"/>
+    </row>
+    <row r="121" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U121" s="12">
+        <v>4</v>
+      </c>
+      <c r="V121" s="4">
+        <v>30</v>
+      </c>
+      <c r="W121" s="12" t="s">
+        <v>1694</v>
+      </c>
+      <c r="X121" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Y121" s="4"/>
+      <c r="Z121" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA121" s="4">
+        <v>500</v>
+      </c>
+      <c r="AB121" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC121" s="4"/>
+      <c r="AD121" s="4"/>
+      <c r="AE121" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF121" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG121" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH121" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI121" s="4">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="AJ121" s="4"/>
+      <c r="AK121" s="4">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="AL121" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM121" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN121" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO121" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AP121" s="4"/>
+    </row>
+    <row r="122" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="U122" s="12">
+        <v>4</v>
+      </c>
+      <c r="V122" s="4">
+        <v>60</v>
+      </c>
+      <c r="W122" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="X122" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AB122" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE122" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF122" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AG122" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH122" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI122" s="4">
+        <v>87.938999999999993</v>
+      </c>
+      <c r="AK122">
+        <v>6.5790000000000077</v>
+      </c>
+      <c r="AL122" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM122" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN122" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO122" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="123" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U123" s="12">
+        <v>4</v>
+      </c>
+      <c r="V123" s="4">
+        <v>60</v>
+      </c>
+      <c r="W123" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="X123" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z123" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA123" s="4">
+        <v>250</v>
+      </c>
+      <c r="AB123" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE123" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF123" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG123" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH123" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI123" s="4">
+        <v>77.850999999999999</v>
+      </c>
+      <c r="AK123">
+        <v>7.894999999999996</v>
+      </c>
+      <c r="AL123" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM123" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN123" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO123" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="124" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U124" s="12">
+        <v>4</v>
+      </c>
+      <c r="V124" s="4">
+        <v>60</v>
+      </c>
+      <c r="W124" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="X124" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z124" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA124" s="4">
+        <v>500</v>
+      </c>
+      <c r="AB124" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE124" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF124" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG124" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH124" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI124" s="4">
+        <v>63.816000000000003</v>
+      </c>
+      <c r="AK124">
+        <v>8.7719999999999914</v>
+      </c>
+      <c r="AL124" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM124" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN124" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO124" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="125" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="U125" s="12">
+        <v>4</v>
+      </c>
+      <c r="V125" s="4">
+        <v>60</v>
+      </c>
+      <c r="W125" s="10" t="s">
+        <v>1692</v>
+      </c>
+      <c r="X125" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AB125" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE125" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF125" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AG125" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH125" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI125" s="4">
+        <v>78.289000000000001</v>
+      </c>
+      <c r="AK125">
+        <v>8.7720000000000056</v>
+      </c>
+      <c r="AL125" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM125" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN125" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO125" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="126" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U126" s="12">
+        <v>4</v>
+      </c>
+      <c r="V126" s="4">
+        <v>60</v>
+      </c>
+      <c r="W126" s="10" t="s">
+        <v>1692</v>
+      </c>
+      <c r="X126" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z126" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA126" s="4">
+        <v>250</v>
+      </c>
+      <c r="AB126" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE126" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF126" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG126" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH126" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI126" s="4">
+        <v>50.658000000000001</v>
+      </c>
+      <c r="AK126">
+        <v>8.7719999999999985</v>
+      </c>
+      <c r="AL126" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM126" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN126" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO126" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="127" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U127" s="12">
+        <v>4</v>
+      </c>
+      <c r="V127" s="4">
+        <v>60</v>
+      </c>
+      <c r="W127" s="10" t="s">
+        <v>1692</v>
+      </c>
+      <c r="X127" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z127" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA127" s="4">
+        <v>500</v>
+      </c>
+      <c r="AB127" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE127" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF127" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG127" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH127" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI127" s="4">
+        <v>58.552999999999997</v>
+      </c>
+      <c r="AK127">
+        <v>4.3860000000000028</v>
+      </c>
+      <c r="AL127" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM127" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN127" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO127" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="128" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+      <c r="R128" s="4"/>
+      <c r="S128" s="4"/>
+      <c r="T128" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="U128" s="12">
+        <v>4</v>
+      </c>
+      <c r="V128" s="4">
+        <v>60</v>
+      </c>
+      <c r="W128" s="10" t="s">
+        <v>1693</v>
+      </c>
+      <c r="X128" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AB128" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE128" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF128" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AG128" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH128" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI128" s="4">
+        <v>26.974</v>
+      </c>
+      <c r="AK128">
+        <v>10.526</v>
+      </c>
+      <c r="AL128" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM128" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN128" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO128" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U129" s="12">
+        <v>4</v>
+      </c>
+      <c r="V129" s="4">
+        <v>60</v>
+      </c>
+      <c r="W129" s="10" t="s">
+        <v>1693</v>
+      </c>
+      <c r="X129" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z129" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA129" s="4">
+        <v>250</v>
+      </c>
+      <c r="AB129" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE129" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF129" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG129" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH129" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI129" s="4">
+        <v>11.183999999999999</v>
+      </c>
+      <c r="AK129">
+        <v>3.0700000000000003</v>
+      </c>
+      <c r="AL129" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM129" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN129" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO129" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U130" s="12">
+        <v>4</v>
+      </c>
+      <c r="V130" s="4">
+        <v>60</v>
+      </c>
+      <c r="W130" s="10" t="s">
+        <v>1693</v>
+      </c>
+      <c r="X130" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z130" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA130" s="4">
+        <v>500</v>
+      </c>
+      <c r="AB130" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE130" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF130" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG130" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH130" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI130" s="4">
+        <v>19.079000000000001</v>
+      </c>
+      <c r="AK130">
+        <v>4.3859999999999992</v>
+      </c>
+      <c r="AL130" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM130" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN130" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO130" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="U131" s="12">
+        <v>4</v>
+      </c>
+      <c r="V131" s="4">
+        <v>60</v>
+      </c>
+      <c r="W131" s="10" t="s">
+        <v>1694</v>
+      </c>
+      <c r="X131" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AB131" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE131" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF131" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AG131" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH131" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI131" s="4">
+        <v>23.465</v>
+      </c>
+      <c r="AK131">
+        <v>8.3329999999999984</v>
+      </c>
+      <c r="AL131" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM131" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN131" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO131" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U132" s="12">
+        <v>4</v>
+      </c>
+      <c r="V132" s="4">
+        <v>60</v>
+      </c>
+      <c r="W132" s="10" t="s">
+        <v>1694</v>
+      </c>
+      <c r="X132" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z132" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA132" s="4">
+        <v>250</v>
+      </c>
+      <c r="AB132" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE132" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF132" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG132" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH132" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI132" s="4">
+        <v>4.1669999999999998</v>
+      </c>
+      <c r="AK132">
+        <v>2.6310000000000002</v>
+      </c>
+      <c r="AL132" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM132" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN132" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO132" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U133" s="12">
+        <v>4</v>
+      </c>
+      <c r="V133" s="4">
+        <v>60</v>
+      </c>
+      <c r="W133" s="10" t="s">
+        <v>1694</v>
+      </c>
+      <c r="X133" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z133" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA133" s="4">
+        <v>500</v>
+      </c>
+      <c r="AB133" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE133" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF133" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG133" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH133" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI133" s="4">
+        <v>21.710999999999999</v>
+      </c>
+      <c r="AK133">
+        <v>12.280000000000001</v>
+      </c>
+      <c r="AL133" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM133" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN133" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO133" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4"/>
+      <c r="T134" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="U134" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V134" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W134" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="X134" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AE134" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF134" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AG134" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH134" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI134" s="4">
+        <v>93.201999999999998</v>
+      </c>
+      <c r="AK134">
+        <v>2.6310000000000002</v>
+      </c>
+      <c r="AL134" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM134" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN134" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO134" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U135" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V135" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W135" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="X135" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z135" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA135" s="4">
+        <v>250</v>
+      </c>
+      <c r="AB135" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE135" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF135" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG135" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH135" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI135" s="4">
+        <v>58.552999999999997</v>
+      </c>
+      <c r="AK135">
+        <v>9.210000000000008</v>
+      </c>
+      <c r="AL135" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM135" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN135" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO135" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U136" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V136" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W136" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="X136" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z136" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA136" s="4">
+        <v>500</v>
+      </c>
+      <c r="AB136" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE136" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF136" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG136" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH136" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI136" s="4">
+        <v>76.974000000000004</v>
+      </c>
+      <c r="AK136">
+        <v>4.3859999999999957</v>
+      </c>
+      <c r="AL136" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM136" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN136" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO136" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+      <c r="R137" s="4"/>
+      <c r="S137" s="4"/>
+      <c r="T137" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="U137" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V137" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W137" s="10" t="s">
+        <v>1692</v>
+      </c>
+      <c r="X137" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AE137" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF137" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AG137" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH137" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI137" s="4">
+        <v>84.867999999999995</v>
+      </c>
+      <c r="AK137">
+        <v>9.6500000000000057</v>
+      </c>
+      <c r="AL137" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM137" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN137" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO137" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+      <c r="R138" s="4"/>
+      <c r="S138" s="4"/>
+      <c r="T138" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U138" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V138" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W138" s="10" t="s">
+        <v>1692</v>
+      </c>
+      <c r="X138" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z138" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA138" s="4">
+        <v>250</v>
+      </c>
+      <c r="AB138" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE138" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF138" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG138" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH138" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI138" s="4">
+        <v>36.183999999999997</v>
+      </c>
+      <c r="AK138">
+        <v>14.913000000000004</v>
+      </c>
+      <c r="AL138" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM138" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN138" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO138" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U139" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V139" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W139" s="10" t="s">
+        <v>1692</v>
+      </c>
+      <c r="X139" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z139" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA139" s="4">
+        <v>500</v>
+      </c>
+      <c r="AB139" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE139" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF139" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG139" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH139" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI139" s="4">
+        <v>55.920999999999999</v>
+      </c>
+      <c r="AK139">
+        <v>12.280999999999999</v>
+      </c>
+      <c r="AL139" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM139" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN139" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO139" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+      <c r="R140" s="4"/>
+      <c r="S140" s="4"/>
+      <c r="T140" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="U140" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V140" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W140" s="10" t="s">
+        <v>1693</v>
+      </c>
+      <c r="X140" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AE140" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF140" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AG140" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH140" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI140" s="4">
+        <v>34.868000000000002</v>
+      </c>
+      <c r="AK140">
+        <v>18.86</v>
+      </c>
+      <c r="AL140" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM140" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN140" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO140" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U141" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V141" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W141" s="10" t="s">
+        <v>1693</v>
+      </c>
+      <c r="X141" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z141" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA141" s="4">
+        <v>250</v>
+      </c>
+      <c r="AB141" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE141" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF141" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG141" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH141" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI141" s="4">
+        <v>3.2890000000000001</v>
+      </c>
+      <c r="AK141">
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="AL141" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM141" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN141" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO141" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+      <c r="R142" s="4"/>
+      <c r="S142" s="4"/>
+      <c r="T142" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U142" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V142" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W142" s="10" t="s">
+        <v>1693</v>
+      </c>
+      <c r="X142" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z142" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA142" s="4">
+        <v>500</v>
+      </c>
+      <c r="AB142" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE142" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF142" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG142" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH142" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI142" s="4">
+        <v>17.763000000000002</v>
+      </c>
+      <c r="AK142">
+        <v>3.0699999999999967</v>
+      </c>
+      <c r="AL142" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM142" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN142" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO142" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="4"/>
+      <c r="S143" s="4"/>
+      <c r="T143" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="U143" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V143" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W143" s="10" t="s">
+        <v>1694</v>
+      </c>
+      <c r="X143" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="AE143" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF143" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AG143" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH143" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI143" s="4">
+        <v>19.079000000000001</v>
+      </c>
+      <c r="AK143">
+        <v>5.7019999999999982</v>
+      </c>
+      <c r="AL143" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM143" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN143" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO143" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U144" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V144" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W144" s="10" t="s">
+        <v>1694</v>
+      </c>
+      <c r="X144" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z144" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA144" s="4">
+        <v>250</v>
+      </c>
+      <c r="AB144" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE144" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF144" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG144" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH144" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI144" s="4">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="AK144">
+        <v>2.6319999999999997</v>
+      </c>
+      <c r="AL144" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM144" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN144" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO144" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="U145" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="V145" t="s">
+        <v>1700</v>
+      </c>
+      <c r="W145" s="10" t="s">
+        <v>1694</v>
+      </c>
+      <c r="X145" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Z145" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AA145" s="4">
+        <v>500</v>
+      </c>
+      <c r="AB145" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE145" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF145" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AG145" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AH145" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AI145" s="4">
+        <v>5.9210000000000003</v>
+      </c>
+      <c r="AK145">
+        <v>1.7539999999999996</v>
+      </c>
+      <c r="AL145" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM145" s="4">
+        <v>25</v>
+      </c>
+      <c r="AN145" s="4">
+        <v>168</v>
+      </c>
+      <c r="AO145" s="4" t="s">
         <v>1685</v>
       </c>
     </row>
@@ -23344,164 +26806,164 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+      <selection activeCell="C13" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C1" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>96.710999999999999</v>
+        <v>93.201999999999998</v>
       </c>
       <c r="B2">
-        <v>101.535</v>
+        <v>95.832999999999998</v>
       </c>
       <c r="C2">
         <f>B2-A2</f>
-        <v>4.8239999999999981</v>
+        <v>2.6310000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>94.078999999999994</v>
+        <v>58.552999999999997</v>
       </c>
       <c r="B3">
-        <v>96.272000000000006</v>
+        <v>67.763000000000005</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C13" si="0">B3-A3</f>
-        <v>2.1930000000000121</v>
+        <v>9.210000000000008</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>100</v>
+        <v>76.974000000000004</v>
       </c>
       <c r="B4">
-        <v>101.974</v>
+        <v>81.36</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>1.9740000000000038</v>
+        <v>4.3859999999999957</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>90.132000000000005</v>
+        <v>84.867999999999995</v>
       </c>
       <c r="B5">
-        <v>93.64</v>
+        <v>94.518000000000001</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>3.5079999999999956</v>
+        <v>9.6500000000000057</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>100</v>
+        <v>36.183999999999997</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>51.097000000000001</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.913000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>98.025999999999996</v>
+        <v>55.920999999999999</v>
       </c>
       <c r="B7">
-        <v>100.658</v>
+        <v>68.201999999999998</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>2.632000000000005</v>
+        <v>12.280999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>30.920999999999999</v>
+        <v>34.868000000000002</v>
       </c>
       <c r="B8">
-        <v>31.797999999999998</v>
+        <v>53.728000000000002</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.87699999999999889</v>
+        <v>18.86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>86.183999999999997</v>
+        <v>3.2890000000000001</v>
       </c>
       <c r="B9">
-        <v>94.518000000000001</v>
+        <v>5.9210000000000003</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>8.3340000000000032</v>
+        <v>2.6320000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>94.736999999999995</v>
+        <v>17.763000000000002</v>
       </c>
       <c r="B10">
-        <v>97.587999999999994</v>
+        <v>20.832999999999998</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>2.8509999999999991</v>
+        <v>3.0699999999999967</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>41.447000000000003</v>
+        <v>19.079000000000001</v>
       </c>
       <c r="B11">
-        <v>51.534999999999997</v>
+        <v>24.780999999999999</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>10.087999999999994</v>
+        <v>5.7019999999999982</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>68.421000000000006</v>
+        <v>1.5349999999999999</v>
       </c>
       <c r="B12">
-        <v>73.465000000000003</v>
+        <v>4.1669999999999998</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>5.0439999999999969</v>
+        <v>2.6319999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>78.947000000000003</v>
+        <v>5.9210000000000003</v>
       </c>
       <c r="B13">
-        <v>81.36</v>
+        <v>7.6749999999999998</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>2.4129999999999967</v>
+        <v>1.7539999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/data/oegres_SC/oegres_SC.xlsx
+++ b/data/oegres_SC/oegres_SC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiacollins/Documents/git/oegres/data/oegres_SC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1A6FF-C629-F541-BF98-9F7EAFA5C6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A3B4BA-18A7-8648-95CD-010547B81A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="460" windowWidth="23380" windowHeight="14560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10316" uniqueCount="1758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10318" uniqueCount="1760">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5314,6 +5314,12 @@
   </si>
   <si>
     <t>narbonensis</t>
+  </si>
+  <si>
+    <t>paper is in persian</t>
+  </si>
+  <si>
+    <t>cannot find paper</t>
   </si>
 </sst>
 </file>
@@ -6277,8 +6283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K33" workbookViewId="0">
-      <selection activeCell="C39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="F20" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8263,6 +8269,9 @@
       <c r="K39" t="s">
         <v>146</v>
       </c>
+      <c r="N39" t="s">
+        <v>1759</v>
+      </c>
       <c r="P39" t="s">
         <v>462</v>
       </c>
@@ -8461,7 +8470,10 @@
         <v>495</v>
       </c>
       <c r="K43" t="s">
-        <v>146</v>
+        <v>572</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1758</v>
       </c>
       <c r="Q43" t="s">
         <v>453</v>
@@ -16035,8 +16047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AP492"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="Q1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="T456" sqref="T456"/>
     </sheetView>

--- a/data/oegres_SC/oegres_SC.xlsx
+++ b/data/oegres_SC/oegres_SC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiacollins/Documents/git/oegres/data/oegres_SC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470C8C10-F18C-624B-83A6-31E3749F344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE79CEE-F735-6940-9ACB-31D8E33FCCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16780" yWindow="460" windowWidth="23380" windowHeight="14560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13620" yWindow="1400" windowWidth="23380" windowHeight="14560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11249" uniqueCount="1800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11829" uniqueCount="1811">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5440,13 +5440,46 @@
   </si>
   <si>
     <t>mean+/-SE</t>
+  </si>
+  <si>
+    <t>Figure 7</t>
+  </si>
+  <si>
+    <t>cold stratification and light</t>
+  </si>
+  <si>
+    <t>light - check this</t>
+  </si>
+  <si>
+    <t>dark - check this</t>
+  </si>
+  <si>
+    <t>1% NaOCL</t>
+  </si>
+  <si>
+    <t>13+/-0.5</t>
+  </si>
+  <si>
+    <t>following cold strat</t>
+  </si>
+  <si>
+    <t>4+/-0.5</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>germ.rt</t>
+  </si>
+  <si>
+    <t>Figure 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5491,6 +5524,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5520,7 +5559,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5542,6 +5581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5847,7 +5887,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16190,12 +16230,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AS540"/>
+  <dimension ref="A1:AS574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AU580" sqref="AU580"/>
+      <selection pane="bottomLeft" activeCell="AP563" sqref="AP563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -58910,11 +58950,11 @@
       <c r="M501" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N501">
-        <v>2020</v>
-      </c>
       <c r="O501">
         <v>2019</v>
+      </c>
+      <c r="P501">
+        <v>2020</v>
       </c>
       <c r="Q501" t="s">
         <v>1789</v>
@@ -59006,11 +59046,11 @@
       <c r="M502" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N502">
-        <v>2020</v>
-      </c>
       <c r="O502">
         <v>2019</v>
+      </c>
+      <c r="P502">
+        <v>2020</v>
       </c>
       <c r="Q502" t="s">
         <v>1789</v>
@@ -59096,11 +59136,11 @@
       <c r="M503" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N503">
-        <v>2020</v>
-      </c>
       <c r="O503">
         <v>2019</v>
+      </c>
+      <c r="P503">
+        <v>2020</v>
       </c>
       <c r="Q503" t="s">
         <v>1789</v>
@@ -59186,11 +59226,11 @@
       <c r="M504" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N504">
-        <v>2020</v>
-      </c>
       <c r="O504">
         <v>2019</v>
+      </c>
+      <c r="P504">
+        <v>2020</v>
       </c>
       <c r="Q504" t="s">
         <v>1789</v>
@@ -59276,11 +59316,11 @@
       <c r="M505" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N505">
-        <v>2020</v>
-      </c>
       <c r="O505">
         <v>2019</v>
+      </c>
+      <c r="P505">
+        <v>2020</v>
       </c>
       <c r="Q505" t="s">
         <v>1789</v>
@@ -59365,11 +59405,11 @@
       <c r="M506" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N506">
-        <v>2020</v>
-      </c>
       <c r="O506">
         <v>2019</v>
+      </c>
+      <c r="P506">
+        <v>2020</v>
       </c>
       <c r="Q506" t="s">
         <v>1789</v>
@@ -59454,11 +59494,11 @@
       <c r="M507" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N507">
-        <v>2020</v>
-      </c>
       <c r="O507">
         <v>2019</v>
+      </c>
+      <c r="P507">
+        <v>2020</v>
       </c>
       <c r="Q507" t="s">
         <v>1789</v>
@@ -59543,11 +59583,11 @@
       <c r="M508" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N508">
-        <v>2020</v>
-      </c>
       <c r="O508">
         <v>2019</v>
+      </c>
+      <c r="P508">
+        <v>2020</v>
       </c>
       <c r="Q508" t="s">
         <v>1789</v>
@@ -59632,11 +59672,11 @@
       <c r="M509" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N509">
-        <v>2020</v>
-      </c>
       <c r="O509">
         <v>2019</v>
+      </c>
+      <c r="P509">
+        <v>2020</v>
       </c>
       <c r="Q509" t="s">
         <v>1789</v>
@@ -59721,11 +59761,11 @@
       <c r="M510" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N510">
-        <v>2020</v>
-      </c>
       <c r="O510">
         <v>2019</v>
+      </c>
+      <c r="P510">
+        <v>2020</v>
       </c>
       <c r="Q510" t="s">
         <v>1789</v>
@@ -59810,11 +59850,11 @@
       <c r="M511" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N511">
-        <v>2020</v>
-      </c>
       <c r="O511">
         <v>2019</v>
+      </c>
+      <c r="P511">
+        <v>2020</v>
       </c>
       <c r="Q511" t="s">
         <v>1789</v>
@@ -59899,11 +59939,11 @@
       <c r="M512" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N512">
-        <v>2020</v>
-      </c>
       <c r="O512">
         <v>2019</v>
+      </c>
+      <c r="P512">
+        <v>2020</v>
       </c>
       <c r="Q512" t="s">
         <v>1789</v>
@@ -59988,11 +60028,11 @@
       <c r="M513" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N513">
-        <v>2020</v>
-      </c>
       <c r="O513">
         <v>2019</v>
+      </c>
+      <c r="P513">
+        <v>2020</v>
       </c>
       <c r="Q513" t="s">
         <v>1789</v>
@@ -60077,11 +60117,11 @@
       <c r="M514" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N514">
-        <v>2020</v>
-      </c>
       <c r="O514">
         <v>2019</v>
+      </c>
+      <c r="P514">
+        <v>2020</v>
       </c>
       <c r="Q514" t="s">
         <v>1789</v>
@@ -60166,11 +60206,11 @@
       <c r="M515" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N515">
-        <v>2020</v>
-      </c>
       <c r="O515">
         <v>2019</v>
+      </c>
+      <c r="P515">
+        <v>2020</v>
       </c>
       <c r="Q515" t="s">
         <v>1789</v>
@@ -60255,11 +60295,11 @@
       <c r="M516" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N516">
-        <v>2020</v>
-      </c>
       <c r="O516">
         <v>2019</v>
+      </c>
+      <c r="P516">
+        <v>2020</v>
       </c>
       <c r="Q516" t="s">
         <v>1789</v>
@@ -60344,11 +60384,11 @@
       <c r="M517" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N517">
-        <v>2020</v>
-      </c>
       <c r="O517">
         <v>2019</v>
+      </c>
+      <c r="P517">
+        <v>2020</v>
       </c>
       <c r="Q517" t="s">
         <v>1789</v>
@@ -60433,11 +60473,11 @@
       <c r="M518" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N518">
-        <v>2020</v>
-      </c>
       <c r="O518">
         <v>2019</v>
+      </c>
+      <c r="P518">
+        <v>2020</v>
       </c>
       <c r="Q518" t="s">
         <v>1789</v>
@@ -60522,11 +60562,11 @@
       <c r="M519" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N519">
-        <v>2020</v>
-      </c>
       <c r="O519">
         <v>2019</v>
+      </c>
+      <c r="P519">
+        <v>2020</v>
       </c>
       <c r="Q519" t="s">
         <v>1789</v>
@@ -60611,11 +60651,11 @@
       <c r="M520" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N520">
-        <v>2020</v>
-      </c>
       <c r="O520">
         <v>2019</v>
+      </c>
+      <c r="P520">
+        <v>2020</v>
       </c>
       <c r="Q520" t="s">
         <v>1789</v>
@@ -60700,11 +60740,11 @@
       <c r="M521" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N521">
-        <v>2020</v>
-      </c>
       <c r="O521">
         <v>2019</v>
+      </c>
+      <c r="P521">
+        <v>2020</v>
       </c>
       <c r="Q521" t="s">
         <v>1789</v>
@@ -60789,11 +60829,11 @@
       <c r="M522" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N522">
-        <v>2020</v>
-      </c>
       <c r="O522">
         <v>2019</v>
+      </c>
+      <c r="P522">
+        <v>2020</v>
       </c>
       <c r="Q522" t="s">
         <v>1789</v>
@@ -60878,11 +60918,11 @@
       <c r="M523" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N523">
-        <v>2020</v>
-      </c>
       <c r="O523">
         <v>2019</v>
+      </c>
+      <c r="P523">
+        <v>2020</v>
       </c>
       <c r="Q523" t="s">
         <v>1789</v>
@@ -60967,11 +61007,11 @@
       <c r="M524" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N524">
-        <v>2020</v>
-      </c>
       <c r="O524">
         <v>2019</v>
+      </c>
+      <c r="P524">
+        <v>2020</v>
       </c>
       <c r="Q524" t="s">
         <v>1789</v>
@@ -61056,11 +61096,11 @@
       <c r="M525" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N525">
-        <v>2020</v>
-      </c>
       <c r="O525">
         <v>2019</v>
+      </c>
+      <c r="P525">
+        <v>2020</v>
       </c>
       <c r="Q525" t="s">
         <v>1789</v>
@@ -61164,11 +61204,11 @@
       <c r="M526" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N526">
-        <v>2020</v>
-      </c>
       <c r="O526">
         <v>2019</v>
+      </c>
+      <c r="P526">
+        <v>2020</v>
       </c>
       <c r="Q526" t="s">
         <v>1789</v>
@@ -61272,11 +61312,11 @@
       <c r="M527" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N527">
-        <v>2020</v>
-      </c>
       <c r="O527">
         <v>2019</v>
+      </c>
+      <c r="P527">
+        <v>2020</v>
       </c>
       <c r="Q527" t="s">
         <v>1789</v>
@@ -61380,11 +61420,11 @@
       <c r="M528" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N528">
-        <v>2020</v>
-      </c>
       <c r="O528">
         <v>2019</v>
+      </c>
+      <c r="P528">
+        <v>2020</v>
       </c>
       <c r="Q528" t="s">
         <v>1789</v>
@@ -61454,7 +61494,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="529" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>1510</v>
       </c>
@@ -61488,11 +61528,11 @@
       <c r="M529" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N529">
-        <v>2020</v>
-      </c>
       <c r="O529">
         <v>2019</v>
+      </c>
+      <c r="P529">
+        <v>2020</v>
       </c>
       <c r="Q529" t="s">
         <v>1789</v>
@@ -61562,7 +61602,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="530" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>1510</v>
       </c>
@@ -61596,11 +61636,11 @@
       <c r="M530" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N530">
-        <v>2020</v>
-      </c>
       <c r="O530">
         <v>2019</v>
+      </c>
+      <c r="P530">
+        <v>2020</v>
       </c>
       <c r="Q530" t="s">
         <v>1789</v>
@@ -61670,7 +61710,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="531" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>1510</v>
       </c>
@@ -61704,11 +61744,11 @@
       <c r="M531" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N531">
-        <v>2020</v>
-      </c>
       <c r="O531">
         <v>2019</v>
+      </c>
+      <c r="P531">
+        <v>2020</v>
       </c>
       <c r="Q531" t="s">
         <v>1789</v>
@@ -61778,7 +61818,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="532" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>1510</v>
       </c>
@@ -61812,11 +61852,11 @@
       <c r="M532" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N532">
-        <v>2020</v>
-      </c>
       <c r="O532">
         <v>2019</v>
+      </c>
+      <c r="P532">
+        <v>2020</v>
       </c>
       <c r="Q532" t="s">
         <v>1789</v>
@@ -61886,7 +61926,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="533" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>1510</v>
       </c>
@@ -61920,11 +61960,11 @@
       <c r="M533" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N533">
-        <v>2020</v>
-      </c>
       <c r="O533">
         <v>2019</v>
+      </c>
+      <c r="P533">
+        <v>2020</v>
       </c>
       <c r="Q533" t="s">
         <v>1789</v>
@@ -61994,7 +62034,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="534" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>1510</v>
       </c>
@@ -62028,11 +62068,11 @@
       <c r="M534" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N534">
-        <v>2020</v>
-      </c>
       <c r="O534">
         <v>2019</v>
+      </c>
+      <c r="P534">
+        <v>2020</v>
       </c>
       <c r="Q534" t="s">
         <v>1789</v>
@@ -62102,7 +62142,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="535" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>1510</v>
       </c>
@@ -62136,11 +62176,11 @@
       <c r="M535" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N535">
-        <v>2020</v>
-      </c>
       <c r="O535">
         <v>2019</v>
+      </c>
+      <c r="P535">
+        <v>2020</v>
       </c>
       <c r="Q535" t="s">
         <v>1789</v>
@@ -62210,7 +62250,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="536" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>1510</v>
       </c>
@@ -62244,11 +62284,11 @@
       <c r="M536" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N536">
-        <v>2020</v>
-      </c>
       <c r="O536">
         <v>2019</v>
+      </c>
+      <c r="P536">
+        <v>2020</v>
       </c>
       <c r="Q536" t="s">
         <v>1789</v>
@@ -62318,7 +62358,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="537" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>1510</v>
       </c>
@@ -62352,11 +62392,11 @@
       <c r="M537" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N537">
-        <v>2020</v>
-      </c>
       <c r="O537">
         <v>2019</v>
+      </c>
+      <c r="P537">
+        <v>2020</v>
       </c>
       <c r="Q537" t="s">
         <v>1789</v>
@@ -62426,7 +62466,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="538" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>1510</v>
       </c>
@@ -62460,11 +62500,11 @@
       <c r="M538" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N538">
-        <v>2020</v>
-      </c>
       <c r="O538">
         <v>2019</v>
+      </c>
+      <c r="P538">
+        <v>2020</v>
       </c>
       <c r="Q538" t="s">
         <v>1789</v>
@@ -62534,7 +62574,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="539" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>1510</v>
       </c>
@@ -62568,11 +62608,11 @@
       <c r="M539" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N539">
-        <v>2020</v>
-      </c>
       <c r="O539">
         <v>2019</v>
+      </c>
+      <c r="P539">
+        <v>2020</v>
       </c>
       <c r="Q539" t="s">
         <v>1789</v>
@@ -62642,7 +62682,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="540" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>1510</v>
       </c>
@@ -62676,11 +62716,11 @@
       <c r="M540" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="N540">
-        <v>2020</v>
-      </c>
       <c r="O540">
         <v>2019</v>
+      </c>
+      <c r="P540">
+        <v>2020</v>
       </c>
       <c r="Q540" t="s">
         <v>1789</v>
@@ -62749,6 +62789,2990 @@
       <c r="AR540" s="4" t="s">
         <v>1798</v>
       </c>
+    </row>
+    <row r="541" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B541" s="13" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C541" s="13" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D541" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E541" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G541" s="13" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H541" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I541" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J541" s="7">
+        <v>36.544444444444402</v>
+      </c>
+      <c r="K541" s="7">
+        <v>128.800833333333</v>
+      </c>
+      <c r="M541" s="13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O541" s="7">
+        <v>2019</v>
+      </c>
+      <c r="P541" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Q541" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="R541" s="7">
+        <v>14</v>
+      </c>
+      <c r="T541" s="7">
+        <v>0</v>
+      </c>
+      <c r="U541" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="V541" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W541" s="13">
+        <v>14</v>
+      </c>
+      <c r="X541" s="10" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Z541" s="7">
+        <v>12</v>
+      </c>
+      <c r="AD541" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF541" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ541" s="13" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK541" s="13">
+        <v>64.444000000000003</v>
+      </c>
+      <c r="AN541" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO541" s="13">
+        <v>20</v>
+      </c>
+      <c r="AP541" s="13">
+        <v>7</v>
+      </c>
+      <c r="AQ541" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AR541" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AS541" s="7" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="542" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B542" s="13" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C542" s="13" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D542" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E542" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G542" s="13" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H542" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I542" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J542" s="7">
+        <v>36.544444444444402</v>
+      </c>
+      <c r="K542" s="7">
+        <v>128.800833333333</v>
+      </c>
+      <c r="M542" s="13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O542" s="7">
+        <v>2019</v>
+      </c>
+      <c r="P542" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Q542" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="R542" s="7">
+        <v>14</v>
+      </c>
+      <c r="T542" s="7">
+        <v>0</v>
+      </c>
+      <c r="U542" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="V542" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W542" s="13">
+        <v>14</v>
+      </c>
+      <c r="X542" s="10" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Z542" s="7">
+        <v>12</v>
+      </c>
+      <c r="AD542" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF542" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ542" s="13" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK542" s="13">
+        <v>60.722000000000001</v>
+      </c>
+      <c r="AN542" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO542" s="13">
+        <v>20</v>
+      </c>
+      <c r="AP542" s="13">
+        <v>7</v>
+      </c>
+      <c r="AQ542" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AR542" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AS542" s="7" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="543" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B543" s="13" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C543" s="13" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D543" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E543" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G543" s="13" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H543" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I543" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J543" s="7">
+        <v>36.544444444444402</v>
+      </c>
+      <c r="K543" s="7">
+        <v>128.800833333333</v>
+      </c>
+      <c r="M543" s="13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O543" s="7">
+        <v>2019</v>
+      </c>
+      <c r="P543" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Q543" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="R543" s="7">
+        <v>14</v>
+      </c>
+      <c r="T543" s="7">
+        <v>0</v>
+      </c>
+      <c r="U543" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="V543" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W543" s="13">
+        <v>14</v>
+      </c>
+      <c r="X543" s="10" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Z543" s="7">
+        <v>12</v>
+      </c>
+      <c r="AD543" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF543" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ543" s="13" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK543" s="13">
+        <v>80.721999999999994</v>
+      </c>
+      <c r="AN543" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO543" s="13">
+        <v>20</v>
+      </c>
+      <c r="AP543" s="13">
+        <v>14</v>
+      </c>
+      <c r="AQ543" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AR543" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AS543" s="7" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="544" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B544" s="13" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C544" s="13" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D544" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E544" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G544" s="13" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H544" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I544" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J544" s="7">
+        <v>36.544444444444402</v>
+      </c>
+      <c r="K544" s="7">
+        <v>128.800833333333</v>
+      </c>
+      <c r="M544" s="13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O544" s="7">
+        <v>2019</v>
+      </c>
+      <c r="P544" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Q544" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="R544" s="7">
+        <v>14</v>
+      </c>
+      <c r="T544" s="7">
+        <v>0</v>
+      </c>
+      <c r="U544" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="V544" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W544" s="13">
+        <v>14</v>
+      </c>
+      <c r="X544" s="10" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Z544" s="7">
+        <v>12</v>
+      </c>
+      <c r="AD544" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF544" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ544" s="13" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK544" s="13">
+        <v>76.055999999999997</v>
+      </c>
+      <c r="AN544" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO544" s="13">
+        <v>20</v>
+      </c>
+      <c r="AP544" s="13">
+        <v>14</v>
+      </c>
+      <c r="AQ544" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AR544" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AS544" s="7" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="545" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B545" s="13" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C545" s="13" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D545" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E545" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G545" s="13" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H545" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I545" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J545" s="7">
+        <v>36.544444444444402</v>
+      </c>
+      <c r="K545" s="7">
+        <v>128.800833333333</v>
+      </c>
+      <c r="M545" s="13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O545" s="7">
+        <v>2019</v>
+      </c>
+      <c r="P545" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Q545" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="R545" s="7">
+        <v>14</v>
+      </c>
+      <c r="T545" s="7">
+        <v>0</v>
+      </c>
+      <c r="U545" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="V545" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W545" s="13">
+        <v>14</v>
+      </c>
+      <c r="X545" s="10" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Z545" s="7">
+        <v>12</v>
+      </c>
+      <c r="AD545" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF545" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ545" s="13" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK545" s="13">
+        <v>80.5</v>
+      </c>
+      <c r="AN545" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO545" s="13">
+        <v>20</v>
+      </c>
+      <c r="AP545" s="13">
+        <v>21</v>
+      </c>
+      <c r="AQ545" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AR545" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AS545" s="7" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="546" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B546" s="13" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C546" s="13" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D546" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E546" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G546" s="13" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H546" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I546" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J546" s="7">
+        <v>36.544444444444402</v>
+      </c>
+      <c r="K546" s="7">
+        <v>128.800833333333</v>
+      </c>
+      <c r="M546" s="13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O546" s="7">
+        <v>2019</v>
+      </c>
+      <c r="P546" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Q546" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="R546" s="7">
+        <v>14</v>
+      </c>
+      <c r="T546" s="7">
+        <v>0</v>
+      </c>
+      <c r="U546" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="V546" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W546" s="13">
+        <v>14</v>
+      </c>
+      <c r="X546" s="10" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Z546" s="7">
+        <v>12</v>
+      </c>
+      <c r="AD546" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF546" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ546" s="13" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK546" s="13">
+        <v>75.832999999999998</v>
+      </c>
+      <c r="AN546" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO546" s="13">
+        <v>20</v>
+      </c>
+      <c r="AP546" s="13">
+        <v>21</v>
+      </c>
+      <c r="AQ546" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AR546" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AS546" s="7" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="547" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B547" s="13" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C547" s="13" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D547" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E547" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G547" s="13" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H547" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I547" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J547" s="7">
+        <v>36.544444444444402</v>
+      </c>
+      <c r="K547" s="7">
+        <v>128.800833333333</v>
+      </c>
+      <c r="M547" s="13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O547" s="7">
+        <v>2019</v>
+      </c>
+      <c r="P547" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Q547" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="R547" s="7">
+        <v>14</v>
+      </c>
+      <c r="T547" s="7">
+        <v>0</v>
+      </c>
+      <c r="U547" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="V547" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W547" s="13">
+        <v>14</v>
+      </c>
+      <c r="X547" s="10" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Z547" s="7">
+        <v>12</v>
+      </c>
+      <c r="AD547" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF547" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ547" s="13" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK547" s="13">
+        <v>80.721999999999994</v>
+      </c>
+      <c r="AN547" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO547" s="13">
+        <v>20</v>
+      </c>
+      <c r="AP547" s="13">
+        <v>28</v>
+      </c>
+      <c r="AQ547" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AR547" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AS547" s="7" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="548" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B548" s="13" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C548" s="13" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D548" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E548" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G548" s="13" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H548" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I548" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J548" s="7">
+        <v>36.544444444444402</v>
+      </c>
+      <c r="K548" s="7">
+        <v>128.800833333333</v>
+      </c>
+      <c r="M548" s="13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O548" s="7">
+        <v>2019</v>
+      </c>
+      <c r="P548" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Q548" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="R548" s="7">
+        <v>14</v>
+      </c>
+      <c r="T548" s="7">
+        <v>0</v>
+      </c>
+      <c r="U548" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="V548" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W548" s="13">
+        <v>14</v>
+      </c>
+      <c r="X548" s="10" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Z548" s="7">
+        <v>12</v>
+      </c>
+      <c r="AD548" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF548" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ548" s="13" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK548" s="13">
+        <v>77.611000000000004</v>
+      </c>
+      <c r="AN548" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO548" s="13">
+        <v>20</v>
+      </c>
+      <c r="AP548" s="13">
+        <v>28</v>
+      </c>
+      <c r="AQ548" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AR548" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AS548" s="7" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="549" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B549" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C549" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D549" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E549" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G549" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H549" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I549" s="15"/>
+      <c r="M549" s="15"/>
+      <c r="N549" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O549" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P549" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V549" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W549" s="15">
+        <v>28</v>
+      </c>
+      <c r="X549" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA549" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB549" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC549" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD549" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE549" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF549" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG549" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH549" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ549" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK549" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="AL549" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM549" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN549" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO549" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP549" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ549" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR549" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="550" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B550" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C550" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D550" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E550" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G550" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H550" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I550" s="15"/>
+      <c r="M550" s="15"/>
+      <c r="N550" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O550" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P550" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V550" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W550" s="15">
+        <v>42</v>
+      </c>
+      <c r="X550" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA550" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB550" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC550" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD550" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE550" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF550" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG550" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH550" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ550" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK550" s="15">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="AN550" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO550" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP550" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ550" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR550" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="551" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B551" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C551" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D551" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E551" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G551" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H551" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I551" s="15"/>
+      <c r="M551" s="15"/>
+      <c r="N551" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O551" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P551" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V551" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W551" s="15">
+        <v>56</v>
+      </c>
+      <c r="X551" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA551" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB551" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC551" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD551" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE551" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF551" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG551" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH551" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ551" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK551" s="15">
+        <v>3.8119999999999998</v>
+      </c>
+      <c r="AN551" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO551" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP551" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ551" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR551" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="552" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B552" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C552" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D552" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E552" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G552" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H552" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I552" s="15"/>
+      <c r="M552" s="15"/>
+      <c r="N552" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O552" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P552" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V552" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W552" s="15">
+        <v>28</v>
+      </c>
+      <c r="X552" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA552" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB552" s="14">
+        <v>250</v>
+      </c>
+      <c r="AC552" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD552" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE552" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF552" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG552" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH552" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ552" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK552" s="15">
+        <v>3</v>
+      </c>
+      <c r="AL552" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM552" s="14">
+        <v>2.9379999999999997</v>
+      </c>
+      <c r="AN552" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO552" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP552" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ552" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR552" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="553" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B553" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C553" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D553" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E553" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G553" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H553" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I553" s="15"/>
+      <c r="M553" s="15"/>
+      <c r="N553" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O553" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P553" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V553" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W553" s="15">
+        <v>42</v>
+      </c>
+      <c r="X553" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA553" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB553" s="14">
+        <v>250</v>
+      </c>
+      <c r="AC553" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD553" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE553" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF553" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG553" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH553" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ553" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK553" s="15">
+        <v>8.0619999999999994</v>
+      </c>
+      <c r="AL553" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM553" s="14">
+        <v>2.9999999999999991</v>
+      </c>
+      <c r="AN553" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO553" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP553" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ553" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR553" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="554" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B554" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C554" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D554" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E554" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G554" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H554" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I554" s="15"/>
+      <c r="M554" s="15"/>
+      <c r="N554" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O554" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P554" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V554" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W554" s="15">
+        <v>56</v>
+      </c>
+      <c r="X554" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA554" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB554" s="14">
+        <v>250</v>
+      </c>
+      <c r="AC554" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD554" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE554" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF554" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG554" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH554" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ554" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK554" s="15">
+        <v>13.311999999999999</v>
+      </c>
+      <c r="AL554" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM554" s="14">
+        <v>5.1880000000000006</v>
+      </c>
+      <c r="AN554" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO554" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP554" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ554" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR554" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="555" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B555" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C555" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D555" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E555" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G555" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H555" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I555" s="15"/>
+      <c r="M555" s="15"/>
+      <c r="N555" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O555" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P555" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V555" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W555" s="15">
+        <v>28</v>
+      </c>
+      <c r="X555" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA555" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB555" s="14">
+        <v>500</v>
+      </c>
+      <c r="AC555" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD555" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE555" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF555" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG555" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH555" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ555" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK555" s="15">
+        <v>15.311999999999999</v>
+      </c>
+      <c r="AL555" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM555" s="14">
+        <v>4.6879999999999997</v>
+      </c>
+      <c r="AN555" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO555" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP555" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ555" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR555" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="556" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B556" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C556" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D556" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E556" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G556" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H556" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I556" s="15"/>
+      <c r="M556" s="15"/>
+      <c r="N556" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O556" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P556" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V556" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W556" s="15">
+        <v>42</v>
+      </c>
+      <c r="X556" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA556" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB556" s="14">
+        <v>500</v>
+      </c>
+      <c r="AC556" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD556" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE556" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF556" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG556" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH556" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ556" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK556" s="15">
+        <v>42.311999999999998</v>
+      </c>
+      <c r="AN556" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO556" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP556" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ556" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR556" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="557" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B557" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C557" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D557" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E557" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G557" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H557" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I557" s="15"/>
+      <c r="M557" s="15"/>
+      <c r="N557" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O557" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P557" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V557" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W557" s="15">
+        <v>56</v>
+      </c>
+      <c r="X557" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA557" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB557" s="14">
+        <v>500</v>
+      </c>
+      <c r="AC557" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD557" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE557" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF557" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG557" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH557" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ557" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK557" s="15">
+        <v>44.561999999999998</v>
+      </c>
+      <c r="AN557" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO557" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP557" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ557" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR557" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="558" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B558" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C558" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D558" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E558" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G558" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H558" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I558" s="15"/>
+      <c r="M558" s="15"/>
+      <c r="N558" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O558" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P558" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V558" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W558" s="15">
+        <v>28</v>
+      </c>
+      <c r="X558" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA558" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB558" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AC558" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD558" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE558" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF558" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG558" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH558" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ558" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK558" s="15">
+        <v>17.312000000000001</v>
+      </c>
+      <c r="AL558" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM558" s="14">
+        <v>4.1879999999999997</v>
+      </c>
+      <c r="AN558" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO558" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP558" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ558" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR558" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="559" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B559" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C559" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D559" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E559" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G559" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H559" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I559" s="15"/>
+      <c r="M559" s="15"/>
+      <c r="N559" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O559" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P559" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V559" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W559" s="15">
+        <v>42</v>
+      </c>
+      <c r="X559" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA559" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB559" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AC559" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD559" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE559" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF559" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG559" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH559" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ559" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK559" s="15">
+        <v>41.561999999999998</v>
+      </c>
+      <c r="AL559" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN559" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO559" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP559" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ559" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR559" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="560" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B560" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C560" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D560" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E560" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G560" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H560" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I560" s="15"/>
+      <c r="M560" s="15"/>
+      <c r="N560" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O560" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P560" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V560" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W560" s="15">
+        <v>56</v>
+      </c>
+      <c r="X560" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA560" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB560" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AC560" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD560" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE560" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF560" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG560" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH560" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ560" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK560" s="15">
+        <v>45.311999999999998</v>
+      </c>
+      <c r="AL560" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN560" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO560" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP560" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ560" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR560" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="561" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B561" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C561" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D561" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E561" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G561" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H561" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I561" s="15"/>
+      <c r="M561" s="15"/>
+      <c r="N561" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O561" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P561" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V561" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W561" s="15">
+        <v>28</v>
+      </c>
+      <c r="X561" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA561" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB561" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC561" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD561" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE561" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF561" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG561" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH561" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ561" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AK561" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL561" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN561" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO561" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP561" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ561" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR561" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="562" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B562" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C562" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D562" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E562" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G562" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H562" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I562" s="15"/>
+      <c r="M562" s="15"/>
+      <c r="N562" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O562" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P562" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V562" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W562" s="15">
+        <v>42</v>
+      </c>
+      <c r="X562" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA562" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB562" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC562" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD562" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE562" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF562" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG562" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH562" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ562" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AK562" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL562" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN562" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO562" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP562" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ562" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR562" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="563" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B563" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C563" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D563" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E563" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G563" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H563" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I563" s="15"/>
+      <c r="M563" s="15"/>
+      <c r="N563" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O563" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P563" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V563" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W563" s="15">
+        <v>56</v>
+      </c>
+      <c r="X563" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA563" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB563" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC563" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD563" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE563" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF563" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG563" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH563" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ563" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AK563" s="15">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AL563" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN563" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO563" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP563" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ563" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR563" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="564" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B564" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C564" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D564" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E564" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G564" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H564" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I564" s="15"/>
+      <c r="M564" s="15"/>
+      <c r="N564" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O564" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P564" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V564" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W564" s="15">
+        <v>28</v>
+      </c>
+      <c r="X564" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA564" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB564" s="14">
+        <v>250</v>
+      </c>
+      <c r="AC564" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD564" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE564" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF564" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG564" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH564" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ564" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AK564" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AL564" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN564" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO564" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP564" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ564" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR564" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="565" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B565" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C565" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D565" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E565" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G565" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H565" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I565" s="15"/>
+      <c r="M565" s="15"/>
+      <c r="N565" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O565" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P565" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V565" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W565" s="15">
+        <v>42</v>
+      </c>
+      <c r="X565" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA565" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB565" s="14">
+        <v>250</v>
+      </c>
+      <c r="AC565" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD565" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE565" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF565" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG565" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH565" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ565" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AK565" s="15">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AL565" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN565" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO565" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP565" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ565" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR565" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="566" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B566" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C566" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D566" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E566" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G566" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H566" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I566" s="15"/>
+      <c r="M566" s="15"/>
+      <c r="N566" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O566" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P566" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V566" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W566" s="15">
+        <v>56</v>
+      </c>
+      <c r="X566" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA566" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB566" s="14">
+        <v>250</v>
+      </c>
+      <c r="AC566" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD566" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE566" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF566" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG566" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH566" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ566" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AK566" s="15">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AL566" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN566" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO566" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP566" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ566" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR566" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="567" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B567" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C567" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D567" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E567" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G567" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H567" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I567" s="15"/>
+      <c r="M567" s="15"/>
+      <c r="N567" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O567" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P567" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V567" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W567" s="15">
+        <v>28</v>
+      </c>
+      <c r="X567" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA567" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB567" s="14">
+        <v>500</v>
+      </c>
+      <c r="AC567" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD567" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE567" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF567" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG567" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH567" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ567" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AK567" s="15">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AL567" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN567" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO567" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP567" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ567" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR567" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="568" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B568" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C568" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D568" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E568" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G568" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H568" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I568" s="15"/>
+      <c r="M568" s="15"/>
+      <c r="N568" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O568" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P568" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V568" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W568" s="15">
+        <v>42</v>
+      </c>
+      <c r="X568" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA568" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB568" s="14">
+        <v>500</v>
+      </c>
+      <c r="AC568" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD568" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE568" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF568" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG568" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH568" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ568" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AK568" s="15">
+        <v>1.73</v>
+      </c>
+      <c r="AL568" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN568" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO568" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP568" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ568" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR568" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="569" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B569" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C569" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D569" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E569" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G569" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H569" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I569" s="15"/>
+      <c r="M569" s="15"/>
+      <c r="N569" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O569" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P569" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V569" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W569" s="15">
+        <v>56</v>
+      </c>
+      <c r="X569" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA569" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB569" s="14">
+        <v>500</v>
+      </c>
+      <c r="AC569" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD569" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE569" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF569" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG569" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH569" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ569" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AK569" s="15">
+        <v>2.278</v>
+      </c>
+      <c r="AL569" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN569" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO569" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP569" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ569" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR569" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="570" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B570" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C570" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D570" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E570" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G570" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H570" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I570" s="15"/>
+      <c r="M570" s="15"/>
+      <c r="N570" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O570" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P570" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V570" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W570" s="15">
+        <v>28</v>
+      </c>
+      <c r="X570" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA570" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB570" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AC570" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD570" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE570" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF570" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG570" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH570" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ570" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AK570" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="AL570" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN570" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO570" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP570" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ570" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR570" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="571" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B571" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C571" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D571" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E571" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G571" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H571" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I571" s="15"/>
+      <c r="M571" s="15"/>
+      <c r="N571" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O571" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P571" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V571" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W571" s="15">
+        <v>42</v>
+      </c>
+      <c r="X571" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA571" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB571" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AC571" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD571" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE571" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF571" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG571" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH571" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ571" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AK571" s="15">
+        <v>2.794</v>
+      </c>
+      <c r="AL571" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN571" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO571" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP571" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ571" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR571" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="572" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B572" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C572" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D572" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="E572" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="G572" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H572" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I572" s="15"/>
+      <c r="M572" s="15"/>
+      <c r="N572" s="14">
+        <v>1920</v>
+      </c>
+      <c r="O572" s="17">
+        <v>2011</v>
+      </c>
+      <c r="P572" s="14">
+        <v>2011</v>
+      </c>
+      <c r="V572" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="W572" s="15">
+        <v>56</v>
+      </c>
+      <c r="X572" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="AA572" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB572" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AC572" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AD572" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE572" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AF572" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG572" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AH572" s="14">
+        <v>20</v>
+      </c>
+      <c r="AJ572" s="15" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AK572" s="15">
+        <v>2.714</v>
+      </c>
+      <c r="AL572" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AN572" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO572" s="15">
+        <v>20</v>
+      </c>
+      <c r="AP572" s="15">
+        <v>21</v>
+      </c>
+      <c r="AQ572" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR572" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="573" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B573" s="15"/>
+      <c r="C573" s="15"/>
+      <c r="G573" s="15"/>
+      <c r="I573" s="15"/>
+      <c r="M573" s="15"/>
+      <c r="O573" s="17"/>
+      <c r="V573" s="12"/>
+      <c r="W573" s="15"/>
+      <c r="X573" s="12"/>
+      <c r="AJ573" s="15"/>
+      <c r="AK573" s="15"/>
+      <c r="AN573" s="15"/>
+      <c r="AO573" s="15"/>
+      <c r="AP573" s="15"/>
+      <c r="AR573" s="15"/>
+    </row>
+    <row r="574" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B574" s="15"/>
+      <c r="C574" s="15"/>
+      <c r="G574" s="15"/>
+      <c r="I574" s="15"/>
+      <c r="M574" s="15"/>
+      <c r="O574" s="17"/>
+      <c r="V574" s="12"/>
+      <c r="W574" s="15"/>
+      <c r="X574" s="12"/>
+      <c r="AJ574" s="15"/>
+      <c r="AK574" s="15"/>
+      <c r="AN574" s="15"/>
+      <c r="AO574" s="15"/>
+      <c r="AP574" s="15"/>
+      <c r="AR574" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -62762,7 +65786,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -62780,50 +65804,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>1.409</v>
+        <v>15.061999999999999</v>
       </c>
       <c r="B2">
-        <v>5.1680000000000001</v>
+        <v>19.25</v>
       </c>
       <c r="C2">
         <f>B2-A2</f>
-        <v>3.7590000000000003</v>
+        <v>4.1880000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>6.51</v>
-      </c>
-      <c r="B3">
-        <v>24.765000000000001</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="C3">
         <f>B3-A3</f>
-        <v>18.255000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>39.262</v>
-      </c>
-      <c r="B4">
-        <v>51.811999999999998</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="C4">
         <f>B4-A4</f>
-        <v>12.549999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>92.147999999999996</v>
-      </c>
-      <c r="B5">
-        <v>92.953000000000003</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="C5">
         <f>B5-A5</f>
-        <v>0.80500000000000682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/oegres_SC/oegres_SC.xlsx
+++ b/data/oegres_SC/oegres_SC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiacollins/Documents/git/oegres/data/oegres_SC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE79CEE-F735-6940-9ACB-31D8E33FCCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB6BB2F-DA72-E94F-8F1F-885A920F0753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="1400" windowWidth="23380" windowHeight="14560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10660" yWindow="460" windowWidth="23380" windowHeight="14560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11829" uniqueCount="1811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12525" uniqueCount="1817">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5473,6 +5473,24 @@
   </si>
   <si>
     <t>Figure 3</t>
+  </si>
+  <si>
+    <t>Ambrolauri, Tlugi, Georgia</t>
+  </si>
+  <si>
+    <t>1993/1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end of storage </t>
+  </si>
+  <si>
+    <t>after prechilling</t>
+  </si>
+  <si>
+    <t>when prechilling begins</t>
+  </si>
+  <si>
+    <t>is this acceptable treatment? Where it is germination reccorded during prechilling?</t>
   </si>
 </sst>
 </file>
@@ -5559,7 +5577,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5581,6 +5599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -5886,7 +5905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -16230,12 +16249,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AS574"/>
+  <dimension ref="A1:AS613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AP563" sqref="AP563"/>
+      <selection pane="bottomLeft" activeCell="AA618" sqref="AA618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63577,7 +63596,7 @@
       <c r="N549" s="14">
         <v>1920</v>
       </c>
-      <c r="O549" s="17">
+      <c r="O549" s="18">
         <v>2011</v>
       </c>
       <c r="P549" s="14">
@@ -63671,7 +63690,7 @@
       <c r="N550" s="14">
         <v>1920</v>
       </c>
-      <c r="O550" s="17">
+      <c r="O550" s="18">
         <v>2011</v>
       </c>
       <c r="P550" s="14">
@@ -63759,7 +63778,7 @@
       <c r="N551" s="14">
         <v>1920</v>
       </c>
-      <c r="O551" s="17">
+      <c r="O551" s="18">
         <v>2011</v>
       </c>
       <c r="P551" s="14">
@@ -63847,7 +63866,7 @@
       <c r="N552" s="14">
         <v>1920</v>
       </c>
-      <c r="O552" s="17">
+      <c r="O552" s="18">
         <v>2011</v>
       </c>
       <c r="P552" s="14">
@@ -63941,7 +63960,7 @@
       <c r="N553" s="14">
         <v>1920</v>
       </c>
-      <c r="O553" s="17">
+      <c r="O553" s="18">
         <v>2011</v>
       </c>
       <c r="P553" s="14">
@@ -64035,7 +64054,7 @@
       <c r="N554" s="14">
         <v>1920</v>
       </c>
-      <c r="O554" s="17">
+      <c r="O554" s="18">
         <v>2011</v>
       </c>
       <c r="P554" s="14">
@@ -64129,7 +64148,7 @@
       <c r="N555" s="14">
         <v>1920</v>
       </c>
-      <c r="O555" s="17">
+      <c r="O555" s="18">
         <v>2011</v>
       </c>
       <c r="P555" s="14">
@@ -64223,7 +64242,7 @@
       <c r="N556" s="14">
         <v>1920</v>
       </c>
-      <c r="O556" s="17">
+      <c r="O556" s="18">
         <v>2011</v>
       </c>
       <c r="P556" s="14">
@@ -64311,7 +64330,7 @@
       <c r="N557" s="14">
         <v>1920</v>
       </c>
-      <c r="O557" s="17">
+      <c r="O557" s="18">
         <v>2011</v>
       </c>
       <c r="P557" s="14">
@@ -64399,7 +64418,7 @@
       <c r="N558" s="14">
         <v>1920</v>
       </c>
-      <c r="O558" s="17">
+      <c r="O558" s="18">
         <v>2011</v>
       </c>
       <c r="P558" s="14">
@@ -64493,7 +64512,7 @@
       <c r="N559" s="14">
         <v>1920</v>
       </c>
-      <c r="O559" s="17">
+      <c r="O559" s="18">
         <v>2011</v>
       </c>
       <c r="P559" s="14">
@@ -64584,7 +64603,7 @@
       <c r="N560" s="14">
         <v>1920</v>
       </c>
-      <c r="O560" s="17">
+      <c r="O560" s="18">
         <v>2011</v>
       </c>
       <c r="P560" s="14">
@@ -64675,7 +64694,7 @@
       <c r="N561" s="14">
         <v>1920</v>
       </c>
-      <c r="O561" s="17">
+      <c r="O561" s="18">
         <v>2011</v>
       </c>
       <c r="P561" s="14">
@@ -64766,7 +64785,7 @@
       <c r="N562" s="14">
         <v>1920</v>
       </c>
-      <c r="O562" s="17">
+      <c r="O562" s="18">
         <v>2011</v>
       </c>
       <c r="P562" s="14">
@@ -64857,7 +64876,7 @@
       <c r="N563" s="14">
         <v>1920</v>
       </c>
-      <c r="O563" s="17">
+      <c r="O563" s="18">
         <v>2011</v>
       </c>
       <c r="P563" s="14">
@@ -64948,7 +64967,7 @@
       <c r="N564" s="14">
         <v>1920</v>
       </c>
-      <c r="O564" s="17">
+      <c r="O564" s="18">
         <v>2011</v>
       </c>
       <c r="P564" s="14">
@@ -65039,7 +65058,7 @@
       <c r="N565" s="14">
         <v>1920</v>
       </c>
-      <c r="O565" s="17">
+      <c r="O565" s="18">
         <v>2011</v>
       </c>
       <c r="P565" s="14">
@@ -65130,7 +65149,7 @@
       <c r="N566" s="14">
         <v>1920</v>
       </c>
-      <c r="O566" s="17">
+      <c r="O566" s="18">
         <v>2011</v>
       </c>
       <c r="P566" s="14">
@@ -65221,7 +65240,7 @@
       <c r="N567" s="14">
         <v>1920</v>
       </c>
-      <c r="O567" s="17">
+      <c r="O567" s="18">
         <v>2011</v>
       </c>
       <c r="P567" s="14">
@@ -65312,7 +65331,7 @@
       <c r="N568" s="14">
         <v>1920</v>
       </c>
-      <c r="O568" s="17">
+      <c r="O568" s="18">
         <v>2011</v>
       </c>
       <c r="P568" s="14">
@@ -65403,7 +65422,7 @@
       <c r="N569" s="14">
         <v>1920</v>
       </c>
-      <c r="O569" s="17">
+      <c r="O569" s="18">
         <v>2011</v>
       </c>
       <c r="P569" s="14">
@@ -65494,7 +65513,7 @@
       <c r="N570" s="14">
         <v>1920</v>
       </c>
-      <c r="O570" s="17">
+      <c r="O570" s="18">
         <v>2011</v>
       </c>
       <c r="P570" s="14">
@@ -65585,7 +65604,7 @@
       <c r="N571" s="14">
         <v>1920</v>
       </c>
-      <c r="O571" s="17">
+      <c r="O571" s="18">
         <v>2011</v>
       </c>
       <c r="P571" s="14">
@@ -65676,7 +65695,7 @@
       <c r="N572" s="14">
         <v>1920</v>
       </c>
-      <c r="O572" s="17">
+      <c r="O572" s="18">
         <v>2011</v>
       </c>
       <c r="P572" s="14">
@@ -65741,38 +65760,3662 @@
       </c>
     </row>
     <row r="573" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B573" s="15"/>
-      <c r="C573" s="15"/>
-      <c r="G573" s="15"/>
-      <c r="I573" s="15"/>
+      <c r="A573" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B573" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C573" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D573" t="s">
+        <v>550</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G573" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H573" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I573" s="15" t="s">
+        <v>1811</v>
+      </c>
       <c r="M573" s="15"/>
-      <c r="O573" s="17"/>
+      <c r="O573" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T573" s="14">
+        <v>4</v>
+      </c>
       <c r="V573" s="12"/>
       <c r="W573" s="15"/>
-      <c r="X573" s="12"/>
-      <c r="AJ573" s="15"/>
-      <c r="AK573" s="15"/>
-      <c r="AN573" s="15"/>
-      <c r="AO573" s="15"/>
-      <c r="AP573" s="15"/>
-      <c r="AR573" s="15"/>
+      <c r="X573" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z573" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF573" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG573" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH573" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ573" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK573" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL573" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM573" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN573" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO573" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP573" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="AQ573" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR573" s="15" t="s">
+        <v>1681</v>
+      </c>
     </row>
     <row r="574" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B574" s="15"/>
-      <c r="C574" s="15"/>
-      <c r="G574" s="15"/>
-      <c r="I574" s="15"/>
+      <c r="A574" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B574" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C574" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D574" t="s">
+        <v>550</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G574" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H574" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I574" s="15" t="s">
+        <v>1811</v>
+      </c>
       <c r="M574" s="15"/>
-      <c r="O574" s="17"/>
+      <c r="O574" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T574" s="14">
+        <v>4</v>
+      </c>
       <c r="V574" s="12"/>
       <c r="W574" s="15"/>
-      <c r="X574" s="12"/>
-      <c r="AJ574" s="15"/>
-      <c r="AK574" s="15"/>
-      <c r="AN574" s="15"/>
-      <c r="AO574" s="15"/>
-      <c r="AP574" s="15"/>
-      <c r="AR574" s="15"/>
+      <c r="X574" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z574" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF574" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG574" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH574" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ574" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK574" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL574" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM574" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN574" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO574" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP574" s="15">
+        <v>4</v>
+      </c>
+      <c r="AQ574" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR574" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="575" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B575" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C575" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D575" t="s">
+        <v>550</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G575" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H575" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I575" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M575" s="15"/>
+      <c r="O575" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T575" s="14">
+        <v>4</v>
+      </c>
+      <c r="V575" s="12"/>
+      <c r="W575" s="15"/>
+      <c r="X575" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z575" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF575" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG575" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH575" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ575" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK575" s="15">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AL575" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM575" s="14">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="AN575" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO575" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP575" s="15">
+        <v>5.87</v>
+      </c>
+      <c r="AQ575" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR575" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="576" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B576" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C576" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D576" t="s">
+        <v>550</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G576" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H576" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I576" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M576" s="15"/>
+      <c r="O576" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T576" s="14">
+        <v>4</v>
+      </c>
+      <c r="V576" s="12"/>
+      <c r="W576" s="15"/>
+      <c r="X576" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z576" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF576" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG576" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH576" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ576" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK576" s="15">
+        <v>12.74</v>
+      </c>
+      <c r="AL576" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM576" s="14">
+        <v>3.5090000000000003</v>
+      </c>
+      <c r="AN576" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO576" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP576" s="15">
+        <v>7.72</v>
+      </c>
+      <c r="AQ576" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR576" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="577" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B577" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C577" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D577" t="s">
+        <v>550</v>
+      </c>
+      <c r="E577" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G577" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H577" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I577" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M577" s="15"/>
+      <c r="O577" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T577" s="14">
+        <v>4</v>
+      </c>
+      <c r="V577" s="12"/>
+      <c r="W577" s="15"/>
+      <c r="X577" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z577" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF577" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG577" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH577" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ577" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK577" s="15">
+        <v>29.06</v>
+      </c>
+      <c r="AL577" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM577" s="14">
+        <v>7.1930000000000014</v>
+      </c>
+      <c r="AN577" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO577" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP577" s="15">
+        <v>10.61</v>
+      </c>
+      <c r="AQ577" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR577" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="578" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B578" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C578" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D578" t="s">
+        <v>550</v>
+      </c>
+      <c r="E578" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G578" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H578" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I578" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M578" s="15"/>
+      <c r="O578" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T578" s="14">
+        <v>4</v>
+      </c>
+      <c r="V578" s="12"/>
+      <c r="W578" s="15"/>
+      <c r="X578" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z578" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF578" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG578" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH578" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ578" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK578" s="15">
+        <v>34.67</v>
+      </c>
+      <c r="AL578" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM578" s="14">
+        <v>6.8640000000000043</v>
+      </c>
+      <c r="AN578" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO578" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP578" s="15">
+        <v>12.6</v>
+      </c>
+      <c r="AQ578" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR578" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="579" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B579" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C579" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D579" t="s">
+        <v>550</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G579" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H579" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I579" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M579" s="15"/>
+      <c r="O579" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T579" s="14">
+        <v>4</v>
+      </c>
+      <c r="V579" s="12"/>
+      <c r="W579" s="15"/>
+      <c r="X579" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Z579" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF579" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG579" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH579" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ579" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK579" s="15">
+        <v>38</v>
+      </c>
+      <c r="AL579" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM579" s="14">
+        <v>3.8599999999999994</v>
+      </c>
+      <c r="AN579" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO579" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP579" s="15">
+        <v>14.53</v>
+      </c>
+      <c r="AQ579" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR579" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="580" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B580" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C580" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D580" t="s">
+        <v>550</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F580" s="14"/>
+      <c r="G580" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H580" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I580" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J580" s="14"/>
+      <c r="K580" s="14"/>
+      <c r="L580" s="14"/>
+      <c r="M580" s="15"/>
+      <c r="N580" s="14"/>
+      <c r="O580" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P580" s="14"/>
+      <c r="Q580" s="14"/>
+      <c r="R580" s="14"/>
+      <c r="S580" s="14"/>
+      <c r="T580" s="14">
+        <v>4</v>
+      </c>
+      <c r="U580" s="14"/>
+      <c r="V580" s="12"/>
+      <c r="W580" s="15"/>
+      <c r="X580" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y580" s="14"/>
+      <c r="Z580" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA580" s="14"/>
+      <c r="AB580" s="14"/>
+      <c r="AC580" s="14"/>
+      <c r="AD580" s="14"/>
+      <c r="AE580" s="14"/>
+      <c r="AF580" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG580" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH580" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI580" s="14"/>
+      <c r="AJ580" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK580" s="15">
+        <v>41.34</v>
+      </c>
+      <c r="AL580" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM580">
+        <v>4.3859999999999957</v>
+      </c>
+      <c r="AN580" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO580" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP580" s="15">
+        <v>16.38</v>
+      </c>
+      <c r="AQ580" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR580" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="581" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B581" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C581" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D581" t="s">
+        <v>550</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F581" s="14"/>
+      <c r="G581" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H581" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I581" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J581" s="14"/>
+      <c r="K581" s="14"/>
+      <c r="L581" s="14"/>
+      <c r="M581" s="15"/>
+      <c r="N581" s="14"/>
+      <c r="O581" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P581" s="14"/>
+      <c r="Q581" s="14"/>
+      <c r="R581" s="14"/>
+      <c r="S581" s="14"/>
+      <c r="T581" s="14">
+        <v>4</v>
+      </c>
+      <c r="U581" s="14"/>
+      <c r="V581" s="12"/>
+      <c r="W581" s="15"/>
+      <c r="X581" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y581" s="14"/>
+      <c r="Z581" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA581" s="14"/>
+      <c r="AB581" s="14"/>
+      <c r="AC581" s="14"/>
+      <c r="AD581" s="14"/>
+      <c r="AE581" s="14"/>
+      <c r="AF581" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG581" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH581" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI581" s="14"/>
+      <c r="AJ581" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK581" s="15">
+        <v>44.32</v>
+      </c>
+      <c r="AL581" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM581">
+        <v>4.5619999999999976</v>
+      </c>
+      <c r="AN581" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO581" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP581" s="15">
+        <v>19.27</v>
+      </c>
+      <c r="AQ581" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR581" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="582" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B582" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C582" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D582" t="s">
+        <v>550</v>
+      </c>
+      <c r="E582" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F582" s="14"/>
+      <c r="G582" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H582" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I582" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J582" s="14"/>
+      <c r="K582" s="14"/>
+      <c r="L582" s="14"/>
+      <c r="M582" s="15"/>
+      <c r="N582" s="14"/>
+      <c r="O582" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P582" s="14"/>
+      <c r="Q582" s="14"/>
+      <c r="R582" s="14"/>
+      <c r="S582" s="14"/>
+      <c r="T582" s="14">
+        <v>4</v>
+      </c>
+      <c r="U582" s="14"/>
+      <c r="V582" s="12"/>
+      <c r="W582" s="15"/>
+      <c r="X582" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y582" s="14"/>
+      <c r="Z582" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA582" s="14"/>
+      <c r="AB582" s="14"/>
+      <c r="AC582" s="14"/>
+      <c r="AD582" s="14"/>
+      <c r="AE582" s="14"/>
+      <c r="AF582" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG582" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH582" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI582" s="14"/>
+      <c r="AJ582" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK582" s="15">
+        <v>44.5</v>
+      </c>
+      <c r="AL582" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM582">
+        <v>4.2099999999999937</v>
+      </c>
+      <c r="AN582" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO582" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP582" s="15">
+        <v>21.19</v>
+      </c>
+      <c r="AQ582" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR582" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="583" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B583" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C583" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D583" t="s">
+        <v>550</v>
+      </c>
+      <c r="E583" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F583" s="14"/>
+      <c r="G583" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H583" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I583" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J583" s="14"/>
+      <c r="K583" s="14"/>
+      <c r="L583" s="14"/>
+      <c r="M583" s="15"/>
+      <c r="N583" s="14"/>
+      <c r="O583" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P583" s="14"/>
+      <c r="Q583" s="14"/>
+      <c r="R583" s="14"/>
+      <c r="S583" s="14"/>
+      <c r="T583" s="14">
+        <v>4</v>
+      </c>
+      <c r="U583" s="14"/>
+      <c r="V583" s="12"/>
+      <c r="W583" s="15"/>
+      <c r="X583" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y583" s="14"/>
+      <c r="Z583" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA583" s="14"/>
+      <c r="AB583" s="14"/>
+      <c r="AC583" s="14"/>
+      <c r="AD583" s="14"/>
+      <c r="AE583" s="14"/>
+      <c r="AF583" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG583" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH583" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI583" s="14"/>
+      <c r="AJ583" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK583" s="15">
+        <v>45.9</v>
+      </c>
+      <c r="AL583" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM583">
+        <v>3.3340000000000032</v>
+      </c>
+      <c r="AN583" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO583" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP583" s="15">
+        <v>24.08</v>
+      </c>
+      <c r="AQ583" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR583" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="584" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B584" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C584" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D584" t="s">
+        <v>550</v>
+      </c>
+      <c r="E584" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F584" s="14"/>
+      <c r="G584" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H584" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I584" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J584" s="14"/>
+      <c r="K584" s="14"/>
+      <c r="L584" s="14"/>
+      <c r="M584" s="15"/>
+      <c r="N584" s="14"/>
+      <c r="O584" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P584" s="14"/>
+      <c r="Q584" s="14"/>
+      <c r="R584" s="14"/>
+      <c r="S584" s="14"/>
+      <c r="T584" s="14">
+        <v>4</v>
+      </c>
+      <c r="U584" s="14"/>
+      <c r="V584" s="12"/>
+      <c r="W584" s="15"/>
+      <c r="X584" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y584" s="14"/>
+      <c r="Z584" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA584" s="14"/>
+      <c r="AB584" s="14"/>
+      <c r="AC584" s="14"/>
+      <c r="AD584" s="14"/>
+      <c r="AE584" s="14"/>
+      <c r="AF584" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG584" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH584" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI584" s="14"/>
+      <c r="AJ584" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK584" s="15">
+        <v>46.08</v>
+      </c>
+      <c r="AL584" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM584">
+        <v>2.8070000000000022</v>
+      </c>
+      <c r="AN584" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO584" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP584" s="15">
+        <v>26.14</v>
+      </c>
+      <c r="AQ584" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR584" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="585" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B585" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C585" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D585" t="s">
+        <v>550</v>
+      </c>
+      <c r="E585" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F585" s="14"/>
+      <c r="G585" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H585" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I585" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J585" s="14"/>
+      <c r="K585" s="14"/>
+      <c r="L585" s="14"/>
+      <c r="M585" s="15"/>
+      <c r="N585" s="14"/>
+      <c r="O585" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P585" s="14"/>
+      <c r="Q585" s="14"/>
+      <c r="R585" s="14"/>
+      <c r="S585" s="14"/>
+      <c r="T585" s="14">
+        <v>4</v>
+      </c>
+      <c r="U585" s="14"/>
+      <c r="V585" s="12"/>
+      <c r="W585" s="15"/>
+      <c r="X585" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y585" s="14"/>
+      <c r="Z585" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA585" s="14"/>
+      <c r="AB585" s="14"/>
+      <c r="AC585" s="14"/>
+      <c r="AD585" s="14"/>
+      <c r="AE585" s="14"/>
+      <c r="AF585" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG585" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH585" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI585" s="14"/>
+      <c r="AJ585" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK585" s="15">
+        <v>46.08</v>
+      </c>
+      <c r="AL585" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM585">
+        <v>2.4570000000000007</v>
+      </c>
+      <c r="AN585" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO585" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP585" s="15">
+        <v>28.07</v>
+      </c>
+      <c r="AQ585" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR585" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="586" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B586" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C586" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D586" t="s">
+        <v>550</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F586" s="14"/>
+      <c r="G586" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H586" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I586" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J586" s="14"/>
+      <c r="K586" s="14"/>
+      <c r="L586" s="14"/>
+      <c r="M586" s="15"/>
+      <c r="N586" s="14"/>
+      <c r="O586" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P586" s="14"/>
+      <c r="Q586" s="14"/>
+      <c r="R586" s="14"/>
+      <c r="S586" s="14"/>
+      <c r="T586" s="14">
+        <v>4</v>
+      </c>
+      <c r="U586" s="14"/>
+      <c r="V586" s="12"/>
+      <c r="W586" s="15"/>
+      <c r="X586" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y586" s="14"/>
+      <c r="Z586" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA586" s="14"/>
+      <c r="AB586" s="14"/>
+      <c r="AC586" s="14"/>
+      <c r="AD586" s="14"/>
+      <c r="AE586" s="14"/>
+      <c r="AF586" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG586" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH586" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI586" s="14"/>
+      <c r="AJ586" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK586" s="15">
+        <v>47.13</v>
+      </c>
+      <c r="AL586" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM586">
+        <v>5.2629999999999981</v>
+      </c>
+      <c r="AN586" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO586" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP586" s="15">
+        <v>30.95</v>
+      </c>
+      <c r="AQ586" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR586" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="587" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B587" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C587" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D587" t="s">
+        <v>550</v>
+      </c>
+      <c r="E587" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F587" s="14"/>
+      <c r="G587" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H587" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I587" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J587" s="14"/>
+      <c r="K587" s="14"/>
+      <c r="L587" s="14"/>
+      <c r="M587" s="15"/>
+      <c r="N587" s="14"/>
+      <c r="O587" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P587" s="14"/>
+      <c r="Q587" s="14"/>
+      <c r="R587" s="14"/>
+      <c r="S587" s="14"/>
+      <c r="T587" s="14">
+        <v>4</v>
+      </c>
+      <c r="U587" s="14"/>
+      <c r="V587" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W587" s="15">
+        <v>35</v>
+      </c>
+      <c r="X587" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y587" s="14"/>
+      <c r="Z587" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA587" s="14"/>
+      <c r="AB587" s="14"/>
+      <c r="AC587" s="14"/>
+      <c r="AD587" s="14"/>
+      <c r="AE587" s="14"/>
+      <c r="AF587" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG587" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH587" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI587" s="14"/>
+      <c r="AJ587" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK587" s="15">
+        <v>8.0259999999999998</v>
+      </c>
+      <c r="AL587" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM587">
+        <v>0</v>
+      </c>
+      <c r="AN587" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO587" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP587" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ587" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR587" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="588" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B588" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C588" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D588" t="s">
+        <v>550</v>
+      </c>
+      <c r="E588" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F588" s="14"/>
+      <c r="G588" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H588" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I588" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J588" s="14"/>
+      <c r="K588" s="14"/>
+      <c r="L588" s="14"/>
+      <c r="M588" s="15"/>
+      <c r="N588" s="14"/>
+      <c r="O588" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P588" s="14"/>
+      <c r="Q588" s="14"/>
+      <c r="R588" s="14"/>
+      <c r="S588" s="14"/>
+      <c r="T588" s="14">
+        <v>4</v>
+      </c>
+      <c r="U588" s="14"/>
+      <c r="V588" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W588" s="15">
+        <v>35</v>
+      </c>
+      <c r="X588" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y588" s="14"/>
+      <c r="Z588" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA588" s="14"/>
+      <c r="AB588" s="14"/>
+      <c r="AC588" s="14"/>
+      <c r="AD588" s="14"/>
+      <c r="AE588" s="14"/>
+      <c r="AF588" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG588" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH588" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI588" s="14"/>
+      <c r="AJ588" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK588" s="15">
+        <v>22.039000000000001</v>
+      </c>
+      <c r="AL588" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM588">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="AN588" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO588" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP588" s="15">
+        <v>1.06</v>
+      </c>
+      <c r="AQ588" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR588" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="589" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B589" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C589" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D589" t="s">
+        <v>550</v>
+      </c>
+      <c r="E589" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F589" s="14"/>
+      <c r="G589" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H589" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I589" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J589" s="14"/>
+      <c r="K589" s="14"/>
+      <c r="L589" s="14"/>
+      <c r="M589" s="15"/>
+      <c r="N589" s="14"/>
+      <c r="O589" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P589" s="14"/>
+      <c r="Q589" s="14"/>
+      <c r="R589" s="14"/>
+      <c r="S589" s="14"/>
+      <c r="T589" s="14">
+        <v>4</v>
+      </c>
+      <c r="U589" s="14"/>
+      <c r="V589" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W589" s="15">
+        <v>35</v>
+      </c>
+      <c r="X589" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y589" s="14"/>
+      <c r="Z589" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA589" s="14"/>
+      <c r="AB589" s="14"/>
+      <c r="AC589" s="14"/>
+      <c r="AD589" s="14"/>
+      <c r="AE589" s="14"/>
+      <c r="AF589" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG589" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH589" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI589" s="14"/>
+      <c r="AJ589" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK589" s="15">
+        <v>41.338000000000001</v>
+      </c>
+      <c r="AL589" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM589">
+        <v>5.4379999999999953</v>
+      </c>
+      <c r="AN589" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO589" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP589" s="15">
+        <v>3.88</v>
+      </c>
+      <c r="AQ589" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR589" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="590" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B590" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C590" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D590" t="s">
+        <v>550</v>
+      </c>
+      <c r="E590" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F590" s="14"/>
+      <c r="G590" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H590" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I590" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J590" s="14"/>
+      <c r="K590" s="14"/>
+      <c r="L590" s="14"/>
+      <c r="M590" s="15"/>
+      <c r="N590" s="14"/>
+      <c r="O590" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P590" s="14"/>
+      <c r="Q590" s="14"/>
+      <c r="R590" s="14"/>
+      <c r="S590" s="14"/>
+      <c r="T590" s="14">
+        <v>4</v>
+      </c>
+      <c r="U590" s="14"/>
+      <c r="V590" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W590" s="15">
+        <v>35</v>
+      </c>
+      <c r="X590" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y590" s="14"/>
+      <c r="Z590" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA590" s="14"/>
+      <c r="AB590" s="14"/>
+      <c r="AC590" s="14"/>
+      <c r="AD590" s="14"/>
+      <c r="AE590" s="14"/>
+      <c r="AF590" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG590" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH590" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI590" s="14"/>
+      <c r="AJ590" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK590" s="15">
+        <v>51.863999999999997</v>
+      </c>
+      <c r="AL590" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM590">
+        <v>4.7370000000000019</v>
+      </c>
+      <c r="AN590" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO590" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP590" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="AQ590" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR590" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="591" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B591" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C591" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D591" t="s">
+        <v>550</v>
+      </c>
+      <c r="E591" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F591" s="14"/>
+      <c r="G591" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H591" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I591" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J591" s="14"/>
+      <c r="K591" s="14"/>
+      <c r="L591" s="14"/>
+      <c r="M591" s="15"/>
+      <c r="N591" s="14"/>
+      <c r="O591" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P591" s="14"/>
+      <c r="Q591" s="14"/>
+      <c r="R591" s="14"/>
+      <c r="S591" s="14"/>
+      <c r="T591" s="14">
+        <v>4</v>
+      </c>
+      <c r="U591" s="14"/>
+      <c r="V591" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W591" s="15">
+        <v>35</v>
+      </c>
+      <c r="X591" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y591" s="14"/>
+      <c r="Z591" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA591" s="14"/>
+      <c r="AB591" s="14"/>
+      <c r="AC591" s="14"/>
+      <c r="AD591" s="14"/>
+      <c r="AE591" s="14"/>
+      <c r="AF591" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG591" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH591" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI591" s="14"/>
+      <c r="AJ591" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK591" s="15">
+        <v>57.127000000000002</v>
+      </c>
+      <c r="AL591" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM591">
+        <v>9.1230000000000047</v>
+      </c>
+      <c r="AN591" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO591" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP591" s="15">
+        <v>7.66</v>
+      </c>
+      <c r="AQ591" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR591" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="592" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B592" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C592" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D592" t="s">
+        <v>550</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F592" s="14"/>
+      <c r="G592" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H592" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I592" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J592" s="14"/>
+      <c r="K592" s="14"/>
+      <c r="L592" s="14"/>
+      <c r="M592" s="15"/>
+      <c r="N592" s="14"/>
+      <c r="O592" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P592" s="14"/>
+      <c r="Q592" s="14"/>
+      <c r="R592" s="14"/>
+      <c r="S592" s="14"/>
+      <c r="T592" s="14">
+        <v>4</v>
+      </c>
+      <c r="U592" s="14"/>
+      <c r="V592" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W592" s="15">
+        <v>35</v>
+      </c>
+      <c r="X592" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y592" s="14"/>
+      <c r="Z592" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA592" s="14"/>
+      <c r="AB592" s="14"/>
+      <c r="AC592" s="14"/>
+      <c r="AD592" s="14"/>
+      <c r="AE592" s="14"/>
+      <c r="AF592" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG592" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH592" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI592" s="14"/>
+      <c r="AJ592" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK592" s="15">
+        <v>60.811</v>
+      </c>
+      <c r="AL592" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM592">
+        <v>9.1230000000000047</v>
+      </c>
+      <c r="AN592" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO592" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP592" s="15">
+        <v>10.54</v>
+      </c>
+      <c r="AQ592" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR592" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="593" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B593" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C593" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D593" t="s">
+        <v>550</v>
+      </c>
+      <c r="E593" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F593" s="14"/>
+      <c r="G593" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H593" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I593" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J593" s="14"/>
+      <c r="K593" s="14"/>
+      <c r="L593" s="14"/>
+      <c r="M593" s="15"/>
+      <c r="N593" s="14"/>
+      <c r="O593" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P593" s="14"/>
+      <c r="Q593" s="14"/>
+      <c r="R593" s="14"/>
+      <c r="S593" s="14"/>
+      <c r="T593" s="14">
+        <v>4</v>
+      </c>
+      <c r="U593" s="14"/>
+      <c r="V593" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W593" s="15">
+        <v>35</v>
+      </c>
+      <c r="X593" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y593" s="14"/>
+      <c r="Z593" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA593" s="14"/>
+      <c r="AB593" s="14"/>
+      <c r="AC593" s="14"/>
+      <c r="AD593" s="14"/>
+      <c r="AE593" s="14"/>
+      <c r="AF593" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG593" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH593" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI593" s="14"/>
+      <c r="AJ593" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK593" s="15">
+        <v>65.197000000000003</v>
+      </c>
+      <c r="AL593" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM593">
+        <v>6.6670000000000016</v>
+      </c>
+      <c r="AN593" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO593" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP593" s="15">
+        <v>12.53</v>
+      </c>
+      <c r="AQ593" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR593" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="594" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B594" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C594" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D594" t="s">
+        <v>550</v>
+      </c>
+      <c r="E594" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F594" s="14"/>
+      <c r="G594" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H594" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I594" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J594" s="14"/>
+      <c r="K594" s="14"/>
+      <c r="L594" s="14"/>
+      <c r="M594" s="15"/>
+      <c r="N594" s="14"/>
+      <c r="O594" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P594" s="14"/>
+      <c r="Q594" s="14"/>
+      <c r="R594" s="14"/>
+      <c r="S594" s="14"/>
+      <c r="T594" s="14">
+        <v>4</v>
+      </c>
+      <c r="U594" s="14"/>
+      <c r="V594" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W594" s="15">
+        <v>35</v>
+      </c>
+      <c r="X594" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y594" s="14"/>
+      <c r="Z594" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA594" s="14"/>
+      <c r="AB594" s="14"/>
+      <c r="AC594" s="14"/>
+      <c r="AD594" s="14"/>
+      <c r="AE594" s="14"/>
+      <c r="AF594" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG594" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH594" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI594" s="14"/>
+      <c r="AJ594" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK594" s="15">
+        <v>66.25</v>
+      </c>
+      <c r="AL594" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM594">
+        <v>5.7899999999999991</v>
+      </c>
+      <c r="AN594" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO594" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP594" s="15">
+        <v>14.46</v>
+      </c>
+      <c r="AQ594" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR594" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="595" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B595" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C595" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D595" t="s">
+        <v>550</v>
+      </c>
+      <c r="E595" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F595" s="14"/>
+      <c r="G595" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H595" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I595" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J595" s="14"/>
+      <c r="K595" s="14"/>
+      <c r="L595" s="14"/>
+      <c r="M595" s="15"/>
+      <c r="N595" s="14"/>
+      <c r="O595" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P595" s="14"/>
+      <c r="Q595" s="14"/>
+      <c r="R595" s="14"/>
+      <c r="S595" s="14"/>
+      <c r="T595" s="14">
+        <v>4</v>
+      </c>
+      <c r="U595" s="14"/>
+      <c r="V595" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W595" s="15">
+        <v>35</v>
+      </c>
+      <c r="X595" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y595" s="14"/>
+      <c r="Z595" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA595" s="14"/>
+      <c r="AB595" s="14"/>
+      <c r="AC595" s="14"/>
+      <c r="AD595" s="14"/>
+      <c r="AE595" s="14"/>
+      <c r="AF595" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG595" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH595" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI595" s="14"/>
+      <c r="AJ595" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK595" s="15">
+        <v>67.126999999999995</v>
+      </c>
+      <c r="AL595" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM595">
+        <v>5.7890000000000015</v>
+      </c>
+      <c r="AN595" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO595" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP595" s="15">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="AQ595" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR595" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="596" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B596" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C596" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D596" t="s">
+        <v>550</v>
+      </c>
+      <c r="E596" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F596" s="14"/>
+      <c r="G596" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H596" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I596" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J596" s="14"/>
+      <c r="K596" s="14"/>
+      <c r="L596" s="14"/>
+      <c r="M596" s="15"/>
+      <c r="N596" s="14"/>
+      <c r="O596" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P596" s="14"/>
+      <c r="Q596" s="14"/>
+      <c r="R596" s="14"/>
+      <c r="S596" s="14"/>
+      <c r="T596" s="14">
+        <v>4</v>
+      </c>
+      <c r="U596" s="14"/>
+      <c r="V596" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W596" s="15">
+        <v>35</v>
+      </c>
+      <c r="X596" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y596" s="14"/>
+      <c r="Z596" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA596" s="14"/>
+      <c r="AB596" s="14"/>
+      <c r="AC596" s="14"/>
+      <c r="AD596" s="14"/>
+      <c r="AE596" s="14"/>
+      <c r="AF596" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG596" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH596" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI596" s="14"/>
+      <c r="AJ596" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK596" s="15">
+        <v>67.302999999999997</v>
+      </c>
+      <c r="AL596" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM596">
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="AN596" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO596" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP596" s="15">
+        <v>20.23</v>
+      </c>
+      <c r="AQ596" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR596" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="597" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B597" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C597" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D597" t="s">
+        <v>550</v>
+      </c>
+      <c r="E597" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F597" s="14"/>
+      <c r="G597" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H597" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I597" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J597" s="14"/>
+      <c r="K597" s="14"/>
+      <c r="L597" s="14"/>
+      <c r="M597" s="15"/>
+      <c r="N597" s="14"/>
+      <c r="O597" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P597" s="14"/>
+      <c r="Q597" s="14"/>
+      <c r="R597" s="14"/>
+      <c r="S597" s="14"/>
+      <c r="T597" s="14">
+        <v>4</v>
+      </c>
+      <c r="U597" s="14"/>
+      <c r="V597" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W597" s="15">
+        <v>35</v>
+      </c>
+      <c r="X597" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y597" s="14"/>
+      <c r="Z597" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA597" s="14"/>
+      <c r="AB597" s="14"/>
+      <c r="AC597" s="14"/>
+      <c r="AD597" s="14"/>
+      <c r="AE597" s="14"/>
+      <c r="AF597" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG597" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH597" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI597" s="14"/>
+      <c r="AJ597" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK597" s="15">
+        <v>67.302999999999997</v>
+      </c>
+      <c r="AL597" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM597">
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="AN597" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO597" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP597" s="15">
+        <v>22.23</v>
+      </c>
+      <c r="AQ597" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR597" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="598" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B598" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C598" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D598" t="s">
+        <v>550</v>
+      </c>
+      <c r="E598" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F598" s="14"/>
+      <c r="G598" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H598" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I598" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J598" s="14"/>
+      <c r="K598" s="14"/>
+      <c r="L598" s="14"/>
+      <c r="M598" s="15"/>
+      <c r="N598" s="14"/>
+      <c r="O598" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P598" s="14"/>
+      <c r="Q598" s="14"/>
+      <c r="R598" s="14"/>
+      <c r="S598" s="14"/>
+      <c r="T598" s="14">
+        <v>4</v>
+      </c>
+      <c r="U598" s="14"/>
+      <c r="V598" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W598" s="15">
+        <v>35</v>
+      </c>
+      <c r="X598" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y598" s="14"/>
+      <c r="Z598" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA598" s="14"/>
+      <c r="AB598" s="14"/>
+      <c r="AC598" s="14"/>
+      <c r="AD598" s="14"/>
+      <c r="AE598" s="14"/>
+      <c r="AF598" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG598" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH598" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI598" s="14"/>
+      <c r="AJ598" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK598" s="15">
+        <v>67.302999999999997</v>
+      </c>
+      <c r="AL598" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM598">
+        <v>6.1400000000000006</v>
+      </c>
+      <c r="AN598" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO598" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP598" s="15">
+        <v>25.11</v>
+      </c>
+      <c r="AQ598" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR598" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="599" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B599" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C599" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D599" t="s">
+        <v>550</v>
+      </c>
+      <c r="E599" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F599" s="14"/>
+      <c r="G599" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H599" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I599" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J599" s="14"/>
+      <c r="K599" s="14"/>
+      <c r="L599" s="14"/>
+      <c r="M599" s="15"/>
+      <c r="N599" s="14"/>
+      <c r="O599" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P599" s="14"/>
+      <c r="Q599" s="14"/>
+      <c r="R599" s="14"/>
+      <c r="S599" s="14"/>
+      <c r="T599" s="14">
+        <v>4</v>
+      </c>
+      <c r="U599" s="14"/>
+      <c r="V599" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W599" s="15">
+        <v>35</v>
+      </c>
+      <c r="X599" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y599" s="14"/>
+      <c r="Z599" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA599" s="14"/>
+      <c r="AB599" s="14"/>
+      <c r="AC599" s="14"/>
+      <c r="AD599" s="14"/>
+      <c r="AE599" s="14"/>
+      <c r="AF599" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG599" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH599" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI599" s="14"/>
+      <c r="AJ599" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK599" s="15">
+        <v>68.180000000000007</v>
+      </c>
+      <c r="AL599" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM599">
+        <v>7.1929999999999978</v>
+      </c>
+      <c r="AN599" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO599" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP599" s="15">
+        <v>26.97</v>
+      </c>
+      <c r="AQ599" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR599" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="600" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B600" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C600" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D600" t="s">
+        <v>550</v>
+      </c>
+      <c r="E600" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F600" s="14"/>
+      <c r="G600" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H600" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I600" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J600" s="14"/>
+      <c r="K600" s="14"/>
+      <c r="L600" s="14"/>
+      <c r="M600" s="15"/>
+      <c r="N600" s="14"/>
+      <c r="O600" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P600" s="14"/>
+      <c r="Q600" s="14"/>
+      <c r="R600" s="14"/>
+      <c r="S600" s="14"/>
+      <c r="T600" s="14">
+        <v>4</v>
+      </c>
+      <c r="U600" s="14"/>
+      <c r="V600" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W600" s="15">
+        <v>35</v>
+      </c>
+      <c r="X600" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y600" s="14"/>
+      <c r="Z600" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA600" s="14"/>
+      <c r="AB600" s="14"/>
+      <c r="AC600" s="14"/>
+      <c r="AD600" s="14"/>
+      <c r="AE600" s="14"/>
+      <c r="AF600" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG600" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH600" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI600" s="14"/>
+      <c r="AJ600" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK600" s="15">
+        <v>68.180000000000007</v>
+      </c>
+      <c r="AL600" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM600">
+        <v>7.0169999999999959</v>
+      </c>
+      <c r="AN600" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO600" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP600" s="15">
+        <v>29.03</v>
+      </c>
+      <c r="AQ600" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="AR600" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="601" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="7" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B601" s="13" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C601" s="13" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D601" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E601" s="7" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G601" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H601" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I601" s="13" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M601" s="13"/>
+      <c r="O601" s="17" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T601" s="7">
+        <v>4</v>
+      </c>
+      <c r="V601" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W601" s="13">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="X601" s="10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AF601" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG601" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH601" s="7">
+        <v>1440</v>
+      </c>
+      <c r="AJ601" s="13" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK601" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL601" s="7" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM601" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN601" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO601" s="13">
+        <v>100</v>
+      </c>
+      <c r="AP601" s="13">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="AQ601" s="7" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AR601" s="13" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS601" s="7" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="602" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B602" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C602" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D602" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E602" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G602" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H602" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I602" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M602" s="15"/>
+      <c r="O602" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T602" s="14">
+        <v>4</v>
+      </c>
+      <c r="V602" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W602" s="15">
+        <v>13.377000000000001</v>
+      </c>
+      <c r="X602" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AF602" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG602" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH602" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ602" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK602" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL602" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM602" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN602" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO602" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP602" s="15">
+        <v>13.377000000000001</v>
+      </c>
+      <c r="AQ602" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AR602" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS602" s="14" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="603" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B603" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C603" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D603" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E603" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G603" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H603" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I603" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M603" s="15"/>
+      <c r="O603" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T603" s="14">
+        <v>4</v>
+      </c>
+      <c r="V603" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W603" s="15">
+        <v>27.908999999999999</v>
+      </c>
+      <c r="X603" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AF603" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG603" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH603" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ603" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK603" s="15">
+        <v>2.08</v>
+      </c>
+      <c r="AL603" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM603" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="AN603" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO603" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP603" s="15">
+        <v>27.908999999999999</v>
+      </c>
+      <c r="AQ603" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AR603" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS603" s="14" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="604" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B604" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C604" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D604" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E604" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G604" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H604" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I604" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M604" s="15"/>
+      <c r="O604" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T604" s="14">
+        <v>4</v>
+      </c>
+      <c r="V604" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W604" s="15">
+        <v>35.356999999999999</v>
+      </c>
+      <c r="X604" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AF604" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG604" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH604" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ604" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK604" s="15">
+        <v>8.6340000000000003</v>
+      </c>
+      <c r="AL604" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM604" s="14">
+        <v>2.7729999999999997</v>
+      </c>
+      <c r="AN604" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO604" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP604" s="15">
+        <v>35.356999999999999</v>
+      </c>
+      <c r="AQ604" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AR604" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS604" s="14" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="605" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A605" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B605" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C605" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D605" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E605" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G605" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H605" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I605" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M605" s="15"/>
+      <c r="O605" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T605" s="14">
+        <v>4</v>
+      </c>
+      <c r="V605" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W605" s="15">
+        <v>42.091000000000001</v>
+      </c>
+      <c r="X605" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AF605" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG605" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH605" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ605" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK605" s="15">
+        <v>21.744</v>
+      </c>
+      <c r="AL605" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM605" s="14">
+        <v>10.84</v>
+      </c>
+      <c r="AN605" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO605" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP605" s="15">
+        <v>42.091000000000001</v>
+      </c>
+      <c r="AQ605" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AR605" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS605" s="14" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="606" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A606" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B606" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C606" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D606" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E606" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G606" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H606" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I606" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M606" s="15"/>
+      <c r="O606" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T606" s="14">
+        <v>4</v>
+      </c>
+      <c r="V606" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W606" s="15">
+        <v>49.174999999999997</v>
+      </c>
+      <c r="X606" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AF606" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG606" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH606" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ606" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK606" s="15">
+        <v>29.055</v>
+      </c>
+      <c r="AL606" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM606" s="14">
+        <v>9.5799999999999983</v>
+      </c>
+      <c r="AN606" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO606" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP606" s="15">
+        <v>49.174999999999997</v>
+      </c>
+      <c r="AQ606" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AR606" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS606" s="14" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="607" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A607" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B607" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C607" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D607" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E607" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G607" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H607" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I607" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M607" s="15"/>
+      <c r="O607" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T607" s="14">
+        <v>4</v>
+      </c>
+      <c r="V607" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W607" s="15">
+        <v>55.558999999999997</v>
+      </c>
+      <c r="X607" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AF607" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG607" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH607" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ607" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK607" s="15">
+        <v>39.643000000000001</v>
+      </c>
+      <c r="AL607" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM607" s="14">
+        <v>5.2939999999999969</v>
+      </c>
+      <c r="AN607" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO607" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP607" s="15">
+        <v>55.558999999999997</v>
+      </c>
+      <c r="AQ607" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AR607" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS607" s="14" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="608" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B608" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C608" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D608" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E608" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G608" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H608" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I608" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M608" s="15"/>
+      <c r="O608" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T608" s="14">
+        <v>4</v>
+      </c>
+      <c r="V608" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W608" s="15">
+        <v>69.733999999999995</v>
+      </c>
+      <c r="X608" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AF608" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG608" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH608" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ608" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK608" s="15">
+        <v>55.273000000000003</v>
+      </c>
+      <c r="AL608" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM608" s="14">
+        <v>5.7980000000000018</v>
+      </c>
+      <c r="AN608" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO608" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP608" s="15">
+        <v>69.733999999999995</v>
+      </c>
+      <c r="AQ608" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AR608" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS608" s="14" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="609" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A609" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B609" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C609" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D609" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E609" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G609" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H609" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I609" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M609" s="15"/>
+      <c r="O609" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T609" s="14">
+        <v>4</v>
+      </c>
+      <c r="V609" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W609" s="15">
+        <v>83.909000000000006</v>
+      </c>
+      <c r="X609" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AF609" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG609" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH609" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ609" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK609" s="15">
+        <v>55.777000000000001</v>
+      </c>
+      <c r="AL609" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM609" s="14">
+        <v>15.126000000000005</v>
+      </c>
+      <c r="AN609" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO609" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP609" s="15">
+        <v>83.909000000000006</v>
+      </c>
+      <c r="AQ609" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AR609" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS609" s="14" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="610" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A610" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B610" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C610" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D610" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E610" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G610" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H610" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I610" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M610" s="15"/>
+      <c r="O610" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T610" s="14">
+        <v>4</v>
+      </c>
+      <c r="V610" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W610" s="15">
+        <v>97.733999999999995</v>
+      </c>
+      <c r="X610" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AF610" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG610" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH610" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ610" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK610" s="15">
+        <v>65.861000000000004</v>
+      </c>
+      <c r="AL610" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM610" s="14">
+        <v>4.034000000000006</v>
+      </c>
+      <c r="AN610" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO610" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP610" s="15">
+        <v>97.733999999999995</v>
+      </c>
+      <c r="AQ610" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AR610" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS610" s="14" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="611" spans="1:45" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A611" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B611" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C611" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D611" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E611" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G611" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H611" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I611" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M611" s="15"/>
+      <c r="O611" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="T611" s="14">
+        <v>4</v>
+      </c>
+      <c r="V611" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W611" s="15">
+        <v>111.90900000000001</v>
+      </c>
+      <c r="X611" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AF611" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG611" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH611" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AJ611" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK611" s="15">
+        <v>62.835999999999999</v>
+      </c>
+      <c r="AL611" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM611" s="14">
+        <v>5.5459999999999923</v>
+      </c>
+      <c r="AN611" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO611" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP611" s="15">
+        <v>111.90900000000001</v>
+      </c>
+      <c r="AQ611" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AR611" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS611" s="14" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="612" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A612" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B612" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C612" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D612" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E612" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F612" s="14"/>
+      <c r="G612" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H612" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I612" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J612" s="14"/>
+      <c r="K612" s="14"/>
+      <c r="L612" s="14"/>
+      <c r="M612" s="15"/>
+      <c r="N612" s="14"/>
+      <c r="O612" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P612" s="14"/>
+      <c r="Q612" s="14"/>
+      <c r="R612" s="14"/>
+      <c r="S612" s="14"/>
+      <c r="T612" s="14">
+        <v>4</v>
+      </c>
+      <c r="U612" s="14"/>
+      <c r="V612" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W612" s="15">
+        <v>126.09099999999999</v>
+      </c>
+      <c r="X612" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="Y612" s="14"/>
+      <c r="Z612" s="14"/>
+      <c r="AA612" s="14"/>
+      <c r="AB612" s="14"/>
+      <c r="AC612" s="14"/>
+      <c r="AD612" s="14"/>
+      <c r="AE612" s="14"/>
+      <c r="AF612" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG612" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH612" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI612" s="14"/>
+      <c r="AJ612" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK612" s="15">
+        <v>64.600999999999999</v>
+      </c>
+      <c r="AL612" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM612" s="14">
+        <v>5.0420000000000016</v>
+      </c>
+      <c r="AN612" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO612" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP612" s="15">
+        <v>126.09099999999999</v>
+      </c>
+      <c r="AQ612" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AR612" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS612" s="14" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="613" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A613" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B613" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C613" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D613" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E613" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F613" s="14"/>
+      <c r="G613" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H613" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I613" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J613" s="14"/>
+      <c r="K613" s="14"/>
+      <c r="L613" s="14"/>
+      <c r="M613" s="15"/>
+      <c r="N613" s="14"/>
+      <c r="O613" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P613" s="14"/>
+      <c r="Q613" s="14"/>
+      <c r="R613" s="14"/>
+      <c r="S613" s="14"/>
+      <c r="T613" s="14">
+        <v>4</v>
+      </c>
+      <c r="U613" s="14"/>
+      <c r="V613" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W613" s="15">
+        <v>138.495</v>
+      </c>
+      <c r="X613" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="Y613" s="14"/>
+      <c r="Z613" s="14"/>
+      <c r="AA613" s="14"/>
+      <c r="AB613" s="14"/>
+      <c r="AC613" s="14"/>
+      <c r="AD613" s="14"/>
+      <c r="AE613" s="14"/>
+      <c r="AF613" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG613" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH613" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI613" s="14"/>
+      <c r="AJ613" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK613" s="15">
+        <v>67.122</v>
+      </c>
+      <c r="AL613" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM613" s="14">
+        <v>11.092000000000006</v>
+      </c>
+      <c r="AN613" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO613" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP613" s="15">
+        <v>138.495</v>
+      </c>
+      <c r="AQ613" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AR613" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS613" s="14" t="s">
+        <v>1816</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -65783,10 +69426,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -65804,60 +69447,149 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>15.061999999999999</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="B2">
-        <v>19.25</v>
+        <v>3.2770000000000001</v>
       </c>
       <c r="C2">
         <f>B2-A2</f>
-        <v>4.1880000000000006</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4">
+        <v>7.1219999999999999</v>
+      </c>
+      <c r="B3">
+        <v>9.8949999999999996</v>
+      </c>
       <c r="C3">
         <f>B3-A3</f>
-        <v>0</v>
+        <v>2.7729999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4">
+        <v>16.45</v>
+      </c>
+      <c r="B4">
+        <v>27.29</v>
+      </c>
       <c r="C4">
         <f>B4-A4</f>
-        <v>0</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>24.265000000000001</v>
+      </c>
+      <c r="B5">
+        <v>33.844999999999999</v>
+      </c>
       <c r="C5">
         <f>B5-A5</f>
-        <v>0</v>
+        <v>9.5799999999999983</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4">
+        <v>37.122</v>
+      </c>
+      <c r="B6">
+        <v>42.415999999999997</v>
+      </c>
+      <c r="C6">
+        <f>B6-A6</f>
+        <v>5.2939999999999969</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4">
+        <v>52.247999999999998</v>
+      </c>
+      <c r="B7">
+        <v>58.045999999999999</v>
+      </c>
+      <c r="C7">
+        <f>B7-A7</f>
+        <v>5.7980000000000018</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4">
+        <v>48.213999999999999</v>
+      </c>
+      <c r="B8">
+        <v>63.34</v>
+      </c>
+      <c r="C8">
+        <f>B8-A8</f>
+        <v>15.126000000000005</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4">
+        <v>63.591999999999999</v>
+      </c>
+      <c r="B9">
+        <v>67.626000000000005</v>
+      </c>
+      <c r="C9">
+        <f>B9-A9</f>
+        <v>4.034000000000006</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4">
+        <v>60.063000000000002</v>
+      </c>
+      <c r="B10">
+        <v>65.608999999999995</v>
+      </c>
+      <c r="C10">
+        <f>B10-A10</f>
+        <v>5.5459999999999923</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4">
+        <v>62.08</v>
+      </c>
+      <c r="B11">
+        <v>67.122</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C14" si="0">B11-A11</f>
+        <v>5.0420000000000016</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4">
+        <v>61.576000000000001</v>
+      </c>
+      <c r="B12">
+        <v>72.668000000000006</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>11.092000000000006</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/oegres_SC/oegres_SC.xlsx
+++ b/data/oegres_SC/oegres_SC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiacollins/Documents/git/oegres/data/oegres_SC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB6BB2F-DA72-E94F-8F1F-885A920F0753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D2C351-9F78-7447-ADE2-F1F2CCCFF313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="460" windowWidth="23380" windowHeight="14560" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11940" yWindow="460" windowWidth="23380" windowHeight="12920" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12525" uniqueCount="1817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12746" uniqueCount="1818">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5491,6 +5491,9 @@
   </si>
   <si>
     <t>is this acceptable treatment? Where it is germination reccorded during prechilling?</t>
+  </si>
+  <si>
+    <t>when prechilling ends</t>
   </si>
 </sst>
 </file>
@@ -16249,12 +16252,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AS613"/>
+  <dimension ref="A1:AS626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AA618" sqref="AA618"/>
+      <selection pane="bottomLeft" activeCell="AP624" sqref="AP624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69416,6 +69419,1267 @@
       <c r="AS613" s="14" t="s">
         <v>1816</v>
       </c>
+    </row>
+    <row r="614" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A614" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B614" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C614" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D614" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E614" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F614" s="14"/>
+      <c r="G614" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H614" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I614" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J614" s="14"/>
+      <c r="K614" s="14"/>
+      <c r="L614" s="14"/>
+      <c r="M614" s="15"/>
+      <c r="N614" s="14"/>
+      <c r="O614" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P614" s="14"/>
+      <c r="Q614" s="14"/>
+      <c r="R614" s="14"/>
+      <c r="S614" s="14"/>
+      <c r="T614" s="14">
+        <v>4</v>
+      </c>
+      <c r="U614" s="14"/>
+      <c r="V614" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W614" s="15">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="X614" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y614" s="14"/>
+      <c r="Z614" s="14"/>
+      <c r="AA614" s="14"/>
+      <c r="AB614" s="14"/>
+      <c r="AC614" s="14"/>
+      <c r="AD614" s="14"/>
+      <c r="AE614" s="14"/>
+      <c r="AF614" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG614" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH614" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI614" s="14"/>
+      <c r="AJ614" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK614" s="15">
+        <v>49.915999999999997</v>
+      </c>
+      <c r="AL614" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM614" s="14">
+        <v>5.5459999999999994</v>
+      </c>
+      <c r="AN614" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO614" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP614" s="15">
+        <v>30</v>
+      </c>
+      <c r="AQ614" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR614" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS614" s="14"/>
+    </row>
+    <row r="615" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A615" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B615" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C615" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D615" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E615" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F615" s="14"/>
+      <c r="G615" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H615" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I615" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J615" s="14"/>
+      <c r="K615" s="14"/>
+      <c r="L615" s="14"/>
+      <c r="M615" s="15"/>
+      <c r="N615" s="14"/>
+      <c r="O615" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P615" s="14"/>
+      <c r="Q615" s="14"/>
+      <c r="R615" s="14"/>
+      <c r="S615" s="14"/>
+      <c r="T615" s="14">
+        <v>4</v>
+      </c>
+      <c r="U615" s="14"/>
+      <c r="V615" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W615" s="15">
+        <v>13.377000000000001</v>
+      </c>
+      <c r="X615" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y615" s="14"/>
+      <c r="Z615" s="14"/>
+      <c r="AA615" s="14"/>
+      <c r="AB615" s="14"/>
+      <c r="AC615" s="14"/>
+      <c r="AD615" s="14"/>
+      <c r="AE615" s="14"/>
+      <c r="AF615" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG615" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH615" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI615" s="14"/>
+      <c r="AJ615" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK615" s="15">
+        <v>59.811</v>
+      </c>
+      <c r="AL615" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM615" s="14">
+        <v>9.0760000000000005</v>
+      </c>
+      <c r="AN615" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO615" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP615" s="15">
+        <v>30</v>
+      </c>
+      <c r="AQ615" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR615" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS615" s="14"/>
+    </row>
+    <row r="616" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A616" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B616" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C616" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D616" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E616" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F616" s="14"/>
+      <c r="G616" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H616" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I616" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J616" s="14"/>
+      <c r="K616" s="14"/>
+      <c r="L616" s="14"/>
+      <c r="M616" s="15"/>
+      <c r="N616" s="14"/>
+      <c r="O616" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P616" s="14"/>
+      <c r="Q616" s="14"/>
+      <c r="R616" s="14"/>
+      <c r="S616" s="14"/>
+      <c r="T616" s="14">
+        <v>4</v>
+      </c>
+      <c r="U616" s="14"/>
+      <c r="V616" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W616" s="15">
+        <v>27.908999999999999</v>
+      </c>
+      <c r="X616" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y616" s="14"/>
+      <c r="Z616" s="14"/>
+      <c r="AA616" s="14"/>
+      <c r="AB616" s="14"/>
+      <c r="AC616" s="14"/>
+      <c r="AD616" s="14"/>
+      <c r="AE616" s="14"/>
+      <c r="AF616" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG616" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH616" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI616" s="14"/>
+      <c r="AJ616" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK616" s="15">
+        <v>72.164000000000001</v>
+      </c>
+      <c r="AL616" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM616" s="14">
+        <v>6.3019999999999925</v>
+      </c>
+      <c r="AN616" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO616" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP616" s="15">
+        <v>30</v>
+      </c>
+      <c r="AQ616" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR616" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS616" s="14"/>
+    </row>
+    <row r="617" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A617" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B617" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C617" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D617" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E617" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F617" s="14"/>
+      <c r="G617" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H617" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I617" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J617" s="14"/>
+      <c r="K617" s="14"/>
+      <c r="L617" s="14"/>
+      <c r="M617" s="15"/>
+      <c r="N617" s="14"/>
+      <c r="O617" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P617" s="14"/>
+      <c r="Q617" s="14"/>
+      <c r="R617" s="14"/>
+      <c r="S617" s="14"/>
+      <c r="T617" s="14">
+        <v>4</v>
+      </c>
+      <c r="U617" s="14"/>
+      <c r="V617" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W617" s="15">
+        <v>35.356999999999999</v>
+      </c>
+      <c r="X617" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y617" s="14"/>
+      <c r="Z617" s="14"/>
+      <c r="AA617" s="14"/>
+      <c r="AB617" s="14"/>
+      <c r="AC617" s="14"/>
+      <c r="AD617" s="14"/>
+      <c r="AE617" s="14"/>
+      <c r="AF617" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG617" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH617" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI617" s="14"/>
+      <c r="AJ617" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK617" s="15">
+        <v>71.66</v>
+      </c>
+      <c r="AL617" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM617" s="14">
+        <v>7.8160000000000025</v>
+      </c>
+      <c r="AN617" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO617" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP617" s="15">
+        <v>30</v>
+      </c>
+      <c r="AQ617" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR617" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS617" s="14"/>
+    </row>
+    <row r="618" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A618" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B618" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C618" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D618" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E618" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F618" s="14"/>
+      <c r="G618" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H618" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I618" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J618" s="14"/>
+      <c r="K618" s="14"/>
+      <c r="L618" s="14"/>
+      <c r="M618" s="15"/>
+      <c r="N618" s="14"/>
+      <c r="O618" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P618" s="14"/>
+      <c r="Q618" s="14"/>
+      <c r="R618" s="14"/>
+      <c r="S618" s="14"/>
+      <c r="T618" s="14">
+        <v>4</v>
+      </c>
+      <c r="U618" s="14"/>
+      <c r="V618" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W618" s="15">
+        <v>42.091000000000001</v>
+      </c>
+      <c r="X618" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y618" s="14"/>
+      <c r="Z618" s="14"/>
+      <c r="AA618" s="14"/>
+      <c r="AB618" s="14"/>
+      <c r="AC618" s="14"/>
+      <c r="AD618" s="14"/>
+      <c r="AE618" s="14"/>
+      <c r="AF618" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG618" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH618" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI618" s="14"/>
+      <c r="AJ618" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK618" s="15">
+        <v>71.66</v>
+      </c>
+      <c r="AL618" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM618" s="14">
+        <v>11.847999999999999</v>
+      </c>
+      <c r="AN618" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO618" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP618" s="15">
+        <v>30</v>
+      </c>
+      <c r="AQ618" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR618" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS618" s="14"/>
+    </row>
+    <row r="619" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A619" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B619" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C619" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D619" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E619" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F619" s="14"/>
+      <c r="G619" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H619" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I619" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J619" s="14"/>
+      <c r="K619" s="14"/>
+      <c r="L619" s="14"/>
+      <c r="M619" s="15"/>
+      <c r="N619" s="14"/>
+      <c r="O619" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P619" s="14"/>
+      <c r="Q619" s="14"/>
+      <c r="R619" s="14"/>
+      <c r="S619" s="14"/>
+      <c r="T619" s="14">
+        <v>4</v>
+      </c>
+      <c r="U619" s="14"/>
+      <c r="V619" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W619" s="15">
+        <v>49.174999999999997</v>
+      </c>
+      <c r="X619" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y619" s="14"/>
+      <c r="Z619" s="14"/>
+      <c r="AA619" s="14"/>
+      <c r="AB619" s="14"/>
+      <c r="AC619" s="14"/>
+      <c r="AD619" s="14"/>
+      <c r="AE619" s="14"/>
+      <c r="AF619" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG619" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH619" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI619" s="14"/>
+      <c r="AJ619" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK619" s="15">
+        <v>76.953999999999994</v>
+      </c>
+      <c r="AL619" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM619" s="14">
+        <v>6.5539999999999878</v>
+      </c>
+      <c r="AN619" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO619" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP619" s="15">
+        <v>30</v>
+      </c>
+      <c r="AQ619" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR619" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS619" s="14"/>
+    </row>
+    <row r="620" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A620" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B620" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C620" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D620" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E620" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F620" s="14"/>
+      <c r="G620" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H620" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I620" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J620" s="14"/>
+      <c r="K620" s="14"/>
+      <c r="L620" s="14"/>
+      <c r="M620" s="15"/>
+      <c r="N620" s="14"/>
+      <c r="O620" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P620" s="14"/>
+      <c r="Q620" s="14"/>
+      <c r="R620" s="14"/>
+      <c r="S620" s="14"/>
+      <c r="T620" s="14">
+        <v>4</v>
+      </c>
+      <c r="U620" s="14"/>
+      <c r="V620" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W620" s="15">
+        <v>55.558999999999997</v>
+      </c>
+      <c r="X620" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y620" s="14"/>
+      <c r="Z620" s="14"/>
+      <c r="AA620" s="14"/>
+      <c r="AB620" s="14"/>
+      <c r="AC620" s="14"/>
+      <c r="AD620" s="14"/>
+      <c r="AE620" s="14"/>
+      <c r="AF620" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG620" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH620" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI620" s="14"/>
+      <c r="AJ620" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK620" s="15">
+        <v>79.474999999999994</v>
+      </c>
+      <c r="AL620" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM620" s="14">
+        <v>7.311000000000007</v>
+      </c>
+      <c r="AN620" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO620" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP620" s="15">
+        <v>30</v>
+      </c>
+      <c r="AQ620" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR620" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS620" s="14"/>
+    </row>
+    <row r="621" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A621" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B621" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C621" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D621" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E621" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F621" s="14"/>
+      <c r="G621" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H621" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I621" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J621" s="14"/>
+      <c r="K621" s="14"/>
+      <c r="L621" s="14"/>
+      <c r="M621" s="15"/>
+      <c r="N621" s="14"/>
+      <c r="O621" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P621" s="14"/>
+      <c r="Q621" s="14"/>
+      <c r="R621" s="14"/>
+      <c r="S621" s="14"/>
+      <c r="T621" s="14">
+        <v>4</v>
+      </c>
+      <c r="U621" s="14"/>
+      <c r="V621" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W621" s="15">
+        <v>69.733999999999995</v>
+      </c>
+      <c r="X621" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y621" s="14"/>
+      <c r="Z621" s="14"/>
+      <c r="AA621" s="14"/>
+      <c r="AB621" s="14"/>
+      <c r="AC621" s="14"/>
+      <c r="AD621" s="14"/>
+      <c r="AE621" s="14"/>
+      <c r="AF621" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG621" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH621" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI621" s="14"/>
+      <c r="AJ621" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK621" s="15">
+        <v>79.727000000000004</v>
+      </c>
+      <c r="AL621" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM621" s="14">
+        <v>1.0079999999999956</v>
+      </c>
+      <c r="AN621" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO621" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP621" s="15">
+        <v>30</v>
+      </c>
+      <c r="AQ621" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR621" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS621" s="14"/>
+    </row>
+    <row r="622" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A622" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B622" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C622" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D622" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E622" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F622" s="14"/>
+      <c r="G622" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H622" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I622" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J622" s="14"/>
+      <c r="K622" s="14"/>
+      <c r="L622" s="14"/>
+      <c r="M622" s="15"/>
+      <c r="N622" s="14"/>
+      <c r="O622" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P622" s="14"/>
+      <c r="Q622" s="14"/>
+      <c r="R622" s="14"/>
+      <c r="S622" s="14"/>
+      <c r="T622" s="14">
+        <v>4</v>
+      </c>
+      <c r="U622" s="14"/>
+      <c r="V622" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W622" s="15">
+        <v>83.909000000000006</v>
+      </c>
+      <c r="X622" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y622" s="14"/>
+      <c r="Z622" s="14"/>
+      <c r="AA622" s="14"/>
+      <c r="AB622" s="14"/>
+      <c r="AC622" s="14"/>
+      <c r="AD622" s="14"/>
+      <c r="AE622" s="14"/>
+      <c r="AF622" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG622" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH622" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI622" s="14"/>
+      <c r="AJ622" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK622" s="15">
+        <v>73.171999999999997</v>
+      </c>
+      <c r="AL622" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM622" s="14">
+        <v>11.596999999999994</v>
+      </c>
+      <c r="AN622" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO622" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP622" s="15">
+        <v>30</v>
+      </c>
+      <c r="AQ622" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR622" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS622" s="14"/>
+    </row>
+    <row r="623" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A623" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B623" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C623" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D623" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E623" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F623" s="14"/>
+      <c r="G623" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H623" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I623" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J623" s="14"/>
+      <c r="K623" s="14"/>
+      <c r="L623" s="14"/>
+      <c r="M623" s="15"/>
+      <c r="N623" s="14"/>
+      <c r="O623" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P623" s="14"/>
+      <c r="Q623" s="14"/>
+      <c r="R623" s="14"/>
+      <c r="S623" s="14"/>
+      <c r="T623" s="14">
+        <v>4</v>
+      </c>
+      <c r="U623" s="14"/>
+      <c r="V623" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W623" s="15">
+        <v>97.733999999999995</v>
+      </c>
+      <c r="X623" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y623" s="14"/>
+      <c r="Z623" s="14"/>
+      <c r="AA623" s="14"/>
+      <c r="AB623" s="14"/>
+      <c r="AC623" s="14"/>
+      <c r="AD623" s="14"/>
+      <c r="AE623" s="14"/>
+      <c r="AF623" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG623" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH623" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI623" s="14"/>
+      <c r="AJ623" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK623" s="15">
+        <v>81.744</v>
+      </c>
+      <c r="AL623" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM623" s="14">
+        <v>8.0680000000000121</v>
+      </c>
+      <c r="AN623" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO623" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP623" s="15">
+        <v>30</v>
+      </c>
+      <c r="AQ623" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR623" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS623" s="14"/>
+    </row>
+    <row r="624" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A624" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B624" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C624" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D624" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E624" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F624" s="14"/>
+      <c r="G624" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H624" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I624" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J624" s="14"/>
+      <c r="K624" s="14"/>
+      <c r="L624" s="14"/>
+      <c r="M624" s="15"/>
+      <c r="N624" s="14"/>
+      <c r="O624" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P624" s="14"/>
+      <c r="Q624" s="14"/>
+      <c r="R624" s="14"/>
+      <c r="S624" s="14"/>
+      <c r="T624" s="14">
+        <v>4</v>
+      </c>
+      <c r="U624" s="14"/>
+      <c r="V624" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W624" s="15">
+        <v>111.90900000000001</v>
+      </c>
+      <c r="X624" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y624" s="14"/>
+      <c r="Z624" s="14"/>
+      <c r="AA624" s="14"/>
+      <c r="AB624" s="14"/>
+      <c r="AC624" s="14"/>
+      <c r="AD624" s="14"/>
+      <c r="AE624" s="14"/>
+      <c r="AF624" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG624" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH624" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI624" s="14"/>
+      <c r="AJ624" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK624" s="15">
+        <v>76.953999999999994</v>
+      </c>
+      <c r="AL624" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM624" s="14">
+        <v>6.3019999999999925</v>
+      </c>
+      <c r="AN624" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO624" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP624" s="15">
+        <v>30</v>
+      </c>
+      <c r="AQ624" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR624" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS624" s="14"/>
+    </row>
+    <row r="625" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A625" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B625" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C625" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D625" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E625" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F625" s="14"/>
+      <c r="G625" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H625" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I625" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J625" s="14"/>
+      <c r="K625" s="14"/>
+      <c r="L625" s="14"/>
+      <c r="M625" s="15"/>
+      <c r="N625" s="14"/>
+      <c r="O625" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P625" s="14"/>
+      <c r="Q625" s="14"/>
+      <c r="R625" s="14"/>
+      <c r="S625" s="14"/>
+      <c r="T625" s="14">
+        <v>4</v>
+      </c>
+      <c r="U625" s="14"/>
+      <c r="V625" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W625" s="15">
+        <v>126.09099999999999</v>
+      </c>
+      <c r="X625" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y625" s="14"/>
+      <c r="Z625" s="14"/>
+      <c r="AA625" s="14"/>
+      <c r="AB625" s="14"/>
+      <c r="AC625" s="14"/>
+      <c r="AD625" s="14"/>
+      <c r="AE625" s="14"/>
+      <c r="AF625" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG625" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH625" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI625" s="14"/>
+      <c r="AJ625" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK625" s="15">
+        <v>81.239000000000004</v>
+      </c>
+      <c r="AL625" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM625" s="14">
+        <v>8.0670000000000073</v>
+      </c>
+      <c r="AN625" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO625" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP625" s="15">
+        <v>30</v>
+      </c>
+      <c r="AQ625" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR625" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS625" s="14"/>
+    </row>
+    <row r="626" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A626" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B626" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C626" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D626" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E626" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F626" s="14"/>
+      <c r="G626" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H626" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I626" s="15" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J626" s="14"/>
+      <c r="K626" s="14"/>
+      <c r="L626" s="14"/>
+      <c r="M626" s="15"/>
+      <c r="N626" s="14"/>
+      <c r="O626" s="18" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P626" s="14"/>
+      <c r="Q626" s="14"/>
+      <c r="R626" s="14"/>
+      <c r="S626" s="14"/>
+      <c r="T626" s="14">
+        <v>4</v>
+      </c>
+      <c r="U626" s="14"/>
+      <c r="V626" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="W626" s="15">
+        <v>138.495</v>
+      </c>
+      <c r="X626" s="12" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y626" s="14"/>
+      <c r="Z626" s="14"/>
+      <c r="AA626" s="14"/>
+      <c r="AB626" s="14"/>
+      <c r="AC626" s="14"/>
+      <c r="AD626" s="14"/>
+      <c r="AE626" s="14"/>
+      <c r="AF626" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG626" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AH626" s="14">
+        <v>1440</v>
+      </c>
+      <c r="AI626" s="14"/>
+      <c r="AJ626" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK626" s="15">
+        <v>79.474999999999994</v>
+      </c>
+      <c r="AL626" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="AM626" s="14">
+        <v>10.587999999999994</v>
+      </c>
+      <c r="AN626" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO626" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP626" s="15">
+        <v>30</v>
+      </c>
+      <c r="AQ626" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR626" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AS626" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -69429,7 +70693,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69447,148 +70711,158 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>0.56699999999999995</v>
+        <v>47.962000000000003</v>
       </c>
       <c r="B2">
-        <v>3.2770000000000001</v>
+        <v>53.508000000000003</v>
       </c>
       <c r="C2">
         <f>B2-A2</f>
-        <v>2.71</v>
+        <v>5.5459999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>7.1219999999999999</v>
+        <v>56.029000000000003</v>
       </c>
       <c r="B3">
-        <v>9.8949999999999996</v>
+        <v>65.105000000000004</v>
       </c>
       <c r="C3">
         <f>B3-A3</f>
-        <v>2.7729999999999997</v>
+        <v>9.0760000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>16.45</v>
+        <v>69.643000000000001</v>
       </c>
       <c r="B4">
-        <v>27.29</v>
+        <v>75.944999999999993</v>
       </c>
       <c r="C4">
         <f>B4-A4</f>
-        <v>10.84</v>
+        <v>6.3019999999999925</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>24.265000000000001</v>
+        <v>68.634</v>
       </c>
       <c r="B5">
-        <v>33.844999999999999</v>
+        <v>76.45</v>
       </c>
       <c r="C5">
         <f>B5-A5</f>
-        <v>9.5799999999999983</v>
+        <v>7.8160000000000025</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>37.122</v>
+        <v>66.617999999999995</v>
       </c>
       <c r="B6">
-        <v>42.415999999999997</v>
+        <v>78.465999999999994</v>
       </c>
       <c r="C6">
         <f>B6-A6</f>
-        <v>5.2939999999999969</v>
+        <v>11.847999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>52.247999999999998</v>
+        <v>74.433000000000007</v>
       </c>
       <c r="B7">
-        <v>58.045999999999999</v>
+        <v>80.986999999999995</v>
       </c>
       <c r="C7">
         <f>B7-A7</f>
-        <v>5.7980000000000018</v>
+        <v>6.5539999999999878</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>48.213999999999999</v>
+        <v>76.701999999999998</v>
       </c>
       <c r="B8">
-        <v>63.34</v>
+        <v>84.013000000000005</v>
       </c>
       <c r="C8">
         <f>B8-A8</f>
-        <v>15.126000000000005</v>
+        <v>7.311000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>63.591999999999999</v>
+        <v>79.727000000000004</v>
       </c>
       <c r="B9">
-        <v>67.626000000000005</v>
+        <v>80.734999999999999</v>
       </c>
       <c r="C9">
         <f>B9-A9</f>
-        <v>4.034000000000006</v>
+        <v>1.0079999999999956</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>60.063000000000002</v>
+        <v>68.382000000000005</v>
       </c>
       <c r="B10">
-        <v>65.608999999999995</v>
+        <v>79.978999999999999</v>
       </c>
       <c r="C10">
         <f>B10-A10</f>
-        <v>5.5459999999999923</v>
+        <v>11.596999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>62.08</v>
+        <v>78.465999999999994</v>
       </c>
       <c r="B11">
-        <v>67.122</v>
+        <v>86.534000000000006</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C14" si="0">B11-A11</f>
-        <v>5.0420000000000016</v>
+        <v>8.0680000000000121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>61.576000000000001</v>
+        <v>74.433000000000007</v>
       </c>
       <c r="B12">
-        <v>72.668000000000006</v>
+        <v>80.734999999999999</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>11.092000000000006</v>
+        <v>6.3019999999999925</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4">
+        <v>77.709999999999994</v>
+      </c>
+      <c r="B13">
+        <v>85.777000000000001</v>
+      </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.0670000000000073</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4">
+        <v>74.685000000000002</v>
+      </c>
+      <c r="B14">
+        <v>85.272999999999996</v>
+      </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.587999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/data/oegres_SC/oegres_SC.xlsx
+++ b/data/oegres_SC/oegres_SC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiacollins/Documents/git/oegres/data/oegres_SC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07EA263-7348-BA46-B12C-912CAA531A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86552A6B-9516-8649-8C2D-95DA98691946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="460" windowWidth="23380" windowHeight="15580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11940" yWindow="460" windowWidth="23380" windowHeight="15580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17889" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18057" uniqueCount="1849">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5578,6 +5578,15 @@
   </si>
   <si>
     <t xml:space="preserve">Figure 5 </t>
+  </si>
+  <si>
+    <t>kinetin</t>
+  </si>
+  <si>
+    <t>dark, kinetin@20ppm</t>
+  </si>
+  <si>
+    <t>dark, kinetin@10ppm</t>
   </si>
 </sst>
 </file>
@@ -16357,12 +16366,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AS874"/>
+  <dimension ref="A1:AS882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A853" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A875" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AM859" sqref="AM859"/>
+      <selection pane="bottomLeft" activeCell="AN884" sqref="AN884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -94123,6 +94132,798 @@
         <v>1813</v>
       </c>
       <c r="AR874" s="15" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="875" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B875" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C875" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D875" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E875" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F875" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G875" s="15" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H875" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I875" s="16" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M875" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O875">
+        <v>2011</v>
+      </c>
+      <c r="R875">
+        <v>30</v>
+      </c>
+      <c r="T875" t="s">
+        <v>1842</v>
+      </c>
+      <c r="U875" t="s">
+        <v>95</v>
+      </c>
+      <c r="V875" s="9" t="s">
+        <v>1842</v>
+      </c>
+      <c r="W875">
+        <v>70</v>
+      </c>
+      <c r="X875" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y875" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Z875">
+        <v>0</v>
+      </c>
+      <c r="AA875" t="s">
+        <v>1846</v>
+      </c>
+      <c r="AB875">
+        <v>10</v>
+      </c>
+      <c r="AC875">
+        <v>1</v>
+      </c>
+      <c r="AF875" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG875" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AH875">
+        <v>10</v>
+      </c>
+      <c r="AJ875" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK875" s="15">
+        <v>50</v>
+      </c>
+      <c r="AL875" s="14"/>
+      <c r="AN875" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO875" s="15">
+        <v>50</v>
+      </c>
+      <c r="AP875" s="15">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AQ875" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR875" s="15" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="876" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B876" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C876" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E876" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F876" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G876" s="15" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H876" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I876" s="16" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M876" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O876">
+        <v>2011</v>
+      </c>
+      <c r="R876">
+        <v>30</v>
+      </c>
+      <c r="T876" t="s">
+        <v>1842</v>
+      </c>
+      <c r="U876" t="s">
+        <v>95</v>
+      </c>
+      <c r="V876" s="9" t="s">
+        <v>1842</v>
+      </c>
+      <c r="W876">
+        <v>70</v>
+      </c>
+      <c r="X876" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y876" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Z876">
+        <v>0</v>
+      </c>
+      <c r="AA876" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB876">
+        <v>100</v>
+      </c>
+      <c r="AC876">
+        <v>1</v>
+      </c>
+      <c r="AF876" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG876" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AH876">
+        <v>10</v>
+      </c>
+      <c r="AJ876" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK876" s="15">
+        <v>50</v>
+      </c>
+      <c r="AL876" s="14"/>
+      <c r="AN876" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO876" s="15">
+        <v>50</v>
+      </c>
+      <c r="AP876" s="15">
+        <v>20</v>
+      </c>
+      <c r="AQ876" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR876" s="15" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="877" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B877" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C877" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D877" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E877" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F877" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G877" s="15" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H877" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I877" s="16" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M877" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O877">
+        <v>2011</v>
+      </c>
+      <c r="R877">
+        <v>30</v>
+      </c>
+      <c r="T877" t="s">
+        <v>1842</v>
+      </c>
+      <c r="U877" t="s">
+        <v>95</v>
+      </c>
+      <c r="V877" s="9" t="s">
+        <v>1842</v>
+      </c>
+      <c r="W877">
+        <v>70</v>
+      </c>
+      <c r="X877" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y877" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Z877">
+        <v>0</v>
+      </c>
+      <c r="AA877" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB877">
+        <v>100</v>
+      </c>
+      <c r="AC877">
+        <v>1</v>
+      </c>
+      <c r="AF877" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG877" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AH877">
+        <v>10</v>
+      </c>
+      <c r="AJ877" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK877" s="15">
+        <v>50</v>
+      </c>
+      <c r="AL877" s="14"/>
+      <c r="AN877" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO877" s="15">
+        <v>50</v>
+      </c>
+      <c r="AP877" s="15">
+        <v>17.5</v>
+      </c>
+      <c r="AQ877" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR877" s="15" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="878" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B878" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C878" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D878" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E878" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F878" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G878" s="15" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H878" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I878" s="16" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M878" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O878">
+        <v>2011</v>
+      </c>
+      <c r="R878">
+        <v>30</v>
+      </c>
+      <c r="T878" t="s">
+        <v>1842</v>
+      </c>
+      <c r="U878" t="s">
+        <v>95</v>
+      </c>
+      <c r="V878" s="9" t="s">
+        <v>1842</v>
+      </c>
+      <c r="W878">
+        <v>70</v>
+      </c>
+      <c r="X878" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y878" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Z878">
+        <v>0</v>
+      </c>
+      <c r="AA878" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB878">
+        <v>200</v>
+      </c>
+      <c r="AC878">
+        <v>1</v>
+      </c>
+      <c r="AF878" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG878" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AH878">
+        <v>10</v>
+      </c>
+      <c r="AJ878" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK878" s="15">
+        <v>50</v>
+      </c>
+      <c r="AL878" s="14"/>
+      <c r="AN878" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO878" s="15">
+        <v>50</v>
+      </c>
+      <c r="AP878" s="15">
+        <v>18.5</v>
+      </c>
+      <c r="AQ878" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR878" s="15" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="879" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B879" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C879" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E879" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F879" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G879" s="15" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H879" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I879" s="16" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M879" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O879">
+        <v>2011</v>
+      </c>
+      <c r="R879">
+        <v>30</v>
+      </c>
+      <c r="T879" t="s">
+        <v>1842</v>
+      </c>
+      <c r="U879" t="s">
+        <v>95</v>
+      </c>
+      <c r="V879" s="9" t="s">
+        <v>1842</v>
+      </c>
+      <c r="W879">
+        <v>70</v>
+      </c>
+      <c r="X879" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y879" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Z879">
+        <v>0</v>
+      </c>
+      <c r="AA879" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB879">
+        <v>200</v>
+      </c>
+      <c r="AC879">
+        <v>1</v>
+      </c>
+      <c r="AF879" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG879" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AH879">
+        <v>10</v>
+      </c>
+      <c r="AJ879" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK879" s="15">
+        <v>50</v>
+      </c>
+      <c r="AL879" s="14"/>
+      <c r="AN879" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO879" s="15">
+        <v>50</v>
+      </c>
+      <c r="AP879" s="15">
+        <v>11.3</v>
+      </c>
+      <c r="AQ879" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR879" s="15" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="880" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B880" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C880" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D880" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E880" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F880" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G880" s="15" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H880" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I880" s="16" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M880" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O880">
+        <v>2011</v>
+      </c>
+      <c r="R880">
+        <v>30</v>
+      </c>
+      <c r="T880" t="s">
+        <v>1842</v>
+      </c>
+      <c r="U880" t="s">
+        <v>95</v>
+      </c>
+      <c r="V880" s="9" t="s">
+        <v>1842</v>
+      </c>
+      <c r="W880">
+        <v>70</v>
+      </c>
+      <c r="X880" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y880" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Z880">
+        <v>0</v>
+      </c>
+      <c r="AA880" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB880">
+        <v>500</v>
+      </c>
+      <c r="AC880">
+        <v>1</v>
+      </c>
+      <c r="AF880" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG880" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AH880">
+        <v>10</v>
+      </c>
+      <c r="AJ880" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK880" s="15">
+        <v>50</v>
+      </c>
+      <c r="AL880" s="14"/>
+      <c r="AN880" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO880" s="15">
+        <v>50</v>
+      </c>
+      <c r="AP880" s="15">
+        <v>39</v>
+      </c>
+      <c r="AQ880" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR880" s="15" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="881" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B881" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C881" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E881" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F881" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G881" s="15" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H881" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I881" s="16" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M881" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O881">
+        <v>2011</v>
+      </c>
+      <c r="R881">
+        <v>30</v>
+      </c>
+      <c r="T881" t="s">
+        <v>1842</v>
+      </c>
+      <c r="U881" t="s">
+        <v>95</v>
+      </c>
+      <c r="V881" s="9" t="s">
+        <v>1842</v>
+      </c>
+      <c r="W881">
+        <v>70</v>
+      </c>
+      <c r="X881" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y881" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Z881">
+        <v>0</v>
+      </c>
+      <c r="AA881" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB881">
+        <v>500</v>
+      </c>
+      <c r="AC881">
+        <v>1</v>
+      </c>
+      <c r="AF881" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG881" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AH881">
+        <v>10</v>
+      </c>
+      <c r="AJ881" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK881" s="15">
+        <v>50</v>
+      </c>
+      <c r="AL881" s="14"/>
+      <c r="AN881" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO881" s="15">
+        <v>50</v>
+      </c>
+      <c r="AP881" s="15">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AQ881" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR881" s="15" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="882" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B882" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C882" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D882" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E882" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F882" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G882" s="15" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H882" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I882" s="16" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M882" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O882">
+        <v>2011</v>
+      </c>
+      <c r="R882">
+        <v>30</v>
+      </c>
+      <c r="T882" t="s">
+        <v>1842</v>
+      </c>
+      <c r="U882" t="s">
+        <v>95</v>
+      </c>
+      <c r="V882" s="9" t="s">
+        <v>1842</v>
+      </c>
+      <c r="W882">
+        <v>70</v>
+      </c>
+      <c r="X882" s="9" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Y882" t="s">
+        <v>1847</v>
+      </c>
+      <c r="Z882">
+        <v>0</v>
+      </c>
+      <c r="AA882" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB882">
+        <v>500</v>
+      </c>
+      <c r="AC882">
+        <v>1</v>
+      </c>
+      <c r="AF882" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG882" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AH882">
+        <v>10</v>
+      </c>
+      <c r="AJ882" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK882" s="15">
+        <v>50</v>
+      </c>
+      <c r="AL882" s="14"/>
+      <c r="AN882" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO882" s="15">
+        <v>50</v>
+      </c>
+      <c r="AP882" s="15">
+        <v>53</v>
+      </c>
+      <c r="AQ882" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR882" s="15" t="s">
         <v>1845</v>
       </c>
     </row>

--- a/data/oegres_SC/oegres_SC.xlsx
+++ b/data/oegres_SC/oegres_SC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiacollins/Documents/git/oegres/data/oegres_SC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86552A6B-9516-8649-8C2D-95DA98691946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2D58F8-4269-2644-913B-E8A28486DA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="460" windowWidth="23380" windowHeight="15580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14840" yWindow="460" windowWidth="23380" windowHeight="15580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18057" uniqueCount="1849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18348" uniqueCount="1855">
   <si>
     <t>Germination Review Meta-analysis</t>
   </si>
@@ -5587,6 +5587,24 @@
   </si>
   <si>
     <t>dark, kinetin@10ppm</t>
+  </si>
+  <si>
+    <t>Zagros Mountain, Delfan, Iran</t>
+  </si>
+  <si>
+    <t>not specified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when chilling begins </t>
+  </si>
+  <si>
+    <t>cold stratification + cold water</t>
+  </si>
+  <si>
+    <t>cool water</t>
+  </si>
+  <si>
+    <t>cold stratification + chemical</t>
   </si>
 </sst>
 </file>
@@ -6583,8 +6601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="S175" workbookViewId="0">
-      <selection activeCell="U190" sqref="U190"/>
+    <sheetView topLeftCell="D169" workbookViewId="0">
+      <selection activeCell="I193" sqref="I193:J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16040,6 +16058,9 @@
       <c r="K191" t="s">
         <v>146</v>
       </c>
+      <c r="N191" t="s">
+        <v>1814</v>
+      </c>
       <c r="Q191" t="s">
         <v>453</v>
       </c>
@@ -16366,12 +16387,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AS882"/>
+  <dimension ref="A1:AS885"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A875" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A878" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AN884" sqref="AN884"/>
+      <selection pane="bottomLeft" activeCell="AR888" sqref="AR888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -75140,6 +75161,9 @@
       <c r="AH674">
         <v>10</v>
       </c>
+      <c r="AI674" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ674" s="15" t="s">
         <v>1674</v>
       </c>
@@ -75235,6 +75259,9 @@
       <c r="AH675">
         <v>10</v>
       </c>
+      <c r="AI675" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ675" s="15" t="s">
         <v>1674</v>
       </c>
@@ -75330,6 +75357,9 @@
       <c r="AH676">
         <v>10</v>
       </c>
+      <c r="AI676" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ676" s="15" t="s">
         <v>1674</v>
       </c>
@@ -75425,6 +75455,9 @@
       <c r="AH677">
         <v>10</v>
       </c>
+      <c r="AI677" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ677" s="15" t="s">
         <v>1674</v>
       </c>
@@ -75520,6 +75553,9 @@
       <c r="AH678">
         <v>10</v>
       </c>
+      <c r="AI678" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ678" s="15" t="s">
         <v>1674</v>
       </c>
@@ -75615,6 +75651,9 @@
       <c r="AH679">
         <v>10</v>
       </c>
+      <c r="AI679" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ679" s="15" t="s">
         <v>1674</v>
       </c>
@@ -75710,6 +75749,9 @@
       <c r="AH680">
         <v>10</v>
       </c>
+      <c r="AI680" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ680" s="15" t="s">
         <v>1674</v>
       </c>
@@ -75805,6 +75847,9 @@
       <c r="AH681">
         <v>10</v>
       </c>
+      <c r="AI681" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ681" s="15" t="s">
         <v>1674</v>
       </c>
@@ -75900,6 +75945,9 @@
       <c r="AH682">
         <v>10</v>
       </c>
+      <c r="AI682" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ682" s="15" t="s">
         <v>1674</v>
       </c>
@@ -75995,6 +76043,9 @@
       <c r="AH683">
         <v>10</v>
       </c>
+      <c r="AI683" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ683" s="15" t="s">
         <v>1674</v>
       </c>
@@ -76090,6 +76141,9 @@
       <c r="AH684">
         <v>10</v>
       </c>
+      <c r="AI684" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ684" s="15" t="s">
         <v>1674</v>
       </c>
@@ -76185,6 +76239,9 @@
       <c r="AH685">
         <v>10</v>
       </c>
+      <c r="AI685" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ685" s="15" t="s">
         <v>1674</v>
       </c>
@@ -76280,6 +76337,9 @@
       <c r="AH686">
         <v>10</v>
       </c>
+      <c r="AI686" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ686" s="15" t="s">
         <v>1674</v>
       </c>
@@ -76375,6 +76435,9 @@
       <c r="AH687">
         <v>10</v>
       </c>
+      <c r="AI687" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ687" s="15" t="s">
         <v>1674</v>
       </c>
@@ -76470,6 +76533,9 @@
       <c r="AH688">
         <v>10</v>
       </c>
+      <c r="AI688" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ688" s="15" t="s">
         <v>1674</v>
       </c>
@@ -76565,6 +76631,9 @@
       <c r="AH689">
         <v>10</v>
       </c>
+      <c r="AI689" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ689" s="15" t="s">
         <v>1674</v>
       </c>
@@ -76660,6 +76729,9 @@
       <c r="AH690">
         <v>10</v>
       </c>
+      <c r="AI690" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ690" s="15" t="s">
         <v>1674</v>
       </c>
@@ -76755,6 +76827,9 @@
       <c r="AH691">
         <v>10</v>
       </c>
+      <c r="AI691" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ691" s="15" t="s">
         <v>1674</v>
       </c>
@@ -76850,6 +76925,9 @@
       <c r="AH692">
         <v>10</v>
       </c>
+      <c r="AI692" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ692" s="15" t="s">
         <v>1674</v>
       </c>
@@ -76945,6 +77023,9 @@
       <c r="AH693">
         <v>10</v>
       </c>
+      <c r="AI693" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ693" s="15" t="s">
         <v>1674</v>
       </c>
@@ -77040,6 +77121,9 @@
       <c r="AH694">
         <v>10</v>
       </c>
+      <c r="AI694" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ694" s="15" t="s">
         <v>1674</v>
       </c>
@@ -77135,6 +77219,9 @@
       <c r="AH695">
         <v>10</v>
       </c>
+      <c r="AI695" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ695" s="15" t="s">
         <v>1674</v>
       </c>
@@ -77230,6 +77317,9 @@
       <c r="AH696">
         <v>10</v>
       </c>
+      <c r="AI696" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ696" s="15" t="s">
         <v>1674</v>
       </c>
@@ -77325,6 +77415,9 @@
       <c r="AH697">
         <v>10</v>
       </c>
+      <c r="AI697" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ697" s="15" t="s">
         <v>1674</v>
       </c>
@@ -77420,6 +77513,9 @@
       <c r="AH698">
         <v>10</v>
       </c>
+      <c r="AI698" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ698" s="15" t="s">
         <v>1674</v>
       </c>
@@ -77515,6 +77611,9 @@
       <c r="AH699">
         <v>10</v>
       </c>
+      <c r="AI699" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ699" s="15" t="s">
         <v>1674</v>
       </c>
@@ -77610,6 +77709,9 @@
       <c r="AH700">
         <v>10</v>
       </c>
+      <c r="AI700" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ700" s="15" t="s">
         <v>1674</v>
       </c>
@@ -77705,6 +77807,9 @@
       <c r="AH701">
         <v>10</v>
       </c>
+      <c r="AI701" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ701" s="15" t="s">
         <v>1674</v>
       </c>
@@ -77800,6 +77905,9 @@
       <c r="AH702">
         <v>10</v>
       </c>
+      <c r="AI702" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ702" s="15" t="s">
         <v>1674</v>
       </c>
@@ -77895,6 +78003,9 @@
       <c r="AH703">
         <v>10</v>
       </c>
+      <c r="AI703" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ703" s="15" t="s">
         <v>1674</v>
       </c>
@@ -77990,6 +78101,9 @@
       <c r="AH704">
         <v>10</v>
       </c>
+      <c r="AI704" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ704" s="15" t="s">
         <v>1674</v>
       </c>
@@ -78085,6 +78199,9 @@
       <c r="AH705">
         <v>10</v>
       </c>
+      <c r="AI705" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ705" s="15" t="s">
         <v>1674</v>
       </c>
@@ -78180,6 +78297,9 @@
       <c r="AH706">
         <v>10</v>
       </c>
+      <c r="AI706" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ706" s="15" t="s">
         <v>1674</v>
       </c>
@@ -78275,6 +78395,9 @@
       <c r="AH707">
         <v>10</v>
       </c>
+      <c r="AI707" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ707" s="15" t="s">
         <v>1674</v>
       </c>
@@ -78370,6 +78493,9 @@
       <c r="AH708">
         <v>10</v>
       </c>
+      <c r="AI708" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ708" s="15" t="s">
         <v>1674</v>
       </c>
@@ -78465,6 +78591,9 @@
       <c r="AH709">
         <v>10</v>
       </c>
+      <c r="AI709" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ709" s="15" t="s">
         <v>1674</v>
       </c>
@@ -78560,6 +78689,9 @@
       <c r="AH710">
         <v>10</v>
       </c>
+      <c r="AI710" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ710" s="15" t="s">
         <v>1674</v>
       </c>
@@ -78655,6 +78787,9 @@
       <c r="AH711">
         <v>10</v>
       </c>
+      <c r="AI711" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ711" s="15" t="s">
         <v>1674</v>
       </c>
@@ -78750,6 +78885,9 @@
       <c r="AH712">
         <v>10</v>
       </c>
+      <c r="AI712" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ712" s="15" t="s">
         <v>1674</v>
       </c>
@@ -78845,6 +78983,9 @@
       <c r="AH713">
         <v>10</v>
       </c>
+      <c r="AI713" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ713" s="15" t="s">
         <v>1674</v>
       </c>
@@ -78940,6 +79081,9 @@
       <c r="AH714">
         <v>10</v>
       </c>
+      <c r="AI714" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ714" s="15" t="s">
         <v>1674</v>
       </c>
@@ -79035,6 +79179,9 @@
       <c r="AH715">
         <v>10</v>
       </c>
+      <c r="AI715" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ715" s="15" t="s">
         <v>1674</v>
       </c>
@@ -79130,6 +79277,9 @@
       <c r="AH716">
         <v>10</v>
       </c>
+      <c r="AI716" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ716" s="15" t="s">
         <v>1674</v>
       </c>
@@ -79225,6 +79375,9 @@
       <c r="AH717">
         <v>10</v>
       </c>
+      <c r="AI717" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ717" s="15" t="s">
         <v>1674</v>
       </c>
@@ -79320,6 +79473,9 @@
       <c r="AH718">
         <v>10</v>
       </c>
+      <c r="AI718" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ718" s="15" t="s">
         <v>1674</v>
       </c>
@@ -79415,6 +79571,9 @@
       <c r="AH719">
         <v>10</v>
       </c>
+      <c r="AI719" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ719" s="15" t="s">
         <v>1674</v>
       </c>
@@ -79510,6 +79669,9 @@
       <c r="AH720">
         <v>10</v>
       </c>
+      <c r="AI720" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ720" s="15" t="s">
         <v>1674</v>
       </c>
@@ -79605,6 +79767,9 @@
       <c r="AH721">
         <v>10</v>
       </c>
+      <c r="AI721" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ721" s="15" t="s">
         <v>1674</v>
       </c>
@@ -79700,6 +79865,9 @@
       <c r="AH722">
         <v>10</v>
       </c>
+      <c r="AI722" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ722" s="15" t="s">
         <v>1674</v>
       </c>
@@ -79795,6 +79963,9 @@
       <c r="AH723">
         <v>10</v>
       </c>
+      <c r="AI723" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ723" s="15" t="s">
         <v>1674</v>
       </c>
@@ -79890,6 +80061,9 @@
       <c r="AH724">
         <v>10</v>
       </c>
+      <c r="AI724" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ724" s="15" t="s">
         <v>1674</v>
       </c>
@@ -79985,6 +80159,9 @@
       <c r="AH725">
         <v>10</v>
       </c>
+      <c r="AI725" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ725" s="15" t="s">
         <v>1674</v>
       </c>
@@ -80080,6 +80257,9 @@
       <c r="AH726">
         <v>10</v>
       </c>
+      <c r="AI726" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ726" s="15" t="s">
         <v>1674</v>
       </c>
@@ -80175,6 +80355,9 @@
       <c r="AH727">
         <v>10</v>
       </c>
+      <c r="AI727" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ727" s="15" t="s">
         <v>1674</v>
       </c>
@@ -80270,6 +80453,9 @@
       <c r="AH728">
         <v>10</v>
       </c>
+      <c r="AI728" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ728" s="15" t="s">
         <v>1674</v>
       </c>
@@ -80365,6 +80551,9 @@
       <c r="AH729">
         <v>10</v>
       </c>
+      <c r="AI729" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ729" s="15" t="s">
         <v>1674</v>
       </c>
@@ -80460,6 +80649,9 @@
       <c r="AH730">
         <v>10</v>
       </c>
+      <c r="AI730" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ730" s="15" t="s">
         <v>1674</v>
       </c>
@@ -80555,6 +80747,9 @@
       <c r="AH731">
         <v>10</v>
       </c>
+      <c r="AI731" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ731" s="15" t="s">
         <v>1674</v>
       </c>
@@ -80650,6 +80845,9 @@
       <c r="AH732">
         <v>10</v>
       </c>
+      <c r="AI732" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ732" s="15" t="s">
         <v>1674</v>
       </c>
@@ -80745,6 +80943,9 @@
       <c r="AH733">
         <v>10</v>
       </c>
+      <c r="AI733" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ733" s="15" t="s">
         <v>1674</v>
       </c>
@@ -80840,6 +81041,9 @@
       <c r="AH734">
         <v>10</v>
       </c>
+      <c r="AI734" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ734" s="15" t="s">
         <v>1674</v>
       </c>
@@ -80936,6 +81140,9 @@
       <c r="AH735">
         <v>10</v>
       </c>
+      <c r="AI735" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ735" s="15" t="s">
         <v>1674</v>
       </c>
@@ -81031,6 +81238,9 @@
       <c r="AH736">
         <v>10</v>
       </c>
+      <c r="AI736" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ736" s="15" t="s">
         <v>1674</v>
       </c>
@@ -81126,6 +81336,9 @@
       <c r="AH737">
         <v>10</v>
       </c>
+      <c r="AI737" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ737" s="15" t="s">
         <v>1674</v>
       </c>
@@ -81221,6 +81434,9 @@
       <c r="AH738">
         <v>10</v>
       </c>
+      <c r="AI738" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ738" s="15" t="s">
         <v>1674</v>
       </c>
@@ -81316,6 +81532,9 @@
       <c r="AH739">
         <v>10</v>
       </c>
+      <c r="AI739" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ739" s="15" t="s">
         <v>1674</v>
       </c>
@@ -81411,6 +81630,9 @@
       <c r="AH740">
         <v>10</v>
       </c>
+      <c r="AI740" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ740" s="15" t="s">
         <v>1674</v>
       </c>
@@ -81506,6 +81728,9 @@
       <c r="AH741">
         <v>10</v>
       </c>
+      <c r="AI741" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ741" s="15" t="s">
         <v>1674</v>
       </c>
@@ -81601,6 +81826,9 @@
       <c r="AH742">
         <v>10</v>
       </c>
+      <c r="AI742" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ742" s="15" t="s">
         <v>1674</v>
       </c>
@@ -81696,6 +81924,9 @@
       <c r="AH743">
         <v>10</v>
       </c>
+      <c r="AI743" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ743" s="15" t="s">
         <v>1674</v>
       </c>
@@ -81791,6 +82022,9 @@
       <c r="AH744">
         <v>10</v>
       </c>
+      <c r="AI744" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ744" s="15" t="s">
         <v>1674</v>
       </c>
@@ -81886,6 +82120,9 @@
       <c r="AH745">
         <v>10</v>
       </c>
+      <c r="AI745" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ745" s="15" t="s">
         <v>1674</v>
       </c>
@@ -81981,6 +82218,9 @@
       <c r="AH746">
         <v>10</v>
       </c>
+      <c r="AI746" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ746" s="15" t="s">
         <v>1674</v>
       </c>
@@ -82077,6 +82317,9 @@
       <c r="AH747">
         <v>10</v>
       </c>
+      <c r="AI747" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ747" s="15" t="s">
         <v>1674</v>
       </c>
@@ -82172,6 +82415,9 @@
       <c r="AH748">
         <v>10</v>
       </c>
+      <c r="AI748" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ748" s="15" t="s">
         <v>1674</v>
       </c>
@@ -82267,6 +82513,9 @@
       <c r="AH749">
         <v>10</v>
       </c>
+      <c r="AI749" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ749" s="15" t="s">
         <v>1674</v>
       </c>
@@ -82362,6 +82611,9 @@
       <c r="AH750">
         <v>10</v>
       </c>
+      <c r="AI750" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ750" s="15" t="s">
         <v>1674</v>
       </c>
@@ -82455,6 +82707,9 @@
       <c r="AH751">
         <v>10</v>
       </c>
+      <c r="AI751" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ751" s="15" t="s">
         <v>1674</v>
       </c>
@@ -82548,6 +82803,9 @@
       <c r="AH752">
         <v>10</v>
       </c>
+      <c r="AI752" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ752" s="15" t="s">
         <v>1674</v>
       </c>
@@ -82644,6 +82902,9 @@
       <c r="AH753">
         <v>10</v>
       </c>
+      <c r="AI753" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ753" s="15" t="s">
         <v>1674</v>
       </c>
@@ -82739,6 +83000,9 @@
       <c r="AH754">
         <v>10</v>
       </c>
+      <c r="AI754" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ754" s="15" t="s">
         <v>1674</v>
       </c>
@@ -82832,6 +83096,9 @@
       <c r="AH755">
         <v>10</v>
       </c>
+      <c r="AI755" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ755" s="15" t="s">
         <v>1674</v>
       </c>
@@ -82924,6 +83191,9 @@
       <c r="AH756">
         <v>10</v>
       </c>
+      <c r="AI756" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ756" s="15" t="s">
         <v>1674</v>
       </c>
@@ -83020,6 +83290,9 @@
       <c r="AH757">
         <v>10</v>
       </c>
+      <c r="AI757" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ757" s="15" t="s">
         <v>1674</v>
       </c>
@@ -83115,6 +83388,9 @@
       <c r="AH758">
         <v>10</v>
       </c>
+      <c r="AI758" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ758" s="15" t="s">
         <v>1674</v>
       </c>
@@ -83208,6 +83484,9 @@
       <c r="AH759">
         <v>10</v>
       </c>
+      <c r="AI759" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ759" s="15" t="s">
         <v>1674</v>
       </c>
@@ -83301,6 +83580,9 @@
       <c r="AH760">
         <v>10</v>
       </c>
+      <c r="AI760" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ760" s="15" t="s">
         <v>1674</v>
       </c>
@@ -83397,6 +83679,9 @@
       <c r="AH761">
         <v>10</v>
       </c>
+      <c r="AI761" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ761" s="15" t="s">
         <v>1674</v>
       </c>
@@ -83492,6 +83777,9 @@
       <c r="AH762">
         <v>10</v>
       </c>
+      <c r="AI762" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ762" s="15" t="s">
         <v>1674</v>
       </c>
@@ -83586,6 +83874,9 @@
       <c r="AH763">
         <v>10</v>
       </c>
+      <c r="AI763" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ763" s="15" t="s">
         <v>1674</v>
       </c>
@@ -83679,6 +83970,9 @@
       <c r="AH764">
         <v>10</v>
       </c>
+      <c r="AI764" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ764" s="15" t="s">
         <v>1674</v>
       </c>
@@ -83775,6 +84069,9 @@
       <c r="AH765">
         <v>10</v>
       </c>
+      <c r="AI765" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ765" s="15" t="s">
         <v>1674</v>
       </c>
@@ -83870,6 +84167,9 @@
       <c r="AH766">
         <v>10</v>
       </c>
+      <c r="AI766" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ766" s="15" t="s">
         <v>1674</v>
       </c>
@@ -83964,6 +84264,9 @@
       <c r="AH767">
         <v>10</v>
       </c>
+      <c r="AI767" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ767" s="15" t="s">
         <v>1674</v>
       </c>
@@ -84056,6 +84359,9 @@
       <c r="AH768">
         <v>10</v>
       </c>
+      <c r="AI768" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ768" s="15" t="s">
         <v>1674</v>
       </c>
@@ -84152,6 +84458,9 @@
       <c r="AH769">
         <v>10</v>
       </c>
+      <c r="AI769" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ769" s="15" t="s">
         <v>1674</v>
       </c>
@@ -84247,6 +84556,9 @@
       <c r="AH770">
         <v>10</v>
       </c>
+      <c r="AI770" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ770" s="15" t="s">
         <v>1674</v>
       </c>
@@ -84340,6 +84652,9 @@
       <c r="AH771">
         <v>10</v>
       </c>
+      <c r="AI771" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ771" s="15" t="s">
         <v>1674</v>
       </c>
@@ -84433,6 +84748,9 @@
       <c r="AH772">
         <v>10</v>
       </c>
+      <c r="AI772" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ772" s="15" t="s">
         <v>1674</v>
       </c>
@@ -84529,6 +84847,9 @@
       <c r="AH773">
         <v>10</v>
       </c>
+      <c r="AI773" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ773" s="15" t="s">
         <v>1674</v>
       </c>
@@ -84558,21 +84879,102 @@
       </c>
     </row>
     <row r="774" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B774" s="15"/>
-      <c r="C774" s="15"/>
-      <c r="G774" s="15"/>
-      <c r="H774" s="14"/>
-      <c r="I774" s="16"/>
-      <c r="AF774" s="14"/>
-      <c r="AJ774" s="15"/>
-      <c r="AK774" s="15"/>
-      <c r="AL774" s="14"/>
-      <c r="AM774" s="14"/>
-      <c r="AN774" s="15"/>
-      <c r="AO774" s="15"/>
-      <c r="AP774" s="15"/>
-      <c r="AQ774" s="14"/>
-      <c r="AR774" s="15"/>
+      <c r="A774" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B774" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C774" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D774" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E774" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F774" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G774" s="15" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H774" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I774" s="16" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M774" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O774">
+        <v>2011</v>
+      </c>
+      <c r="R774">
+        <v>30</v>
+      </c>
+      <c r="T774" t="s">
+        <v>1842</v>
+      </c>
+      <c r="U774" t="s">
+        <v>1775</v>
+      </c>
+      <c r="V774" s="9" t="s">
+        <v>1842</v>
+      </c>
+      <c r="W774">
+        <v>70</v>
+      </c>
+      <c r="X774" s="9" t="s">
+        <v>1820</v>
+      </c>
+      <c r="Y774" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Z774">
+        <v>0</v>
+      </c>
+      <c r="AF774" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG774" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AH774">
+        <v>10</v>
+      </c>
+      <c r="AI774" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ774" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK774" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL774" s="14" t="s">
+        <v>1792</v>
+      </c>
+      <c r="AM774" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN774" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO774" s="15">
+        <v>50</v>
+      </c>
+      <c r="AP774" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ774" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AR774" s="15" t="s">
+        <v>1845</v>
+      </c>
     </row>
     <row r="775" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
@@ -84624,7 +85026,7 @@
         <v>70</v>
       </c>
       <c r="X775" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y775" t="s">
         <v>1739</v>
@@ -84640,6 +85042,9 @@
       </c>
       <c r="AH775">
         <v>10</v>
+      </c>
+      <c r="AI775" t="s">
+        <v>158</v>
       </c>
       <c r="AJ775" s="15" t="s">
         <v>1674</v>
@@ -84719,7 +85124,7 @@
         <v>70</v>
       </c>
       <c r="X776" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y776" t="s">
         <v>1739</v>
@@ -84735,6 +85140,9 @@
       </c>
       <c r="AH776">
         <v>10</v>
+      </c>
+      <c r="AI776" t="s">
+        <v>158</v>
       </c>
       <c r="AJ776" s="15" t="s">
         <v>1674</v>
@@ -84814,7 +85222,7 @@
         <v>70</v>
       </c>
       <c r="X777" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y777" t="s">
         <v>1739</v>
@@ -84830,6 +85238,9 @@
       </c>
       <c r="AH777">
         <v>10</v>
+      </c>
+      <c r="AI777" t="s">
+        <v>158</v>
       </c>
       <c r="AJ777" s="15" t="s">
         <v>1674</v>
@@ -84909,7 +85320,7 @@
         <v>70</v>
       </c>
       <c r="X778" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y778" t="s">
         <v>1739</v>
@@ -84926,6 +85337,9 @@
       <c r="AH778">
         <v>10</v>
       </c>
+      <c r="AI778" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ778" s="15" t="s">
         <v>1674</v>
       </c>
@@ -84945,7 +85359,7 @@
         <v>50</v>
       </c>
       <c r="AP778" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ778" s="14" t="s">
         <v>1813</v>
@@ -85004,7 +85418,7 @@
         <v>70</v>
       </c>
       <c r="X779" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y779" t="s">
         <v>1739</v>
@@ -85020,6 +85434,9 @@
       </c>
       <c r="AH779">
         <v>10</v>
+      </c>
+      <c r="AI779" t="s">
+        <v>158</v>
       </c>
       <c r="AJ779" s="15" t="s">
         <v>1674</v>
@@ -85099,7 +85516,7 @@
         <v>70</v>
       </c>
       <c r="X780" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y780" t="s">
         <v>1739</v>
@@ -85115,6 +85532,9 @@
       </c>
       <c r="AH780">
         <v>10</v>
+      </c>
+      <c r="AI780" t="s">
+        <v>158</v>
       </c>
       <c r="AJ780" s="15" t="s">
         <v>1674</v>
@@ -85194,7 +85614,7 @@
         <v>70</v>
       </c>
       <c r="X781" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y781" t="s">
         <v>1739</v>
@@ -85210,6 +85630,9 @@
       </c>
       <c r="AH781">
         <v>10</v>
+      </c>
+      <c r="AI781" t="s">
+        <v>158</v>
       </c>
       <c r="AJ781" s="15" t="s">
         <v>1674</v>
@@ -85289,7 +85712,7 @@
         <v>70</v>
       </c>
       <c r="X782" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y782" t="s">
         <v>1739</v>
@@ -85306,6 +85729,9 @@
       <c r="AH782">
         <v>10</v>
       </c>
+      <c r="AI782" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ782" s="15" t="s">
         <v>1674</v>
       </c>
@@ -85325,7 +85751,7 @@
         <v>50</v>
       </c>
       <c r="AP782" s="15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AQ782" s="14" t="s">
         <v>1813</v>
@@ -85384,7 +85810,7 @@
         <v>70</v>
       </c>
       <c r="X783" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y783" t="s">
         <v>1739</v>
@@ -85401,11 +85827,14 @@
       <c r="AH783">
         <v>10</v>
       </c>
+      <c r="AI783" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ783" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK783" s="15">
-        <v>0</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="AL783" s="14" t="s">
         <v>1792</v>
@@ -85479,7 +85908,7 @@
         <v>70</v>
       </c>
       <c r="X784" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y784" t="s">
         <v>1739</v>
@@ -85496,17 +85925,21 @@
       <c r="AH784">
         <v>10</v>
       </c>
+      <c r="AI784" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ784" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK784" s="15">
-        <v>0.36699999999999999</v>
+        <v>13.067</v>
       </c>
       <c r="AL784" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM784" s="14">
-        <v>0</v>
+        <f>14.233-12.1</f>
+        <v>2.1330000000000009</v>
       </c>
       <c r="AN784" s="15">
         <v>4</v>
@@ -85574,7 +86007,7 @@
         <v>70</v>
       </c>
       <c r="X785" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y785" t="s">
         <v>1739</v>
@@ -85591,18 +86024,20 @@
       <c r="AH785">
         <v>10</v>
       </c>
+      <c r="AI785" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ785" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK785" s="15">
-        <v>13.067</v>
+        <v>0</v>
       </c>
       <c r="AL785" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM785" s="14">
-        <f>14.233-12.1</f>
-        <v>2.1330000000000009</v>
+        <v>0</v>
       </c>
       <c r="AN785" s="15">
         <v>4</v>
@@ -85670,7 +86105,7 @@
         <v>70</v>
       </c>
       <c r="X786" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y786" t="s">
         <v>1739</v>
@@ -85687,6 +86122,9 @@
       <c r="AH786">
         <v>10</v>
       </c>
+      <c r="AI786" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ786" s="15" t="s">
         <v>1674</v>
       </c>
@@ -85706,7 +86144,7 @@
         <v>50</v>
       </c>
       <c r="AP786" s="15">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AQ786" s="14" t="s">
         <v>1813</v>
@@ -85765,7 +86203,7 @@
         <v>70</v>
       </c>
       <c r="X787" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y787" t="s">
         <v>1739</v>
@@ -85782,11 +86220,14 @@
       <c r="AH787">
         <v>10</v>
       </c>
+      <c r="AI787" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ787" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK787" s="15">
-        <v>0</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="AL787" s="14" t="s">
         <v>1792</v>
@@ -85860,7 +86301,7 @@
         <v>70</v>
       </c>
       <c r="X788" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y788" t="s">
         <v>1739</v>
@@ -85877,17 +86318,21 @@
       <c r="AH788">
         <v>10</v>
       </c>
+      <c r="AI788" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ788" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK788" s="15">
-        <v>0.63300000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AL788" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM788" s="14">
-        <v>0</v>
+        <f>15.833-13.878</f>
+        <v>1.9550000000000001</v>
       </c>
       <c r="AN788" s="15">
         <v>4</v>
@@ -85955,7 +86400,7 @@
         <v>70</v>
       </c>
       <c r="X789" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y789" t="s">
         <v>1739</v>
@@ -85972,18 +86417,20 @@
       <c r="AH789">
         <v>10</v>
       </c>
+      <c r="AI789" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ789" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK789" s="15">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AL789" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM789" s="14">
-        <f>15.833-13.878</f>
-        <v>1.9550000000000001</v>
+      <c r="AM789">
+        <v>0</v>
       </c>
       <c r="AN789" s="15">
         <v>4</v>
@@ -86051,7 +86498,7 @@
         <v>70</v>
       </c>
       <c r="X790" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y790" t="s">
         <v>1739</v>
@@ -86068,6 +86515,9 @@
       <c r="AH790">
         <v>10</v>
       </c>
+      <c r="AI790" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ790" s="15" t="s">
         <v>1674</v>
       </c>
@@ -86077,7 +86527,7 @@
       <c r="AL790" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM790">
+      <c r="AM790" s="14">
         <v>0</v>
       </c>
       <c r="AN790" s="15">
@@ -86087,7 +86537,7 @@
         <v>50</v>
       </c>
       <c r="AP790" s="15">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AQ790" s="14" t="s">
         <v>1813</v>
@@ -86146,7 +86596,7 @@
         <v>70</v>
       </c>
       <c r="X791" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y791" t="s">
         <v>1739</v>
@@ -86163,17 +86613,21 @@
       <c r="AH791">
         <v>10</v>
       </c>
+      <c r="AI791" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ791" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK791" s="15">
-        <v>0</v>
+        <v>4.4560000000000004</v>
       </c>
       <c r="AL791" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM791" s="14">
-        <v>0</v>
+        <f>5.344-3.656</f>
+        <v>1.6880000000000002</v>
       </c>
       <c r="AN791" s="15">
         <v>4</v>
@@ -86241,7 +86695,7 @@
         <v>70</v>
       </c>
       <c r="X792" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y792" t="s">
         <v>1739</v>
@@ -86258,18 +86712,21 @@
       <c r="AH792">
         <v>10</v>
       </c>
+      <c r="AI792" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ792" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK792" s="15">
-        <v>4.4560000000000004</v>
+        <v>14.667</v>
       </c>
       <c r="AL792" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM792" s="14">
-        <f>5.344-3.656</f>
-        <v>1.6880000000000002</v>
+        <f>15.744-13.789</f>
+        <v>1.9550000000000001</v>
       </c>
       <c r="AN792" s="15">
         <v>4</v>
@@ -86337,7 +86794,7 @@
         <v>70</v>
       </c>
       <c r="X793" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y793" t="s">
         <v>1739</v>
@@ -86354,18 +86811,20 @@
       <c r="AH793">
         <v>10</v>
       </c>
+      <c r="AI793" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ793" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK793" s="15">
-        <v>14.667</v>
+        <v>0</v>
       </c>
       <c r="AL793" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM793" s="14">
-        <f>15.744-13.789</f>
-        <v>1.9550000000000001</v>
+      <c r="AM793">
+        <v>0</v>
       </c>
       <c r="AN793" s="15">
         <v>4</v>
@@ -86433,7 +86892,7 @@
         <v>70</v>
       </c>
       <c r="X794" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y794" t="s">
         <v>1739</v>
@@ -86450,6 +86909,9 @@
       <c r="AH794">
         <v>10</v>
       </c>
+      <c r="AI794" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ794" s="15" t="s">
         <v>1674</v>
       </c>
@@ -86459,7 +86921,7 @@
       <c r="AL794" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM794">
+      <c r="AM794" s="14">
         <v>0</v>
       </c>
       <c r="AN794" s="15">
@@ -86469,7 +86931,7 @@
         <v>50</v>
       </c>
       <c r="AP794" s="15">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AQ794" s="14" t="s">
         <v>1813</v>
@@ -86528,7 +86990,7 @@
         <v>70</v>
       </c>
       <c r="X795" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y795" t="s">
         <v>1739</v>
@@ -86545,17 +87007,21 @@
       <c r="AH795">
         <v>10</v>
       </c>
+      <c r="AI795" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ795" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK795" s="15">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AL795" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM795" s="14">
-        <v>0</v>
+        <f>8.633-5.7</f>
+        <v>2.9329999999999989</v>
       </c>
       <c r="AN795" s="15">
         <v>4</v>
@@ -86623,7 +87089,7 @@
         <v>70</v>
       </c>
       <c r="X796" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y796" t="s">
         <v>1739</v>
@@ -86640,18 +87106,21 @@
       <c r="AH796">
         <v>10</v>
       </c>
+      <c r="AI796" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ796" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK796" s="15">
-        <v>7.2</v>
+        <v>14.867000000000001</v>
       </c>
       <c r="AL796" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM796" s="14">
-        <f>8.633-5.7</f>
-        <v>2.9329999999999989</v>
+        <f>16.278-13.789</f>
+        <v>2.488999999999999</v>
       </c>
       <c r="AN796" s="15">
         <v>4</v>
@@ -86719,7 +87188,7 @@
         <v>70</v>
       </c>
       <c r="X797" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y797" t="s">
         <v>1739</v>
@@ -86736,18 +87205,20 @@
       <c r="AH797">
         <v>10</v>
       </c>
+      <c r="AI797" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ797" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK797" s="15">
-        <v>14.867000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL797" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM797" s="14">
-        <f>16.278-13.789</f>
-        <v>2.488999999999999</v>
+      <c r="AM797">
+        <v>0</v>
       </c>
       <c r="AN797" s="15">
         <v>4</v>
@@ -86815,7 +87286,7 @@
         <v>70</v>
       </c>
       <c r="X798" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y798" t="s">
         <v>1739</v>
@@ -86832,6 +87303,9 @@
       <c r="AH798">
         <v>10</v>
       </c>
+      <c r="AI798" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ798" s="15" t="s">
         <v>1674</v>
       </c>
@@ -86841,7 +87315,7 @@
       <c r="AL798" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM798">
+      <c r="AM798" s="14">
         <v>0</v>
       </c>
       <c r="AN798" s="15">
@@ -86851,7 +87325,7 @@
         <v>50</v>
       </c>
       <c r="AP798" s="15">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AQ798" s="14" t="s">
         <v>1813</v>
@@ -86910,7 +87384,7 @@
         <v>70</v>
       </c>
       <c r="X799" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y799" t="s">
         <v>1739</v>
@@ -86927,17 +87401,21 @@
       <c r="AH799">
         <v>10</v>
       </c>
+      <c r="AI799" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ799" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK799" s="15">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AL799" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM799" s="14">
-        <v>0</v>
+        <f>10.944-5.344</f>
+        <v>5.6000000000000005</v>
       </c>
       <c r="AN799" s="15">
         <v>4</v>
@@ -87005,7 +87483,7 @@
         <v>70</v>
       </c>
       <c r="X800" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y800" t="s">
         <v>1739</v>
@@ -87022,18 +87500,21 @@
       <c r="AH800">
         <v>10</v>
       </c>
+      <c r="AI800" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ800" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK800" s="15">
-        <v>8.1</v>
+        <v>15.833</v>
       </c>
       <c r="AL800" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM800" s="14">
-        <f>10.944-5.344</f>
-        <v>5.6000000000000005</v>
+        <f>17.256-14.767</f>
+        <v>2.4890000000000008</v>
       </c>
       <c r="AN800" s="15">
         <v>4</v>
@@ -87101,7 +87582,7 @@
         <v>70</v>
       </c>
       <c r="X801" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y801" t="s">
         <v>1739</v>
@@ -87118,18 +87599,20 @@
       <c r="AH801">
         <v>10</v>
       </c>
+      <c r="AI801" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ801" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK801" s="15">
-        <v>15.833</v>
+        <v>0</v>
       </c>
       <c r="AL801" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM801" s="14">
-        <f>17.256-14.767</f>
-        <v>2.4890000000000008</v>
+      <c r="AM801">
+        <v>0</v>
       </c>
       <c r="AN801" s="15">
         <v>4</v>
@@ -87197,7 +87680,7 @@
         <v>70</v>
       </c>
       <c r="X802" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y802" t="s">
         <v>1739</v>
@@ -87214,6 +87697,9 @@
       <c r="AH802">
         <v>10</v>
       </c>
+      <c r="AI802" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ802" s="15" t="s">
         <v>1674</v>
       </c>
@@ -87223,7 +87709,7 @@
       <c r="AL802" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM802">
+      <c r="AM802" s="14">
         <v>0</v>
       </c>
       <c r="AN802" s="15">
@@ -87233,7 +87719,7 @@
         <v>50</v>
       </c>
       <c r="AP802" s="15">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AQ802" s="14" t="s">
         <v>1813</v>
@@ -87292,7 +87778,7 @@
         <v>70</v>
       </c>
       <c r="X803" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y803" t="s">
         <v>1739</v>
@@ -87309,17 +87795,21 @@
       <c r="AH803">
         <v>10</v>
       </c>
+      <c r="AI803" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ803" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK803" s="15">
-        <v>0</v>
+        <v>8.2669999999999995</v>
       </c>
       <c r="AL803" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM803" s="14">
-        <v>0</v>
+        <f>10.944-5.433</f>
+        <v>5.511000000000001</v>
       </c>
       <c r="AN803" s="15">
         <v>4</v>
@@ -87387,7 +87877,7 @@
         <v>70</v>
       </c>
       <c r="X804" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y804" t="s">
         <v>1739</v>
@@ -87404,18 +87894,21 @@
       <c r="AH804">
         <v>10</v>
       </c>
+      <c r="AI804" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ804" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK804" s="15">
-        <v>8.2669999999999995</v>
+        <v>16.2</v>
       </c>
       <c r="AL804" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM804" s="14">
-        <f>10.944-5.433</f>
-        <v>5.511000000000001</v>
+        <f>17.256-15.3</f>
+        <v>1.9559999999999995</v>
       </c>
       <c r="AN804" s="15">
         <v>4</v>
@@ -87483,7 +87976,7 @@
         <v>70</v>
       </c>
       <c r="X805" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y805" t="s">
         <v>1739</v>
@@ -87500,18 +87993,20 @@
       <c r="AH805">
         <v>10</v>
       </c>
+      <c r="AI805" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ805" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK805" s="15">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="AL805" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM805" s="14">
-        <f>17.256-15.3</f>
-        <v>1.9559999999999995</v>
+      <c r="AM805">
+        <v>0</v>
       </c>
       <c r="AN805" s="15">
         <v>4</v>
@@ -87579,7 +88074,7 @@
         <v>70</v>
       </c>
       <c r="X806" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y806" t="s">
         <v>1739</v>
@@ -87596,6 +88091,9 @@
       <c r="AH806">
         <v>10</v>
       </c>
+      <c r="AI806" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ806" s="15" t="s">
         <v>1674</v>
       </c>
@@ -87605,7 +88103,7 @@
       <c r="AL806" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM806">
+      <c r="AM806" s="14">
         <v>0</v>
       </c>
       <c r="AN806" s="15">
@@ -87615,7 +88113,7 @@
         <v>50</v>
       </c>
       <c r="AP806" s="15">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AQ806" s="14" t="s">
         <v>1813</v>
@@ -87674,7 +88172,7 @@
         <v>70</v>
       </c>
       <c r="X807" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y807" t="s">
         <v>1739</v>
@@ -87691,17 +88189,21 @@
       <c r="AH807">
         <v>10</v>
       </c>
+      <c r="AI807" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ807" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK807" s="15">
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AL807" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM807" s="14">
-        <v>0</v>
+        <f>10.967-5.367</f>
+        <v>5.6000000000000005</v>
       </c>
       <c r="AN807" s="15">
         <v>4</v>
@@ -87769,7 +88271,7 @@
         <v>70</v>
       </c>
       <c r="X808" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y808" t="s">
         <v>1739</v>
@@ -87786,18 +88288,21 @@
       <c r="AH808">
         <v>10</v>
       </c>
+      <c r="AI808" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ808" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK808" s="15">
-        <v>8.1999999999999993</v>
+        <v>16.189</v>
       </c>
       <c r="AL808" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM808" s="14">
-        <f>10.967-5.367</f>
-        <v>5.6000000000000005</v>
+        <f>17.256-15.3</f>
+        <v>1.9559999999999995</v>
       </c>
       <c r="AN808" s="15">
         <v>4</v>
@@ -87865,7 +88370,7 @@
         <v>70</v>
       </c>
       <c r="X809" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y809" t="s">
         <v>1739</v>
@@ -87882,18 +88387,20 @@
       <c r="AH809">
         <v>10</v>
       </c>
+      <c r="AI809" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ809" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK809" s="15">
-        <v>16.189</v>
+        <v>0</v>
       </c>
       <c r="AL809" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM809" s="14">
-        <f>17.256-15.3</f>
-        <v>1.9559999999999995</v>
+      <c r="AM809">
+        <v>0</v>
       </c>
       <c r="AN809" s="15">
         <v>4</v>
@@ -87961,7 +88468,7 @@
         <v>70</v>
       </c>
       <c r="X810" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y810" t="s">
         <v>1739</v>
@@ -87978,6 +88485,9 @@
       <c r="AH810">
         <v>10</v>
       </c>
+      <c r="AI810" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ810" s="15" t="s">
         <v>1674</v>
       </c>
@@ -87987,7 +88497,7 @@
       <c r="AL810" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM810">
+      <c r="AM810" s="14">
         <v>0</v>
       </c>
       <c r="AN810" s="15">
@@ -87997,7 +88507,7 @@
         <v>50</v>
       </c>
       <c r="AP810" s="15">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AQ810" s="14" t="s">
         <v>1813</v>
@@ -88056,7 +88566,7 @@
         <v>70</v>
       </c>
       <c r="X811" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y811" t="s">
         <v>1739</v>
@@ -88073,17 +88583,21 @@
       <c r="AH811">
         <v>10</v>
       </c>
+      <c r="AI811" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ811" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK811" s="15">
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AL811" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM811" s="14">
-        <v>0</v>
+        <f>10.878-5.367</f>
+        <v>5.5110000000000001</v>
       </c>
       <c r="AN811" s="15">
         <v>4</v>
@@ -88151,7 +88665,7 @@
         <v>70</v>
       </c>
       <c r="X812" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y812" t="s">
         <v>1739</v>
@@ -88168,18 +88682,21 @@
       <c r="AH812">
         <v>10</v>
       </c>
+      <c r="AI812" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ812" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK812" s="15">
-        <v>8.1999999999999993</v>
+        <v>16.132999999999999</v>
       </c>
       <c r="AL812" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM812" s="14">
-        <f>10.878-5.367</f>
-        <v>5.5110000000000001</v>
+        <f>17.278-15.056</f>
+        <v>2.2219999999999995</v>
       </c>
       <c r="AN812" s="15">
         <v>4</v>
@@ -88247,7 +88764,7 @@
         <v>70</v>
       </c>
       <c r="X813" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y813" t="s">
         <v>1739</v>
@@ -88264,18 +88781,20 @@
       <c r="AH813">
         <v>10</v>
       </c>
+      <c r="AI813" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ813" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK813" s="15">
-        <v>16.132999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL813" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM813" s="14">
-        <f>17.278-15.056</f>
-        <v>2.2219999999999995</v>
+      <c r="AM813">
+        <v>0</v>
       </c>
       <c r="AN813" s="15">
         <v>4</v>
@@ -88343,7 +88862,7 @@
         <v>70</v>
       </c>
       <c r="X814" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y814" t="s">
         <v>1739</v>
@@ -88360,6 +88879,9 @@
       <c r="AH814">
         <v>10</v>
       </c>
+      <c r="AI814" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ814" s="15" t="s">
         <v>1674</v>
       </c>
@@ -88369,7 +88891,7 @@
       <c r="AL814" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM814">
+      <c r="AM814" s="14">
         <v>0</v>
       </c>
       <c r="AN814" s="15">
@@ -88379,7 +88901,7 @@
         <v>50</v>
       </c>
       <c r="AP814" s="15">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AQ814" s="14" t="s">
         <v>1813</v>
@@ -88438,7 +88960,7 @@
         <v>70</v>
       </c>
       <c r="X815" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y815" t="s">
         <v>1739</v>
@@ -88455,17 +88977,21 @@
       <c r="AH815">
         <v>10</v>
       </c>
+      <c r="AI815" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ815" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK815" s="15">
-        <v>0</v>
+        <v>8.2669999999999995</v>
       </c>
       <c r="AL815" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM815" s="14">
-        <v>0</v>
+        <f>10.967-5.278</f>
+        <v>5.6890000000000009</v>
       </c>
       <c r="AN815" s="15">
         <v>4</v>
@@ -88533,7 +89059,7 @@
         <v>70</v>
       </c>
       <c r="X816" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y816" t="s">
         <v>1739</v>
@@ -88550,18 +89076,21 @@
       <c r="AH816">
         <v>10</v>
       </c>
+      <c r="AI816" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ816" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK816" s="15">
-        <v>8.2669999999999995</v>
+        <v>16.3</v>
       </c>
       <c r="AL816" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM816" s="14">
-        <f>10.967-5.278</f>
-        <v>5.6890000000000009</v>
+        <f>17.278-15.322</f>
+        <v>1.9559999999999995</v>
       </c>
       <c r="AN816" s="15">
         <v>4</v>
@@ -88629,7 +89158,7 @@
         <v>70</v>
       </c>
       <c r="X817" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y817" t="s">
         <v>1739</v>
@@ -88646,18 +89175,20 @@
       <c r="AH817">
         <v>10</v>
       </c>
+      <c r="AI817" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ817" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK817" s="15">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="AL817" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM817" s="14">
-        <f>17.278-15.322</f>
-        <v>1.9559999999999995</v>
+      <c r="AM817">
+        <v>0</v>
       </c>
       <c r="AN817" s="15">
         <v>4</v>
@@ -88725,7 +89256,7 @@
         <v>70</v>
       </c>
       <c r="X818" s="9" t="s">
-        <v>1822</v>
+        <v>1730</v>
       </c>
       <c r="Y818" t="s">
         <v>1739</v>
@@ -88742,6 +89273,9 @@
       <c r="AH818">
         <v>10</v>
       </c>
+      <c r="AI818" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ818" s="15" t="s">
         <v>1674</v>
       </c>
@@ -88751,7 +89285,7 @@
       <c r="AL818" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM818">
+      <c r="AM818" s="14">
         <v>0</v>
       </c>
       <c r="AN818" s="15">
@@ -88761,7 +89295,7 @@
         <v>50</v>
       </c>
       <c r="AP818" s="15">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AQ818" s="14" t="s">
         <v>1813</v>
@@ -88820,7 +89354,7 @@
         <v>70</v>
       </c>
       <c r="X819" s="9" t="s">
-        <v>1730</v>
+        <v>1821</v>
       </c>
       <c r="Y819" t="s">
         <v>1739</v>
@@ -88837,17 +89371,21 @@
       <c r="AH819">
         <v>10</v>
       </c>
+      <c r="AI819" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ819" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK819" s="15">
-        <v>0</v>
+        <v>8.4670000000000005</v>
       </c>
       <c r="AL819" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM819" s="14">
-        <v>0</v>
+        <f>11.678-5.189</f>
+        <v>6.4890000000000008</v>
       </c>
       <c r="AN819" s="15">
         <v>4</v>
@@ -88915,7 +89453,7 @@
         <v>70</v>
       </c>
       <c r="X820" s="9" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="Y820" t="s">
         <v>1739</v>
@@ -88932,18 +89470,21 @@
       <c r="AH820">
         <v>10</v>
       </c>
+      <c r="AI820" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ820" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK820" s="15">
-        <v>8.4670000000000005</v>
+        <v>16.2</v>
       </c>
       <c r="AL820" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM820" s="14">
-        <f>11.678-5.189</f>
-        <v>6.4890000000000008</v>
+        <f>17.278-15.233</f>
+        <v>2.0449999999999982</v>
       </c>
       <c r="AN820" s="15">
         <v>4</v>
@@ -89011,7 +89552,7 @@
         <v>70</v>
       </c>
       <c r="X821" s="9" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="Y821" t="s">
         <v>1739</v>
@@ -89028,18 +89569,21 @@
       <c r="AH821">
         <v>10</v>
       </c>
+      <c r="AI821" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ821" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK821" s="15">
-        <v>16.2</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="AL821" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM821" s="14">
-        <f>17.278-15.233</f>
-        <v>2.0449999999999982</v>
+      <c r="AM821">
+        <f>1.544-0.389</f>
+        <v>1.155</v>
       </c>
       <c r="AN821" s="15">
         <v>4</v>
@@ -89107,7 +89651,7 @@
         <v>70</v>
       </c>
       <c r="X822" s="9" t="s">
-        <v>1822</v>
+        <v>1730</v>
       </c>
       <c r="Y822" t="s">
         <v>1739</v>
@@ -89124,18 +89668,20 @@
       <c r="AH822">
         <v>10</v>
       </c>
+      <c r="AI822" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ822" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK822" s="15">
-        <v>0.38900000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL822" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM822">
-        <f>1.544-0.389</f>
-        <v>1.155</v>
+      <c r="AM822" s="14">
+        <v>0</v>
       </c>
       <c r="AN822" s="15">
         <v>4</v>
@@ -89144,7 +89690,7 @@
         <v>50</v>
       </c>
       <c r="AP822" s="15">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AQ822" s="14" t="s">
         <v>1813</v>
@@ -89203,7 +89749,7 @@
         <v>70</v>
       </c>
       <c r="X823" s="9" t="s">
-        <v>1730</v>
+        <v>1821</v>
       </c>
       <c r="Y823" t="s">
         <v>1739</v>
@@ -89220,17 +89766,21 @@
       <c r="AH823">
         <v>10</v>
       </c>
+      <c r="AI823" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ823" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK823" s="15">
-        <v>0</v>
+        <v>8.5329999999999995</v>
       </c>
       <c r="AL823" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM823" s="14">
-        <v>0</v>
+        <f>11.767-5.278</f>
+        <v>6.4889999999999999</v>
       </c>
       <c r="AN823" s="15">
         <v>4</v>
@@ -89298,7 +89848,7 @@
         <v>70</v>
       </c>
       <c r="X824" s="9" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="Y824" t="s">
         <v>1739</v>
@@ -89315,18 +89865,21 @@
       <c r="AH824">
         <v>10</v>
       </c>
+      <c r="AI824" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ824" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK824" s="15">
-        <v>8.5329999999999995</v>
+        <v>16.2</v>
       </c>
       <c r="AL824" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM824" s="14">
-        <f>11.767-5.278</f>
-        <v>6.4889999999999999</v>
+        <f>17.278-15.411</f>
+        <v>1.8669999999999991</v>
       </c>
       <c r="AN824" s="15">
         <v>4</v>
@@ -89394,7 +89947,7 @@
         <v>70</v>
       </c>
       <c r="X825" s="9" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="Y825" t="s">
         <v>1739</v>
@@ -89411,18 +89964,21 @@
       <c r="AH825">
         <v>10</v>
       </c>
+      <c r="AI825" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ825" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK825" s="15">
-        <v>16.2</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="AL825" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM825" s="14">
-        <f>17.278-15.411</f>
-        <v>1.8669999999999991</v>
+      <c r="AM825">
+        <f>1.544-0.389</f>
+        <v>1.155</v>
       </c>
       <c r="AN825" s="15">
         <v>4</v>
@@ -89490,7 +90046,7 @@
         <v>70</v>
       </c>
       <c r="X826" s="9" t="s">
-        <v>1822</v>
+        <v>1730</v>
       </c>
       <c r="Y826" t="s">
         <v>1739</v>
@@ -89507,18 +90063,20 @@
       <c r="AH826">
         <v>10</v>
       </c>
+      <c r="AI826" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ826" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK826" s="15">
-        <v>0.38900000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL826" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM826">
-        <f>1.544-0.389</f>
-        <v>1.155</v>
+      <c r="AM826" s="14">
+        <v>0</v>
       </c>
       <c r="AN826" s="15">
         <v>4</v>
@@ -89527,7 +90085,7 @@
         <v>50</v>
       </c>
       <c r="AP826" s="15">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AQ826" s="14" t="s">
         <v>1813</v>
@@ -89586,7 +90144,7 @@
         <v>70</v>
       </c>
       <c r="X827" s="9" t="s">
-        <v>1730</v>
+        <v>1821</v>
       </c>
       <c r="Y827" t="s">
         <v>1739</v>
@@ -89603,17 +90161,21 @@
       <c r="AH827">
         <v>10</v>
       </c>
+      <c r="AI827" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ827" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK827" s="15">
-        <v>0</v>
+        <v>8.6669999999999998</v>
       </c>
       <c r="AL827" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM827" s="14">
-        <v>0</v>
+        <f>11.944-5.367</f>
+        <v>6.5770000000000008</v>
       </c>
       <c r="AN827" s="15">
         <v>4</v>
@@ -89681,7 +90243,7 @@
         <v>70</v>
       </c>
       <c r="X828" s="9" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="Y828" t="s">
         <v>1739</v>
@@ -89698,18 +90260,21 @@
       <c r="AH828">
         <v>10</v>
       </c>
+      <c r="AI828" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ828" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK828" s="15">
-        <v>8.6669999999999998</v>
+        <v>16.2</v>
       </c>
       <c r="AL828" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM828" s="14">
-        <f>11.944-5.367</f>
-        <v>6.5770000000000008</v>
+        <f>17.278-15.411</f>
+        <v>1.8669999999999991</v>
       </c>
       <c r="AN828" s="15">
         <v>4</v>
@@ -89777,7 +90342,7 @@
         <v>70</v>
       </c>
       <c r="X829" s="9" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="Y829" t="s">
         <v>1739</v>
@@ -89794,18 +90359,21 @@
       <c r="AH829">
         <v>10</v>
       </c>
+      <c r="AI829" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ829" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK829" s="15">
-        <v>16.2</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="AL829" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM829" s="14">
-        <f>17.278-15.411</f>
-        <v>1.8669999999999991</v>
+      <c r="AM829">
+        <f>1.544-0.389</f>
+        <v>1.155</v>
       </c>
       <c r="AN829" s="15">
         <v>4</v>
@@ -89873,7 +90441,7 @@
         <v>70</v>
       </c>
       <c r="X830" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y830" t="s">
         <v>1739</v>
@@ -89890,18 +90458,20 @@
       <c r="AH830">
         <v>10</v>
       </c>
+      <c r="AI830" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ830" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK830" s="15">
-        <v>0.38900000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL830" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM830">
-        <f>1.544-0.389</f>
-        <v>1.155</v>
+      <c r="AM830" s="14">
+        <v>0</v>
       </c>
       <c r="AN830" s="15">
         <v>4</v>
@@ -89910,7 +90480,7 @@
         <v>50</v>
       </c>
       <c r="AP830" s="15">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AQ830" s="14" t="s">
         <v>1813</v>
@@ -89969,7 +90539,7 @@
         <v>70</v>
       </c>
       <c r="X831" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y831" t="s">
         <v>1739</v>
@@ -89986,17 +90556,21 @@
       <c r="AH831">
         <v>10</v>
       </c>
+      <c r="AI831" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ831" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK831" s="15">
-        <v>0</v>
+        <v>9.2669999999999995</v>
       </c>
       <c r="AL831" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM831" s="14">
-        <v>0</v>
+        <f>12.389-5.989</f>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AN831" s="15">
         <v>4</v>
@@ -90064,7 +90638,7 @@
         <v>70</v>
       </c>
       <c r="X832" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y832" t="s">
         <v>1739</v>
@@ -90081,18 +90655,21 @@
       <c r="AH832">
         <v>10</v>
       </c>
+      <c r="AI832" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ832" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK832" s="15">
-        <v>9.2669999999999995</v>
+        <v>16.466999999999999</v>
       </c>
       <c r="AL832" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM832" s="14">
-        <f>12.389-5.989</f>
-        <v>6.3999999999999995</v>
+        <f>17.722-15.411</f>
+        <v>2.3110000000000017</v>
       </c>
       <c r="AN832" s="15">
         <v>4</v>
@@ -90160,7 +90737,7 @@
         <v>70</v>
       </c>
       <c r="X833" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y833" t="s">
         <v>1739</v>
@@ -90177,18 +90754,21 @@
       <c r="AH833">
         <v>10</v>
       </c>
+      <c r="AI833" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ833" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK833" s="15">
-        <v>16.466999999999999</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="AL833" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM833" s="14">
-        <f>17.722-15.411</f>
-        <v>2.3110000000000017</v>
+      <c r="AM833">
+        <f>1.544-0.389</f>
+        <v>1.155</v>
       </c>
       <c r="AN833" s="15">
         <v>4</v>
@@ -90256,7 +90836,7 @@
         <v>70</v>
       </c>
       <c r="X834" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y834" t="s">
         <v>1739</v>
@@ -90273,19 +90853,19 @@
       <c r="AH834">
         <v>10</v>
       </c>
+      <c r="AI834" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ834" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK834" s="15">
-        <v>0.38900000000000001</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="AL834" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM834">
-        <f>1.544-0.389</f>
-        <v>1.155</v>
-      </c>
+      <c r="AM834" s="14"/>
       <c r="AN834" s="15">
         <v>4</v>
       </c>
@@ -90293,7 +90873,7 @@
         <v>50</v>
       </c>
       <c r="AP834" s="15">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AQ834" s="14" t="s">
         <v>1813</v>
@@ -90352,7 +90932,7 @@
         <v>70</v>
       </c>
       <c r="X835" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y835" t="s">
         <v>1739</v>
@@ -90369,16 +90949,22 @@
       <c r="AH835">
         <v>10</v>
       </c>
+      <c r="AI835" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ835" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK835" s="15">
-        <v>0.92200000000000004</v>
+        <v>9.4559999999999995</v>
       </c>
       <c r="AL835" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM835" s="14"/>
+      <c r="AM835" s="14">
+        <f>12.567-6.344</f>
+        <v>6.2229999999999999</v>
+      </c>
       <c r="AN835" s="15">
         <v>4</v>
       </c>
@@ -90445,7 +91031,7 @@
         <v>70</v>
       </c>
       <c r="X836" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y836" t="s">
         <v>1739</v>
@@ -90462,18 +91048,21 @@
       <c r="AH836">
         <v>10</v>
       </c>
+      <c r="AI836" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ836" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK836" s="15">
-        <v>9.4559999999999995</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AL836" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM836" s="14">
-        <f>12.567-6.344</f>
-        <v>6.2229999999999999</v>
+        <f>17.722-15.322</f>
+        <v>2.4000000000000021</v>
       </c>
       <c r="AN836" s="15">
         <v>4</v>
@@ -90541,7 +91130,7 @@
         <v>70</v>
       </c>
       <c r="X837" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y837" t="s">
         <v>1739</v>
@@ -90558,19 +91147,19 @@
       <c r="AH837">
         <v>10</v>
       </c>
+      <c r="AI837" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ837" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK837" s="15">
-        <v>16.399999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AL837" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM837" s="14">
-        <f>17.722-15.322</f>
-        <v>2.4000000000000021</v>
-      </c>
+      <c r="AM837" s="14"/>
       <c r="AN837" s="15">
         <v>4</v>
       </c>
@@ -90637,7 +91226,7 @@
         <v>70</v>
       </c>
       <c r="X838" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y838" t="s">
         <v>1739</v>
@@ -90654,16 +91243,22 @@
       <c r="AH838">
         <v>10</v>
       </c>
+      <c r="AI838" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ838" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK838" s="15">
-        <v>0.3</v>
+        <v>2.9329999999999998</v>
       </c>
       <c r="AL838" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="AM838" s="14"/>
+      <c r="AM838" s="14">
+        <f>5.367-0.744</f>
+        <v>4.6230000000000002</v>
+      </c>
       <c r="AN838" s="15">
         <v>4</v>
       </c>
@@ -90671,7 +91266,7 @@
         <v>50</v>
       </c>
       <c r="AP838" s="15">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AQ838" s="14" t="s">
         <v>1813</v>
@@ -90730,7 +91325,7 @@
         <v>70</v>
       </c>
       <c r="X839" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y839" t="s">
         <v>1739</v>
@@ -90747,18 +91342,21 @@
       <c r="AH839">
         <v>10</v>
       </c>
+      <c r="AI839" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ839" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK839" s="15">
-        <v>2.9329999999999998</v>
+        <v>9.8670000000000009</v>
       </c>
       <c r="AL839" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM839" s="14">
-        <f>5.367-0.744</f>
-        <v>4.6230000000000002</v>
+        <f>13.011-6.611</f>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AN839" s="15">
         <v>4</v>
@@ -90826,7 +91424,7 @@
         <v>70</v>
       </c>
       <c r="X840" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y840" t="s">
         <v>1739</v>
@@ -90843,18 +91441,21 @@
       <c r="AH840">
         <v>10</v>
       </c>
+      <c r="AI840" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ840" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK840" s="15">
-        <v>9.8670000000000009</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AL840" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM840" s="14">
-        <f>13.011-6.611</f>
-        <v>6.3999999999999995</v>
+        <f>17.722-15.322</f>
+        <v>2.4000000000000021</v>
       </c>
       <c r="AN840" s="15">
         <v>4</v>
@@ -90922,7 +91523,7 @@
         <v>70</v>
       </c>
       <c r="X841" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y841" t="s">
         <v>1739</v>
@@ -90939,18 +91540,21 @@
       <c r="AH841">
         <v>10</v>
       </c>
+      <c r="AI841" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ841" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK841" s="15">
-        <v>16.399999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AL841" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM841" s="14">
-        <f>17.722-15.322</f>
-        <v>2.4000000000000021</v>
+        <f>1.722-0.3</f>
+        <v>1.4219999999999999</v>
       </c>
       <c r="AN841" s="15">
         <v>4</v>
@@ -91018,7 +91622,7 @@
         <v>70</v>
       </c>
       <c r="X842" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y842" t="s">
         <v>1739</v>
@@ -91035,18 +91639,21 @@
       <c r="AH842">
         <v>10</v>
       </c>
+      <c r="AI842" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ842" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK842" s="15">
-        <v>0.3</v>
+        <v>2.9329999999999998</v>
       </c>
       <c r="AL842" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM842" s="14">
-        <f>1.722-0.3</f>
-        <v>1.4219999999999999</v>
+        <f>5.367-0.744</f>
+        <v>4.6230000000000002</v>
       </c>
       <c r="AN842" s="15">
         <v>4</v>
@@ -91055,7 +91662,7 @@
         <v>50</v>
       </c>
       <c r="AP842" s="15">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AQ842" s="14" t="s">
         <v>1813</v>
@@ -91114,7 +91721,7 @@
         <v>70</v>
       </c>
       <c r="X843" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y843" t="s">
         <v>1739</v>
@@ -91131,18 +91738,21 @@
       <c r="AH843">
         <v>10</v>
       </c>
+      <c r="AI843" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ843" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK843" s="15">
-        <v>2.9329999999999998</v>
+        <v>9.8670000000000009</v>
       </c>
       <c r="AL843" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM843" s="14">
-        <f>5.367-0.744</f>
-        <v>4.6230000000000002</v>
+        <f>13.011-6.611</f>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AN843" s="15">
         <v>4</v>
@@ -91210,7 +91820,7 @@
         <v>70</v>
       </c>
       <c r="X844" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y844" t="s">
         <v>1739</v>
@@ -91227,18 +91837,21 @@
       <c r="AH844">
         <v>10</v>
       </c>
+      <c r="AI844" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ844" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK844" s="15">
-        <v>9.8670000000000009</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AL844" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM844" s="14">
-        <f>13.011-6.611</f>
-        <v>6.3999999999999995</v>
+        <f>17.722-15.322</f>
+        <v>2.4000000000000021</v>
       </c>
       <c r="AN844" s="15">
         <v>4</v>
@@ -91306,7 +91919,7 @@
         <v>70</v>
       </c>
       <c r="X845" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y845" t="s">
         <v>1739</v>
@@ -91323,18 +91936,21 @@
       <c r="AH845">
         <v>10</v>
       </c>
+      <c r="AI845" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ845" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK845" s="15">
-        <v>16.399999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AL845" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM845" s="14">
-        <f>17.722-15.322</f>
-        <v>2.4000000000000021</v>
+        <f>1.722-0.3</f>
+        <v>1.4219999999999999</v>
       </c>
       <c r="AN845" s="15">
         <v>4</v>
@@ -91402,7 +92018,7 @@
         <v>70</v>
       </c>
       <c r="X846" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y846" t="s">
         <v>1739</v>
@@ -91419,18 +92035,21 @@
       <c r="AH846">
         <v>10</v>
       </c>
+      <c r="AI846" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ846" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK846" s="15">
-        <v>0.3</v>
+        <v>2.9329999999999998</v>
       </c>
       <c r="AL846" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM846" s="14">
-        <f>1.722-0.3</f>
-        <v>1.4219999999999999</v>
+        <f>5.367-0.744</f>
+        <v>4.6230000000000002</v>
       </c>
       <c r="AN846" s="15">
         <v>4</v>
@@ -91439,7 +92058,8 @@
         <v>50</v>
       </c>
       <c r="AP846" s="15">
-        <v>119</v>
+        <f>AP845+7</f>
+        <v>126</v>
       </c>
       <c r="AQ846" s="14" t="s">
         <v>1813</v>
@@ -91498,7 +92118,7 @@
         <v>70</v>
       </c>
       <c r="X847" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y847" t="s">
         <v>1739</v>
@@ -91515,18 +92135,21 @@
       <c r="AH847">
         <v>10</v>
       </c>
+      <c r="AI847" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ847" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK847" s="15">
-        <v>2.9329999999999998</v>
+        <v>9.8670000000000009</v>
       </c>
       <c r="AL847" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM847" s="14">
-        <f>5.367-0.744</f>
-        <v>4.6230000000000002</v>
+        <f>13.011-6.611</f>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AN847" s="15">
         <v>4</v>
@@ -91535,7 +92158,6 @@
         <v>50</v>
       </c>
       <c r="AP847" s="15">
-        <f>AP846+7</f>
         <v>126</v>
       </c>
       <c r="AQ847" s="14" t="s">
@@ -91595,7 +92217,7 @@
         <v>70</v>
       </c>
       <c r="X848" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y848" t="s">
         <v>1739</v>
@@ -91612,18 +92234,21 @@
       <c r="AH848">
         <v>10</v>
       </c>
+      <c r="AI848" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ848" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK848" s="15">
-        <v>9.8670000000000009</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AL848" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM848" s="14">
-        <f>13.011-6.611</f>
-        <v>6.3999999999999995</v>
+        <f>17.722-15.322</f>
+        <v>2.4000000000000021</v>
       </c>
       <c r="AN848" s="15">
         <v>4</v>
@@ -91691,7 +92316,7 @@
         <v>70</v>
       </c>
       <c r="X849" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y849" t="s">
         <v>1739</v>
@@ -91708,18 +92333,21 @@
       <c r="AH849">
         <v>10</v>
       </c>
+      <c r="AI849" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ849" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK849" s="15">
-        <v>16.399999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AL849" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM849" s="14">
-        <f>17.722-15.322</f>
-        <v>2.4000000000000021</v>
+        <f>1.722-0.3</f>
+        <v>1.4219999999999999</v>
       </c>
       <c r="AN849" s="15">
         <v>4</v>
@@ -91787,7 +92415,7 @@
         <v>70</v>
       </c>
       <c r="X850" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y850" t="s">
         <v>1739</v>
@@ -91804,18 +92432,21 @@
       <c r="AH850">
         <v>10</v>
       </c>
+      <c r="AI850" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ850" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK850" s="15">
-        <v>0.3</v>
+        <v>3.8559999999999999</v>
       </c>
       <c r="AL850" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM850" s="14">
-        <f>1.722-0.3</f>
-        <v>1.4219999999999999</v>
+        <f>6.344-1.9</f>
+        <v>4.4440000000000008</v>
       </c>
       <c r="AN850" s="15">
         <v>4</v>
@@ -91824,7 +92455,7 @@
         <v>50</v>
       </c>
       <c r="AP850" s="15">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AQ850" s="14" t="s">
         <v>1813</v>
@@ -91883,7 +92514,7 @@
         <v>70</v>
       </c>
       <c r="X851" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y851" t="s">
         <v>1739</v>
@@ -91900,18 +92531,21 @@
       <c r="AH851">
         <v>10</v>
       </c>
+      <c r="AI851" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ851" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK851" s="15">
-        <v>3.8559999999999999</v>
+        <v>9.8670000000000009</v>
       </c>
       <c r="AL851" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM851" s="14">
-        <f>6.344-1.9</f>
-        <v>4.4440000000000008</v>
+        <f>13.011-6.611</f>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AN851" s="15">
         <v>4</v>
@@ -91979,7 +92613,7 @@
         <v>70</v>
       </c>
       <c r="X852" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y852" t="s">
         <v>1739</v>
@@ -91996,18 +92630,21 @@
       <c r="AH852">
         <v>10</v>
       </c>
+      <c r="AI852" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ852" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK852" s="15">
-        <v>9.8670000000000009</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AL852" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM852" s="14">
-        <f>13.011-6.611</f>
-        <v>6.3999999999999995</v>
+        <f>17.722-15.322</f>
+        <v>2.4000000000000021</v>
       </c>
       <c r="AN852" s="15">
         <v>4</v>
@@ -92075,7 +92712,7 @@
         <v>70</v>
       </c>
       <c r="X853" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y853" t="s">
         <v>1739</v>
@@ -92092,18 +92729,21 @@
       <c r="AH853">
         <v>10</v>
       </c>
+      <c r="AI853" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ853" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK853" s="15">
-        <v>16.399999999999999</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="AL853" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM853" s="14">
-        <f>17.722-15.322</f>
-        <v>2.4000000000000021</v>
+        <f>1.9</f>
+        <v>1.9</v>
       </c>
       <c r="AN853" s="15">
         <v>4</v>
@@ -92171,7 +92811,7 @@
         <v>70</v>
       </c>
       <c r="X854" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y854" t="s">
         <v>1739</v>
@@ -92188,18 +92828,21 @@
       <c r="AH854">
         <v>10</v>
       </c>
+      <c r="AI854" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ854" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK854" s="15">
-        <v>0.53300000000000003</v>
+        <v>3.8559999999999999</v>
       </c>
       <c r="AL854" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM854" s="14">
-        <f>1.9</f>
-        <v>1.9</v>
+        <f>6.344-1.9</f>
+        <v>4.4440000000000008</v>
       </c>
       <c r="AN854" s="15">
         <v>4</v>
@@ -92208,7 +92851,7 @@
         <v>50</v>
       </c>
       <c r="AP854" s="15">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AQ854" s="14" t="s">
         <v>1813</v>
@@ -92267,7 +92910,7 @@
         <v>70</v>
       </c>
       <c r="X855" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y855" t="s">
         <v>1739</v>
@@ -92284,18 +92927,21 @@
       <c r="AH855">
         <v>10</v>
       </c>
+      <c r="AI855" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ855" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK855" s="15">
-        <v>3.8559999999999999</v>
+        <v>9.8670000000000009</v>
       </c>
       <c r="AL855" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM855" s="14">
-        <f>6.344-1.9</f>
-        <v>4.4440000000000008</v>
+        <f>13.011-6.611</f>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AN855" s="15">
         <v>4</v>
@@ -92363,7 +93009,7 @@
         <v>70</v>
       </c>
       <c r="X856" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y856" t="s">
         <v>1739</v>
@@ -92380,18 +93026,21 @@
       <c r="AH856">
         <v>10</v>
       </c>
+      <c r="AI856" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ856" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK856" s="15">
-        <v>9.8670000000000009</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AL856" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM856" s="14">
-        <f>13.011-6.611</f>
-        <v>6.3999999999999995</v>
+        <f>17.722-15.322</f>
+        <v>2.4000000000000021</v>
       </c>
       <c r="AN856" s="15">
         <v>4</v>
@@ -92459,7 +93108,7 @@
         <v>70</v>
       </c>
       <c r="X857" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y857" t="s">
         <v>1739</v>
@@ -92476,18 +93125,21 @@
       <c r="AH857">
         <v>10</v>
       </c>
+      <c r="AI857" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ857" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK857" s="15">
-        <v>16.399999999999999</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="AL857" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM857" s="14">
-        <f>17.722-15.322</f>
-        <v>2.4000000000000021</v>
+        <f>1.9</f>
+        <v>1.9</v>
       </c>
       <c r="AN857" s="15">
         <v>4</v>
@@ -92555,7 +93207,7 @@
         <v>70</v>
       </c>
       <c r="X858" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y858" t="s">
         <v>1739</v>
@@ -92572,18 +93224,21 @@
       <c r="AH858">
         <v>10</v>
       </c>
+      <c r="AI858" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ858" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK858" s="15">
-        <v>0.53300000000000003</v>
+        <v>4.3</v>
       </c>
       <c r="AL858" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM858" s="14">
-        <f>1.9</f>
-        <v>1.9</v>
+        <f>6.7-2.167</f>
+        <v>4.5330000000000004</v>
       </c>
       <c r="AN858" s="15">
         <v>4</v>
@@ -92592,7 +93247,7 @@
         <v>50</v>
       </c>
       <c r="AP858" s="15">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AQ858" s="14" t="s">
         <v>1813</v>
@@ -92651,7 +93306,7 @@
         <v>70</v>
       </c>
       <c r="X859" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y859" t="s">
         <v>1739</v>
@@ -92668,18 +93323,21 @@
       <c r="AH859">
         <v>10</v>
       </c>
+      <c r="AI859" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ859" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK859" s="15">
-        <v>4.3</v>
+        <v>9.8670000000000009</v>
       </c>
       <c r="AL859" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM859" s="14">
-        <f>6.7-2.167</f>
-        <v>4.5330000000000004</v>
+        <f>13.011-6.611</f>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AN859" s="15">
         <v>4</v>
@@ -92747,7 +93405,7 @@
         <v>70</v>
       </c>
       <c r="X860" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y860" t="s">
         <v>1739</v>
@@ -92764,18 +93422,21 @@
       <c r="AH860">
         <v>10</v>
       </c>
+      <c r="AI860" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ860" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK860" s="15">
-        <v>9.8670000000000009</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AL860" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM860" s="14">
-        <f>13.011-6.611</f>
-        <v>6.3999999999999995</v>
+        <f>17.722-15.322</f>
+        <v>2.4000000000000021</v>
       </c>
       <c r="AN860" s="15">
         <v>4</v>
@@ -92843,7 +93504,7 @@
         <v>70</v>
       </c>
       <c r="X861" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y861" t="s">
         <v>1739</v>
@@ -92860,18 +93521,20 @@
       <c r="AH861">
         <v>10</v>
       </c>
+      <c r="AI861" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ861" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK861" s="15">
-        <v>16.399999999999999</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="AL861" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM861" s="14">
-        <f>17.722-15.322</f>
-        <v>2.4000000000000021</v>
+        <v>1.9890000000000001</v>
       </c>
       <c r="AN861" s="15">
         <v>4</v>
@@ -92939,7 +93602,7 @@
         <v>70</v>
       </c>
       <c r="X862" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y862" t="s">
         <v>1739</v>
@@ -92956,17 +93619,21 @@
       <c r="AH862">
         <v>10</v>
       </c>
+      <c r="AI862" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ862" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK862" s="15">
-        <v>0.56699999999999995</v>
+        <v>4.3</v>
       </c>
       <c r="AL862" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM862" s="14">
-        <v>1.9890000000000001</v>
+        <f>6.7-2.167</f>
+        <v>4.5330000000000004</v>
       </c>
       <c r="AN862" s="15">
         <v>4</v>
@@ -92975,7 +93642,8 @@
         <v>50</v>
       </c>
       <c r="AP862" s="15">
-        <v>147</v>
+        <f>AP861+7</f>
+        <v>154</v>
       </c>
       <c r="AQ862" s="14" t="s">
         <v>1813</v>
@@ -93034,7 +93702,7 @@
         <v>70</v>
       </c>
       <c r="X863" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y863" t="s">
         <v>1739</v>
@@ -93051,18 +93719,21 @@
       <c r="AH863">
         <v>10</v>
       </c>
+      <c r="AI863" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ863" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK863" s="15">
-        <v>4.3</v>
+        <v>9.8670000000000009</v>
       </c>
       <c r="AL863" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM863" s="14">
-        <f>6.7-2.167</f>
-        <v>4.5330000000000004</v>
+        <f>13.011-6.611</f>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AN863" s="15">
         <v>4</v>
@@ -93071,7 +93742,6 @@
         <v>50</v>
       </c>
       <c r="AP863" s="15">
-        <f>AP862+7</f>
         <v>154</v>
       </c>
       <c r="AQ863" s="14" t="s">
@@ -93131,7 +93801,7 @@
         <v>70</v>
       </c>
       <c r="X864" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y864" t="s">
         <v>1739</v>
@@ -93148,18 +93818,21 @@
       <c r="AH864">
         <v>10</v>
       </c>
+      <c r="AI864" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ864" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK864" s="15">
-        <v>9.8670000000000009</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AL864" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM864" s="14">
-        <f>13.011-6.611</f>
-        <v>6.3999999999999995</v>
+        <f>17.722-15.322</f>
+        <v>2.4000000000000021</v>
       </c>
       <c r="AN864" s="15">
         <v>4</v>
@@ -93227,7 +93900,7 @@
         <v>70</v>
       </c>
       <c r="X865" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y865" t="s">
         <v>1739</v>
@@ -93244,18 +93917,20 @@
       <c r="AH865">
         <v>10</v>
       </c>
+      <c r="AI865" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ865" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK865" s="15">
-        <v>16.399999999999999</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="AL865" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM865" s="14">
-        <f>17.722-15.322</f>
-        <v>2.4000000000000021</v>
+        <v>1.9890000000000001</v>
       </c>
       <c r="AN865" s="15">
         <v>4</v>
@@ -93323,7 +93998,7 @@
         <v>70</v>
       </c>
       <c r="X866" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y866" t="s">
         <v>1739</v>
@@ -93340,17 +94015,21 @@
       <c r="AH866">
         <v>10</v>
       </c>
+      <c r="AI866" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ866" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK866" s="15">
-        <v>0.56699999999999995</v>
+        <v>4.3</v>
       </c>
       <c r="AL866" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM866" s="14">
-        <v>1.9890000000000001</v>
+        <f>6.7-2.167</f>
+        <v>4.5330000000000004</v>
       </c>
       <c r="AN866" s="15">
         <v>4</v>
@@ -93359,7 +94038,8 @@
         <v>50</v>
       </c>
       <c r="AP866" s="15">
-        <v>154</v>
+        <f>154+7</f>
+        <v>161</v>
       </c>
       <c r="AQ866" s="14" t="s">
         <v>1813</v>
@@ -93418,7 +94098,7 @@
         <v>70</v>
       </c>
       <c r="X867" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y867" t="s">
         <v>1739</v>
@@ -93435,18 +94115,21 @@
       <c r="AH867">
         <v>10</v>
       </c>
+      <c r="AI867" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ867" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK867" s="15">
-        <v>4.3</v>
+        <v>9.8670000000000009</v>
       </c>
       <c r="AL867" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM867" s="14">
-        <f>6.7-2.167</f>
-        <v>4.5330000000000004</v>
+        <f>13.011-6.611</f>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AN867" s="15">
         <v>4</v>
@@ -93455,7 +94138,6 @@
         <v>50</v>
       </c>
       <c r="AP867" s="15">
-        <f>154+7</f>
         <v>161</v>
       </c>
       <c r="AQ867" s="14" t="s">
@@ -93515,7 +94197,7 @@
         <v>70</v>
       </c>
       <c r="X868" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y868" t="s">
         <v>1739</v>
@@ -93532,18 +94214,21 @@
       <c r="AH868">
         <v>10</v>
       </c>
+      <c r="AI868" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ868" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK868" s="15">
-        <v>9.8670000000000009</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AL868" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM868" s="14">
-        <f>13.011-6.611</f>
-        <v>6.3999999999999995</v>
+        <f>17.722-15.322</f>
+        <v>2.4000000000000021</v>
       </c>
       <c r="AN868" s="15">
         <v>4</v>
@@ -93611,7 +94296,7 @@
         <v>70</v>
       </c>
       <c r="X869" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y869" t="s">
         <v>1739</v>
@@ -93628,18 +94313,20 @@
       <c r="AH869">
         <v>10</v>
       </c>
+      <c r="AI869" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ869" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK869" s="15">
-        <v>16.399999999999999</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="AL869" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM869" s="14">
-        <f>17.722-15.322</f>
-        <v>2.4000000000000021</v>
+        <v>1.9890000000000001</v>
       </c>
       <c r="AN869" s="15">
         <v>4</v>
@@ -93707,7 +94394,7 @@
         <v>70</v>
       </c>
       <c r="X870" s="9" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="Y870" t="s">
         <v>1739</v>
@@ -93724,17 +94411,21 @@
       <c r="AH870">
         <v>10</v>
       </c>
+      <c r="AI870" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ870" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK870" s="15">
-        <v>0.56699999999999995</v>
+        <v>4.3</v>
       </c>
       <c r="AL870" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM870" s="14">
-        <v>1.9890000000000001</v>
+        <f>6.7-2.167</f>
+        <v>4.5330000000000004</v>
       </c>
       <c r="AN870" s="15">
         <v>4</v>
@@ -93743,7 +94434,7 @@
         <v>50</v>
       </c>
       <c r="AP870" s="15">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AQ870" s="14" t="s">
         <v>1813</v>
@@ -93802,7 +94493,7 @@
         <v>70</v>
       </c>
       <c r="X871" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="Y871" t="s">
         <v>1739</v>
@@ -93819,18 +94510,21 @@
       <c r="AH871">
         <v>10</v>
       </c>
+      <c r="AI871" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ871" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK871" s="15">
-        <v>4.3</v>
+        <v>9.8670000000000009</v>
       </c>
       <c r="AL871" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM871" s="14">
-        <f>6.7-2.167</f>
-        <v>4.5330000000000004</v>
+        <f>13.011-6.611</f>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AN871" s="15">
         <v>4</v>
@@ -93898,7 +94592,7 @@
         <v>70</v>
       </c>
       <c r="X872" s="9" t="s">
-        <v>1821</v>
+        <v>1730</v>
       </c>
       <c r="Y872" t="s">
         <v>1739</v>
@@ -93915,18 +94609,21 @@
       <c r="AH872">
         <v>10</v>
       </c>
+      <c r="AI872" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ872" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK872" s="15">
-        <v>9.8670000000000009</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AL872" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM872" s="14">
-        <f>13.011-6.611</f>
-        <v>6.3999999999999995</v>
+        <f>17.722-15.322</f>
+        <v>2.4000000000000021</v>
       </c>
       <c r="AN872" s="15">
         <v>4</v>
@@ -93994,7 +94691,7 @@
         <v>70</v>
       </c>
       <c r="X873" s="9" t="s">
-        <v>1730</v>
+        <v>1822</v>
       </c>
       <c r="Y873" t="s">
         <v>1739</v>
@@ -94011,18 +94708,20 @@
       <c r="AH873">
         <v>10</v>
       </c>
+      <c r="AI873" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ873" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK873" s="15">
-        <v>16.399999999999999</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="AL873" s="14" t="s">
         <v>1792</v>
       </c>
       <c r="AM873" s="14">
-        <f>17.722-15.322</f>
-        <v>2.4000000000000021</v>
+        <v>1.9890000000000001</v>
       </c>
       <c r="AN873" s="15">
         <v>4</v>
@@ -94081,7 +94780,7 @@
         <v>1842</v>
       </c>
       <c r="U874" t="s">
-        <v>1775</v>
+        <v>95</v>
       </c>
       <c r="V874" s="9" t="s">
         <v>1842</v>
@@ -94090,7 +94789,7 @@
         <v>70</v>
       </c>
       <c r="X874" s="9" t="s">
-        <v>1822</v>
+        <v>1730</v>
       </c>
       <c r="Y874" t="s">
         <v>1739</v>
@@ -94098,6 +94797,15 @@
       <c r="Z874">
         <v>0</v>
       </c>
+      <c r="AA874" t="s">
+        <v>1846</v>
+      </c>
+      <c r="AB874">
+        <v>10</v>
+      </c>
+      <c r="AC874">
+        <v>1</v>
+      </c>
       <c r="AF874" s="14" t="s">
         <v>158</v>
       </c>
@@ -94107,18 +94815,16 @@
       <c r="AH874">
         <v>10</v>
       </c>
+      <c r="AI874" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ874" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK874" s="15">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="AL874" s="14" t="s">
-        <v>1792</v>
-      </c>
-      <c r="AM874" s="14">
-        <v>1.9890000000000001</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AL874" s="14"/>
       <c r="AN874" s="15">
         <v>4</v>
       </c>
@@ -94126,7 +94832,7 @@
         <v>50</v>
       </c>
       <c r="AP874" s="15">
-        <v>168</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AQ874" s="14" t="s">
         <v>1813</v>
@@ -94194,10 +94900,10 @@
         <v>0</v>
       </c>
       <c r="AA875" t="s">
-        <v>1846</v>
+        <v>1685</v>
       </c>
       <c r="AB875">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="AC875">
         <v>1</v>
@@ -94210,6 +94916,9 @@
       </c>
       <c r="AH875">
         <v>10</v>
+      </c>
+      <c r="AI875" t="s">
+        <v>158</v>
       </c>
       <c r="AJ875" s="15" t="s">
         <v>1674</v>
@@ -94225,7 +94934,7 @@
         <v>50</v>
       </c>
       <c r="AP875" s="15">
-        <v>8.6999999999999993</v>
+        <v>20</v>
       </c>
       <c r="AQ875" s="14" t="s">
         <v>1813</v>
@@ -94287,7 +94996,7 @@
         <v>1730</v>
       </c>
       <c r="Y876" t="s">
-        <v>1739</v>
+        <v>1847</v>
       </c>
       <c r="Z876">
         <v>0</v>
@@ -94309,6 +95018,9 @@
       </c>
       <c r="AH876">
         <v>10</v>
+      </c>
+      <c r="AI876" t="s">
+        <v>158</v>
       </c>
       <c r="AJ876" s="15" t="s">
         <v>1674</v>
@@ -94324,7 +95036,7 @@
         <v>50</v>
       </c>
       <c r="AP876" s="15">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AQ876" s="14" t="s">
         <v>1813</v>
@@ -94386,7 +95098,7 @@
         <v>1730</v>
       </c>
       <c r="Y877" t="s">
-        <v>1847</v>
+        <v>1739</v>
       </c>
       <c r="Z877">
         <v>0</v>
@@ -94395,7 +95107,7 @@
         <v>1685</v>
       </c>
       <c r="AB877">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC877">
         <v>1</v>
@@ -94408,6 +95120,9 @@
       </c>
       <c r="AH877">
         <v>10</v>
+      </c>
+      <c r="AI877" t="s">
+        <v>158</v>
       </c>
       <c r="AJ877" s="15" t="s">
         <v>1674</v>
@@ -94423,7 +95138,7 @@
         <v>50</v>
       </c>
       <c r="AP877" s="15">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ877" s="14" t="s">
         <v>1813</v>
@@ -94485,7 +95200,7 @@
         <v>1730</v>
       </c>
       <c r="Y878" t="s">
-        <v>1739</v>
+        <v>1848</v>
       </c>
       <c r="Z878">
         <v>0</v>
@@ -94507,6 +95222,9 @@
       </c>
       <c r="AH878">
         <v>10</v>
+      </c>
+      <c r="AI878" t="s">
+        <v>158</v>
       </c>
       <c r="AJ878" s="15" t="s">
         <v>1674</v>
@@ -94522,7 +95240,7 @@
         <v>50</v>
       </c>
       <c r="AP878" s="15">
-        <v>18.5</v>
+        <v>11.3</v>
       </c>
       <c r="AQ878" s="14" t="s">
         <v>1813</v>
@@ -94584,7 +95302,7 @@
         <v>1730</v>
       </c>
       <c r="Y879" t="s">
-        <v>1848</v>
+        <v>1739</v>
       </c>
       <c r="Z879">
         <v>0</v>
@@ -94593,7 +95311,7 @@
         <v>1685</v>
       </c>
       <c r="AB879">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AC879">
         <v>1</v>
@@ -94606,6 +95324,9 @@
       </c>
       <c r="AH879">
         <v>10</v>
+      </c>
+      <c r="AI879" t="s">
+        <v>158</v>
       </c>
       <c r="AJ879" s="15" t="s">
         <v>1674</v>
@@ -94621,7 +95342,7 @@
         <v>50</v>
       </c>
       <c r="AP879" s="15">
-        <v>11.3</v>
+        <v>39</v>
       </c>
       <c r="AQ879" s="14" t="s">
         <v>1813</v>
@@ -94683,7 +95404,7 @@
         <v>1730</v>
       </c>
       <c r="Y880" t="s">
-        <v>1739</v>
+        <v>1848</v>
       </c>
       <c r="Z880">
         <v>0</v>
@@ -94705,6 +95426,9 @@
       </c>
       <c r="AH880">
         <v>10</v>
+      </c>
+      <c r="AI880" t="s">
+        <v>158</v>
       </c>
       <c r="AJ880" s="15" t="s">
         <v>1674</v>
@@ -94720,7 +95444,7 @@
         <v>50</v>
       </c>
       <c r="AP880" s="15">
-        <v>39</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AQ880" s="14" t="s">
         <v>1813</v>
@@ -94782,7 +95506,7 @@
         <v>1730</v>
       </c>
       <c r="Y881" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="Z881">
         <v>0</v>
@@ -94804,6 +95528,9 @@
       </c>
       <c r="AH881">
         <v>10</v>
+      </c>
+      <c r="AI881" t="s">
+        <v>158</v>
       </c>
       <c r="AJ881" s="15" t="s">
         <v>1674</v>
@@ -94819,7 +95546,7 @@
         <v>50</v>
       </c>
       <c r="AP881" s="15">
-        <v>9.8000000000000007</v>
+        <v>53</v>
       </c>
       <c r="AQ881" s="14" t="s">
         <v>1813</v>
@@ -94830,7 +95557,7 @@
     </row>
     <row r="882" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>1608</v>
+        <v>1633</v>
       </c>
       <c r="B882" s="15" t="s">
         <v>1672</v>
@@ -94839,61 +95566,52 @@
         <v>1675</v>
       </c>
       <c r="D882" t="s">
-        <v>1603</v>
+        <v>1628</v>
       </c>
       <c r="E882" t="s">
-        <v>1604</v>
-      </c>
-      <c r="F882" t="s">
-        <v>1840</v>
+        <v>1629</v>
       </c>
       <c r="G882" s="15" t="s">
-        <v>1694</v>
+        <v>158</v>
       </c>
       <c r="H882" s="14" t="s">
         <v>1694</v>
       </c>
-      <c r="I882" s="16" t="s">
-        <v>1841</v>
+      <c r="I882" s="18" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J882">
+        <v>32.133333333333297</v>
+      </c>
+      <c r="K882">
+        <v>-50.133333333333297</v>
+      </c>
+      <c r="L882">
+        <v>2320</v>
       </c>
       <c r="M882" t="s">
         <v>1671</v>
       </c>
       <c r="O882">
-        <v>2011</v>
-      </c>
-      <c r="R882">
-        <v>30</v>
-      </c>
-      <c r="T882" t="s">
-        <v>1842</v>
+        <v>2009</v>
       </c>
       <c r="U882" t="s">
-        <v>95</v>
+        <v>1775</v>
       </c>
       <c r="V882" s="9" t="s">
-        <v>1842</v>
+        <v>1746</v>
       </c>
       <c r="W882">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="X882" s="9" t="s">
-        <v>1730</v>
-      </c>
-      <c r="Y882" t="s">
-        <v>1847</v>
+        <v>1821</v>
       </c>
       <c r="Z882">
         <v>0</v>
       </c>
-      <c r="AA882" t="s">
-        <v>1685</v>
-      </c>
-      <c r="AB882">
-        <v>500</v>
-      </c>
-      <c r="AC882">
-        <v>1</v>
+      <c r="AD882" t="s">
+        <v>1694</v>
       </c>
       <c r="AF882" s="14" t="s">
         <v>158</v>
@@ -94902,29 +95620,353 @@
         <v>1843</v>
       </c>
       <c r="AH882">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="AI882" t="s">
+        <v>1694</v>
       </c>
       <c r="AJ882" s="15" t="s">
         <v>1674</v>
       </c>
       <c r="AK882" s="15">
-        <v>50</v>
-      </c>
-      <c r="AL882" s="14"/>
+        <v>36.75</v>
+      </c>
+      <c r="AL882" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AM882">
+        <f>40.33-33.278</f>
+        <v>7.0519999999999996</v>
+      </c>
       <c r="AN882" s="15">
         <v>4</v>
       </c>
       <c r="AO882" s="15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AP882" s="15">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="AQ882" s="14" t="s">
-        <v>1813</v>
+        <v>1851</v>
       </c>
       <c r="AR882" s="15" t="s">
-        <v>1845</v>
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="883" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B883" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C883" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E883" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G883" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H883" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I883" s="18" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J883">
+        <v>32.133333333333297</v>
+      </c>
+      <c r="K883">
+        <v>-50.133333333333297</v>
+      </c>
+      <c r="L883">
+        <v>2320</v>
+      </c>
+      <c r="M883" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O883">
+        <v>2009</v>
+      </c>
+      <c r="U883" t="s">
+        <v>1852</v>
+      </c>
+      <c r="V883" s="9" t="s">
+        <v>1746</v>
+      </c>
+      <c r="W883">
+        <v>120</v>
+      </c>
+      <c r="X883" s="9" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z883">
+        <v>0</v>
+      </c>
+      <c r="AD883" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF883" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG883" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AH883">
+        <v>1440</v>
+      </c>
+      <c r="AI883" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ883" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK883" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="AL883" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AM883">
+        <f>50.128-41.19</f>
+        <v>8.9380000000000024</v>
+      </c>
+      <c r="AN883" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO883" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP883" s="15">
+        <v>120</v>
+      </c>
+      <c r="AQ883" s="14" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AR883" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="884" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B884" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C884" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E884" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G884" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H884" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I884" s="18" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J884">
+        <v>32.133333333333297</v>
+      </c>
+      <c r="K884">
+        <v>-50.133333333333297</v>
+      </c>
+      <c r="L884">
+        <v>2320</v>
+      </c>
+      <c r="M884" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O884">
+        <v>2009</v>
+      </c>
+      <c r="U884" t="s">
+        <v>1854</v>
+      </c>
+      <c r="V884" s="9" t="s">
+        <v>1746</v>
+      </c>
+      <c r="W884">
+        <v>120</v>
+      </c>
+      <c r="X884" s="9" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z884">
+        <v>0</v>
+      </c>
+      <c r="AA884" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB884">
+        <v>1000</v>
+      </c>
+      <c r="AC884">
+        <v>2</v>
+      </c>
+      <c r="AD884" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF884" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG884" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AH884">
+        <v>5</v>
+      </c>
+      <c r="AI884" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ884" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK884" s="15">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AL884" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AM884">
+        <f>43.828-36.941</f>
+        <v>6.8870000000000005</v>
+      </c>
+      <c r="AN884" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO884" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP884" s="15">
+        <v>120</v>
+      </c>
+      <c r="AQ884" s="14" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AR884" s="15" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="885" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B885" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C885" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E885" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G885" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H885" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I885" s="18" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J885">
+        <v>32.133333333333297</v>
+      </c>
+      <c r="K885">
+        <v>-50.133333333333297</v>
+      </c>
+      <c r="L885">
+        <v>2320</v>
+      </c>
+      <c r="M885" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O885">
+        <v>2009</v>
+      </c>
+      <c r="U885" t="s">
+        <v>1854</v>
+      </c>
+      <c r="V885" s="9" t="s">
+        <v>1746</v>
+      </c>
+      <c r="W885">
+        <v>120</v>
+      </c>
+      <c r="X885" s="9" t="s">
+        <v>1821</v>
+      </c>
+      <c r="Z885">
+        <v>0</v>
+      </c>
+      <c r="AA885" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AB885">
+        <v>1500</v>
+      </c>
+      <c r="AC885">
+        <v>2</v>
+      </c>
+      <c r="AD885" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AF885" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG885" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AH885">
+        <v>5</v>
+      </c>
+      <c r="AI885" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ885" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AK885" s="15">
+        <v>41</v>
+      </c>
+      <c r="AL885" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AM885">
+        <f>46.758-35.623</f>
+        <v>11.135000000000005</v>
+      </c>
+      <c r="AN885" s="15">
+        <v>4</v>
+      </c>
+      <c r="AO885" s="15">
+        <v>100</v>
+      </c>
+      <c r="AP885" s="15">
+        <v>120</v>
+      </c>
+      <c r="AQ885" s="14" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AR885" s="15" t="s">
+        <v>1681</v>
       </c>
     </row>
   </sheetData>
